--- a/king_index/output/index.xlsx
+++ b/king_index/output/index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -743,6 +743,22 @@
         <v>0.4192430456914331</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2021-03-25</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>25646340206</v>
+      </c>
+      <c r="C20" t="n">
+        <v>60739665104</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.4222338098520577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/king_index/output/index.xlsx
+++ b/king_index/output/index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>2020-08-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>299423037.5099999</v>
+        <v>31118752071</v>
       </c>
       <c r="C2" t="n">
-        <v>853016259.1100019</v>
+        <v>88411991123</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3510167998701504</v>
+        <v>0.351974338273947</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -482,17 +482,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
+          <t>2020-08-06</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316741847.9199998</v>
+        <v>35289080996</v>
       </c>
       <c r="C3" t="n">
-        <v>882633796.8599982</v>
+        <v>94484631872</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3588598680979818</v>
+        <v>0.3734901676264849</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -501,17 +501,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-08-07</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265460561.85</v>
+        <v>33926327226</v>
       </c>
       <c r="C4" t="n">
-        <v>722376814.0399988</v>
+        <v>90977583613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3674821183218391</v>
+        <v>0.3729086427522151</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -520,17 +520,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2020-08-10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>244291794.89</v>
+        <v>29708663069</v>
       </c>
       <c r="C5" t="n">
-        <v>668972403.2899994</v>
+        <v>82942928747</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3651746973246959</v>
+        <v>0.3581819875160189</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -539,17 +539,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>2020-08-11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242576092.41</v>
+        <v>30946369948</v>
       </c>
       <c r="C6" t="n">
-        <v>674917031.6599983</v>
+        <v>86295092754</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3594161667744105</v>
+        <v>0.3586110051033644</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2020-08-12</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>255865584.0400001</v>
+        <v>29856245191</v>
       </c>
       <c r="C7" t="n">
-        <v>731529574.8199975</v>
+        <v>82452473263</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3497679285255954</v>
+        <v>0.3621024817019988</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -577,17 +577,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-08-26</t>
+          <t>2020-08-13</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>252043201.8400001</v>
+        <v>27823565615</v>
       </c>
       <c r="C8" t="n">
-        <v>757768264.6300011</v>
+        <v>72532322436</v>
       </c>
       <c r="D8" t="n">
-        <v>0.332612506493745</v>
+        <v>0.3836022986793308</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -596,17 +596,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>2020-08-14</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222334870.6800001</v>
+        <v>27261549866</v>
       </c>
       <c r="C9" t="n">
-        <v>650429141.2799995</v>
+        <v>69180221661</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3418279664445237</v>
+        <v>0.3940656622869504</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -615,17 +615,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
+          <t>2020-08-17</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>247901178.2799999</v>
+        <v>37118467741</v>
       </c>
       <c r="C10" t="n">
-        <v>710711048.7100012</v>
+        <v>91788369903</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3488072666521237</v>
+        <v>0.4043918394043386</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -634,17 +634,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-08-18</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>275860326.74</v>
+        <v>31325687773</v>
       </c>
       <c r="C11" t="n">
-        <v>773515400.1500019</v>
+        <v>85178317604</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3566319774454452</v>
+        <v>0.3677659838109897</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -653,17 +653,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2020-08-19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>230176135.7999999</v>
+        <v>33073383828</v>
       </c>
       <c r="C12" t="n">
-        <v>644601909.6999928</v>
+        <v>88140275731</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3570826153883522</v>
+        <v>0.375235765417145</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -672,17 +672,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>289736125.67</v>
+        <v>27646953314</v>
       </c>
       <c r="C13" t="n">
-        <v>776864964.270002</v>
+        <v>72119978332</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3729555830108219</v>
+        <v>0.3833466669489126</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -691,17 +691,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-09-03</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>266501948.04</v>
+        <v>25486130617</v>
       </c>
       <c r="C14" t="n">
-        <v>736363648.0799991</v>
+        <v>66786682396</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3619162199748445</v>
+        <v>0.3816049802546626</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -710,17 +710,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>233921052.29</v>
+        <v>25209284709</v>
       </c>
       <c r="C15" t="n">
-        <v>656555275.7399983</v>
+        <v>67412296336</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3562853897203848</v>
+        <v>0.3739567716748666</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
@@ -729,17 +729,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-09-07</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>288517322.3</v>
+        <v>26619247474</v>
       </c>
       <c r="C16" t="n">
-        <v>799759972.4299973</v>
+        <v>73103731924</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3607548917750492</v>
+        <v>0.3641298025889275</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -748,17 +748,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>2020-08-26</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>315529753.77</v>
+        <v>26322908958</v>
       </c>
       <c r="C17" t="n">
-        <v>802777655.3099976</v>
+        <v>75716936591</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3930475041039305</v>
+        <v>0.3476488899727732</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -767,17 +767,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-09-09</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>402755827.0799996</v>
+        <v>23276018839</v>
       </c>
       <c r="C18" t="n">
-        <v>985995522.9100012</v>
+        <v>65005692955</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4084763244069639</v>
+        <v>0.3580612371152286</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
@@ -786,17 +786,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-09-10</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>311139864.9900001</v>
+        <v>25701039669</v>
       </c>
       <c r="C19" t="n">
-        <v>840251373.080001</v>
+        <v>70850828969</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3702937894043479</v>
+        <v>0.3627486091975749</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
@@ -805,17 +805,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-09-11</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>227002836.5399998</v>
+        <v>28573296373</v>
       </c>
       <c r="C20" t="n">
-        <v>604180585.0000013</v>
+        <v>77184652221</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3757201773373756</v>
+        <v>0.3701940159189566</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
@@ -824,17 +824,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>234652448.84</v>
+        <v>23964180511</v>
       </c>
       <c r="C21" t="n">
-        <v>631608093.0099995</v>
+        <v>64392996012</v>
       </c>
       <c r="D21" t="n">
-        <v>0.371515899553689</v>
+        <v>0.3721550788929613</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
@@ -843,17 +843,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222608255.6299999</v>
+        <v>30082062270</v>
       </c>
       <c r="C22" t="n">
-        <v>586744778.3299975</v>
+        <v>77531927895</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3793953757263782</v>
+        <v>0.3879957984630482</v>
       </c>
       <c r="E22" t="n">
         <v>21</v>
@@ -862,17 +862,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2020-09-03</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>209255482.95</v>
+        <v>27715216294</v>
       </c>
       <c r="C23" t="n">
-        <v>552502544.0800008</v>
+        <v>73519808249</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3787412115874356</v>
+        <v>0.3769761776327399</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
@@ -881,17 +881,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>197782581.3899998</v>
+        <v>24329945914</v>
       </c>
       <c r="C24" t="n">
-        <v>555669179.8999984</v>
+        <v>65573685675</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3559358491424591</v>
+        <v>0.37103215510236</v>
       </c>
       <c r="E24" t="n">
         <v>23</v>
@@ -900,17 +900,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>2020-09-07</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>241584936.16</v>
+        <v>29997390344</v>
       </c>
       <c r="C25" t="n">
-        <v>647155020.6699966</v>
+        <v>79881522723</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3733030393705178</v>
+        <v>0.375523516846568</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
@@ -919,17 +919,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-09-21</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213900672.78</v>
+        <v>32724062545</v>
       </c>
       <c r="C26" t="n">
-        <v>581791988.179996</v>
+        <v>80161481426</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3676583334348409</v>
+        <v>0.4082267688030289</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
@@ -938,17 +938,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-09-22</t>
+          <t>2020-09-09</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>213775178.74</v>
+        <v>41720230941</v>
       </c>
       <c r="C27" t="n">
-        <v>563451276.0499977</v>
+        <v>98517765305</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3794031317821184</v>
+        <v>0.4234792660170358</v>
       </c>
       <c r="E27" t="n">
         <v>26</v>
@@ -957,17 +957,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-09-23</t>
+          <t>2020-09-10</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>184586365.16</v>
+        <v>32362586075</v>
       </c>
       <c r="C28" t="n">
-        <v>486528870.2800002</v>
+        <v>83938666669</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3793944746871229</v>
+        <v>0.3855503948212232</v>
       </c>
       <c r="E28" t="n">
         <v>27</v>
@@ -976,17 +976,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-09-24</t>
+          <t>2020-09-11</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>201935595.6099999</v>
+        <v>23586290440</v>
       </c>
       <c r="C29" t="n">
-        <v>549609399.0599995</v>
+        <v>60330240577</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3674165615714936</v>
+        <v>0.3909530314220547</v>
       </c>
       <c r="E29" t="n">
         <v>28</v>
@@ -995,17 +995,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>157070698.7499999</v>
+        <v>24462170352</v>
       </c>
       <c r="C30" t="n">
-        <v>436804091.1499984</v>
+        <v>63101019998</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3595907225513185</v>
+        <v>0.3876667976646865</v>
       </c>
       <c r="E30" t="n">
         <v>29</v>
@@ -1014,17 +1014,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>141433782.61</v>
+        <v>23106120892</v>
       </c>
       <c r="C31" t="n">
-        <v>406118612.1899998</v>
+        <v>58614407766</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3482573276987148</v>
+        <v>0.3942054824514151</v>
       </c>
       <c r="E31" t="n">
         <v>30</v>
@@ -1033,17 +1033,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-09-29</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>140424960.33</v>
+        <v>21724638649</v>
       </c>
       <c r="C32" t="n">
-        <v>402761320.5199991</v>
+        <v>55182289033</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3486555266744567</v>
+        <v>0.3936886096915674</v>
       </c>
       <c r="E32" t="n">
         <v>31</v>
@@ -1052,17 +1052,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>146489230.6799999</v>
+        <v>20554994106</v>
       </c>
       <c r="C33" t="n">
-        <v>404177941.5499999</v>
+        <v>55472969929</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3624374702840583</v>
+        <v>0.3705407179804577</v>
       </c>
       <c r="E33" t="n">
         <v>32</v>
@@ -1071,17 +1071,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177879476.8499999</v>
+        <v>25018086444</v>
       </c>
       <c r="C34" t="n">
-        <v>504944785.8399994</v>
+        <v>64587549837</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3522751038097938</v>
+        <v>0.3873515330297914</v>
       </c>
       <c r="E34" t="n">
         <v>33</v>
@@ -1090,17 +1090,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2020-09-21</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>240889334.9</v>
+        <v>22182279260</v>
       </c>
       <c r="C35" t="n">
-        <v>692238454.8499972</v>
+        <v>58098440053</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3479860634905047</v>
+        <v>0.3818050749686968</v>
       </c>
       <c r="E35" t="n">
         <v>34</v>
@@ -1109,17 +1109,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>2020-09-22</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>212385920.3400001</v>
+        <v>22099090990</v>
       </c>
       <c r="C36" t="n">
-        <v>585221126.5499965</v>
+        <v>56264182474</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3629156752970632</v>
+        <v>0.3927736975510506</v>
       </c>
       <c r="E36" t="n">
         <v>35</v>
@@ -1128,17 +1128,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2020-09-23</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>211131692.4800002</v>
+        <v>19077501915</v>
       </c>
       <c r="C37" t="n">
-        <v>580840082.1500002</v>
+        <v>48597940983</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3634936688571641</v>
+        <v>0.3925578230088695</v>
       </c>
       <c r="E37" t="n">
         <v>36</v>
@@ -1147,17 +1147,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2020-09-24</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>198393053.8200001</v>
+        <v>20859996043</v>
       </c>
       <c r="C38" t="n">
-        <v>545710465.6299995</v>
+        <v>54861814882</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3635500257283205</v>
+        <v>0.3802279616134993</v>
       </c>
       <c r="E38" t="n">
         <v>37</v>
@@ -1166,17 +1166,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>192799387.87</v>
+        <v>16281719043</v>
       </c>
       <c r="C39" t="n">
-        <v>517592304.4699985</v>
+        <v>43622575116</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3724927635224826</v>
+        <v>0.373240667239476</v>
       </c>
       <c r="E39" t="n">
         <v>38</v>
@@ -1185,17 +1185,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-09-28</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>200238943.9999999</v>
+        <v>14676583271</v>
       </c>
       <c r="C40" t="n">
-        <v>540929672.9999996</v>
+        <v>40556797589</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3701755588475548</v>
+        <v>0.3618772719614492</v>
       </c>
       <c r="E40" t="n">
         <v>39</v>
@@ -1204,17 +1204,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177477006.4999999</v>
+        <v>14442107257</v>
       </c>
       <c r="C41" t="n">
-        <v>480073411.9499983</v>
+        <v>40163621965</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3696872230001459</v>
+        <v>0.3595817944304267</v>
       </c>
       <c r="E41" t="n">
         <v>40</v>
@@ -1223,17 +1223,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>178718938.1099998</v>
+        <v>15066784297</v>
       </c>
       <c r="C42" t="n">
-        <v>494225531.9299976</v>
+        <v>40300843448</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3616141347697789</v>
+        <v>0.3738577907541961</v>
       </c>
       <c r="E42" t="n">
         <v>41</v>
@@ -1242,17 +1242,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>172666975.51</v>
+        <v>18363804782</v>
       </c>
       <c r="C43" t="n">
-        <v>466438891.6099996</v>
+        <v>50410563994</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3701813433995785</v>
+        <v>0.3642848507742486</v>
       </c>
       <c r="E43" t="n">
         <v>42</v>
@@ -1261,17 +1261,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-10-23</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>170450078.5000002</v>
+        <v>24824121596</v>
       </c>
       <c r="C44" t="n">
-        <v>475626508.1800012</v>
+        <v>69075123930</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3583695937222515</v>
+        <v>0.3593786038104905</v>
       </c>
       <c r="E44" t="n">
         <v>43</v>
@@ -1280,17 +1280,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-10-26</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>157274353.1999999</v>
+        <v>21950874234</v>
       </c>
       <c r="C45" t="n">
-        <v>442639060.2399994</v>
+        <v>58435290007</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3553106070547087</v>
+        <v>0.3756441395494142</v>
       </c>
       <c r="E45" t="n">
         <v>44</v>
@@ -1299,17 +1299,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-10-27</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150253384.8999999</v>
+        <v>21810988673</v>
       </c>
       <c r="C46" t="n">
-        <v>435941560.6799993</v>
+        <v>58022364557</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3446640523689198</v>
+        <v>0.3759065808421738</v>
       </c>
       <c r="E46" t="n">
         <v>45</v>
@@ -1318,17 +1318,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>170267952.7</v>
+        <v>20410751440</v>
       </c>
       <c r="C47" t="n">
-        <v>495996917.3400017</v>
+        <v>54415224691</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3432842962273548</v>
+        <v>0.3750926612157467</v>
       </c>
       <c r="E47" t="n">
         <v>46</v>
@@ -1337,17 +1337,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-10-29</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>179839011.5</v>
+        <v>19779199722</v>
       </c>
       <c r="C48" t="n">
-        <v>517681004.7499997</v>
+        <v>51552706029</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3473934910685944</v>
+        <v>0.3836694762613156</v>
       </c>
       <c r="E48" t="n">
         <v>47</v>
@@ -1356,17 +1356,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>2020-10-19</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>200234654.2500001</v>
+        <v>20562725471</v>
       </c>
       <c r="C49" t="n">
-        <v>604436661.4899986</v>
+        <v>53895497648</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3312748332577992</v>
+        <v>0.3815295593947087</v>
       </c>
       <c r="E49" t="n">
         <v>48</v>
@@ -1375,17 +1375,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-11-02</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>193891490.5500001</v>
+        <v>18296672779</v>
       </c>
       <c r="C50" t="n">
-        <v>564415272.8799963</v>
+        <v>47922773316</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3435263003437976</v>
+        <v>0.3817949486844761</v>
       </c>
       <c r="E50" t="n">
         <v>49</v>
@@ -1394,17 +1394,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-11-03</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>196626407.1200001</v>
+        <v>18370049664</v>
       </c>
       <c r="C51" t="n">
-        <v>554320485.659999</v>
+        <v>49307563396</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3547161113590954</v>
+        <v>0.3725604836009853</v>
       </c>
       <c r="E51" t="n">
         <v>50</v>
@@ -1413,17 +1413,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>177311189.33</v>
+        <v>17665602844</v>
       </c>
       <c r="C52" t="n">
-        <v>500286124.6599983</v>
+        <v>46460364776</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3544195623064767</v>
+        <v>0.3802295339085566</v>
       </c>
       <c r="E52" t="n">
         <v>51</v>
@@ -1432,17 +1432,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-11-05</t>
+          <t>2020-10-23</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>207342355.1300001</v>
+        <v>17466910909</v>
       </c>
       <c r="C53" t="n">
-        <v>591134930.599998</v>
+        <v>47398504650</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3507530081491699</v>
+        <v>0.3685118557637873</v>
       </c>
       <c r="E53" t="n">
         <v>52</v>
@@ -1451,17 +1451,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>2020-10-26</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>224630371.45</v>
+        <v>16145407434</v>
       </c>
       <c r="C54" t="n">
-        <v>599814679.0299979</v>
+        <v>44150494774</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3744996234724788</v>
+        <v>0.3656902944496094</v>
       </c>
       <c r="E54" t="n">
         <v>53</v>
@@ -1470,17 +1470,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020-11-09</t>
+          <t>2020-10-27</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>264392483.6699999</v>
+        <v>15491813981</v>
       </c>
       <c r="C55" t="n">
-        <v>745627040.5199972</v>
+        <v>43505082864</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3545907931203966</v>
+        <v>0.356092046288672</v>
       </c>
       <c r="E55" t="n">
         <v>54</v>
@@ -1489,17 +1489,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-11-10</t>
+          <t>2020-10-28</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>246152767.87</v>
+        <v>17543172634</v>
       </c>
       <c r="C56" t="n">
-        <v>671809978.2499989</v>
+        <v>49485508785</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3664023694783525</v>
+        <v>0.3545113117906887</v>
       </c>
       <c r="E56" t="n">
         <v>55</v>
@@ -1508,17 +1508,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2020-10-29</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>232032176.1799999</v>
+        <v>18553392322</v>
       </c>
       <c r="C57" t="n">
-        <v>620772522.129999</v>
+        <v>51689467398</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3737797146430539</v>
+        <v>0.3589395142948963</v>
       </c>
       <c r="E57" t="n">
         <v>56</v>
@@ -1527,17 +1527,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-11-12</t>
+          <t>2020-10-30</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>185101483.5900001</v>
+        <v>20650226596</v>
       </c>
       <c r="C58" t="n">
-        <v>517653293.0399986</v>
+        <v>60348197366</v>
       </c>
       <c r="D58" t="n">
-        <v>0.357578105034285</v>
+        <v>0.3421846467220954</v>
       </c>
       <c r="E58" t="n">
         <v>57</v>
@@ -1546,17 +1546,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>2020-11-02</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>196205686.5099999</v>
+        <v>19992661394</v>
       </c>
       <c r="C59" t="n">
-        <v>523352481.9799996</v>
+        <v>56353918211</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3749016069775667</v>
+        <v>0.3547696775784711</v>
       </c>
       <c r="E59" t="n">
         <v>58</v>
@@ -1565,17 +1565,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-11-16</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>225690052.6200002</v>
+        <v>20249408150</v>
       </c>
       <c r="C60" t="n">
-        <v>614185570.4200007</v>
+        <v>55344378404</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3674623167484474</v>
+        <v>0.365880126111173</v>
       </c>
       <c r="E60" t="n">
         <v>59</v>
@@ -1584,17 +1584,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-11-17</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>236404217.7899999</v>
+        <v>18257580496</v>
       </c>
       <c r="C61" t="n">
-        <v>643238071.5399981</v>
+        <v>49909415865</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3675221170040768</v>
+        <v>0.3658143494483073</v>
       </c>
       <c r="E61" t="n">
         <v>60</v>
@@ -1603,17 +1603,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-11-18</t>
+          <t>2020-11-05</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>248568122.69</v>
+        <v>21285267389</v>
       </c>
       <c r="C62" t="n">
-        <v>633120214.7699951</v>
+        <v>58980118835</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3926080969951367</v>
+        <v>0.3608888522002924</v>
       </c>
       <c r="E62" t="n">
         <v>61</v>
@@ -1622,17 +1622,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-11-19</t>
+          <t>2020-11-06</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>226117858.0299999</v>
+        <v>23071856412</v>
       </c>
       <c r="C63" t="n">
-        <v>598602899.8199979</v>
+        <v>59902082650</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3777426706385726</v>
+        <v>0.3851595034984981</v>
       </c>
       <c r="E63" t="n">
         <v>62</v>
@@ -1641,17 +1641,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>2020-11-09</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>223128925.4199999</v>
+        <v>27202863336</v>
       </c>
       <c r="C64" t="n">
-        <v>589375196.7099988</v>
+        <v>74478178320</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3785855371341495</v>
+        <v>0.3652460888492902</v>
       </c>
       <c r="E64" t="n">
         <v>63</v>
@@ -1660,17 +1660,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020-11-23</t>
+          <t>2020-11-10</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>312781681.0999997</v>
+        <v>25309810082</v>
       </c>
       <c r="C65" t="n">
-        <v>772979616.609997</v>
+        <v>67090114044</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4046441515130044</v>
+        <v>0.3772509622714452</v>
       </c>
       <c r="E65" t="n">
         <v>64</v>
@@ -1679,17 +1679,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020-11-24</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>259866221.9700001</v>
+        <v>23822441228</v>
       </c>
       <c r="C66" t="n">
-        <v>654573984.8599988</v>
+        <v>61988411650</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3970005346692485</v>
+        <v>0.3843047529997488</v>
       </c>
       <c r="E66" t="n">
         <v>65</v>
@@ -1698,17 +1698,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020-11-25</t>
+          <t>2020-11-12</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>263380480.4299999</v>
+        <v>19076439758</v>
       </c>
       <c r="C67" t="n">
-        <v>688927022.6599994</v>
+        <v>51703999860</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3823053411565538</v>
+        <v>0.3689548160616911</v>
       </c>
       <c r="E67" t="n">
         <v>66</v>
@@ -1717,17 +1717,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-11-26</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>211312822.4100001</v>
+        <v>20119982649</v>
       </c>
       <c r="C68" t="n">
-        <v>571909792.0999999</v>
+        <v>52210418675</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3694862814537218</v>
+        <v>0.3853633653896379</v>
       </c>
       <c r="E68" t="n">
         <v>67</v>
@@ -1736,17 +1736,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020-11-27</t>
+          <t>2020-11-16</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>230439216.4600001</v>
+        <v>23217241543</v>
       </c>
       <c r="C69" t="n">
-        <v>588405382.5100018</v>
+        <v>61350411349</v>
       </c>
       <c r="D69" t="n">
-        <v>0.391633427071995</v>
+        <v>0.3784366075546849</v>
       </c>
       <c r="E69" t="n">
         <v>68</v>
@@ -1755,17 +1755,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020-11-30</t>
+          <t>2020-11-17</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>331959478.2200002</v>
+        <v>24335506367</v>
       </c>
       <c r="C70" t="n">
-        <v>752506497.0699981</v>
+        <v>64241703103</v>
       </c>
       <c r="D70" t="n">
-        <v>0.4411383549677463</v>
+        <v>0.3788116626980203</v>
       </c>
       <c r="E70" t="n">
         <v>69</v>
@@ -1774,17 +1774,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2020-11-18</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>281108655.2699999</v>
+        <v>25490702717</v>
       </c>
       <c r="C71" t="n">
-        <v>680625340.1999992</v>
+        <v>63205463709</v>
       </c>
       <c r="D71" t="n">
-        <v>0.4130152650317092</v>
+        <v>0.4032990381078449</v>
       </c>
       <c r="E71" t="n">
         <v>70</v>
@@ -1793,17 +1793,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-12-02</t>
+          <t>2020-11-19</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>282014230.29</v>
+        <v>23177522765</v>
       </c>
       <c r="C72" t="n">
-        <v>697787823.5499972</v>
+        <v>59756276020</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4041547025788612</v>
+        <v>0.3878675899623104</v>
       </c>
       <c r="E72" t="n">
         <v>71</v>
@@ -1812,17 +1812,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2020-12-03</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>278236062.0900001</v>
+        <v>22935620159</v>
       </c>
       <c r="C73" t="n">
-        <v>670221870.7999957</v>
+        <v>58875754449</v>
       </c>
       <c r="D73" t="n">
-        <v>0.4151402307386504</v>
+        <v>0.3895596816320637</v>
       </c>
       <c r="E73" t="n">
         <v>72</v>
@@ -1831,17 +1831,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2020-12-04</t>
+          <t>2020-11-23</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>230967859.0799999</v>
+        <v>32096579820</v>
       </c>
       <c r="C74" t="n">
-        <v>572135607.9899999</v>
+        <v>77198006469</v>
       </c>
       <c r="D74" t="n">
-        <v>0.4036942568413551</v>
+        <v>0.4157695423506675</v>
       </c>
       <c r="E74" t="n">
         <v>73</v>
@@ -1850,17 +1850,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2020-12-07</t>
+          <t>2020-11-24</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>218228153.8200001</v>
+        <v>26709718473</v>
       </c>
       <c r="C75" t="n">
-        <v>569439403.0899993</v>
+        <v>65410116144</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3832333214663569</v>
+        <v>0.408342318399171</v>
       </c>
       <c r="E75" t="n">
         <v>74</v>
@@ -1869,17 +1869,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2020-12-08</t>
+          <t>2020-11-25</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>200575269.67</v>
+        <v>27089790866</v>
       </c>
       <c r="C76" t="n">
-        <v>517377966.9399993</v>
+        <v>68837443765</v>
       </c>
       <c r="D76" t="n">
-        <v>0.3876764811928314</v>
+        <v>0.3935327836762824</v>
       </c>
       <c r="E76" t="n">
         <v>75</v>
@@ -1888,17 +1888,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2020-12-09</t>
+          <t>2020-11-26</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>215852409.7799999</v>
+        <v>21689088930</v>
       </c>
       <c r="C77" t="n">
-        <v>594945108.1099982</v>
+        <v>57127013421</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3628106304894457</v>
+        <v>0.3796643239540867</v>
       </c>
       <c r="E77" t="n">
         <v>76</v>
@@ -1907,17 +1907,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2020-12-10</t>
+          <t>2020-11-27</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>204562828.06</v>
+        <v>23626364341</v>
       </c>
       <c r="C78" t="n">
-        <v>535910783.4299998</v>
+        <v>58765160877</v>
       </c>
       <c r="D78" t="n">
-        <v>0.3817106025572627</v>
+        <v>0.4020471311301572</v>
       </c>
       <c r="E78" t="n">
         <v>77</v>
@@ -1926,17 +1926,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2020-12-11</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>234577083.9700001</v>
+        <v>33970232252</v>
       </c>
       <c r="C79" t="n">
-        <v>642832227.2399976</v>
+        <v>75092505579</v>
       </c>
       <c r="D79" t="n">
-        <v>0.3649118292920031</v>
+        <v>0.4523784629381171</v>
       </c>
       <c r="E79" t="n">
         <v>78</v>
@@ -1945,17 +1945,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2020-12-14</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>200331617.0000001</v>
+        <v>28738868941</v>
       </c>
       <c r="C80" t="n">
-        <v>528206846.5699973</v>
+        <v>67936162045</v>
       </c>
       <c r="D80" t="n">
-        <v>0.3792673614529767</v>
+        <v>0.4230275611089682</v>
       </c>
       <c r="E80" t="n">
         <v>79</v>
@@ -1964,17 +1964,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2020-12-15</t>
+          <t>2020-12-02</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>200987610.3900001</v>
+        <v>28928357564</v>
       </c>
       <c r="C81" t="n">
-        <v>507911683.22</v>
+        <v>69689843826</v>
       </c>
       <c r="D81" t="n">
-        <v>0.3957136979322902</v>
+        <v>0.4151014835996427</v>
       </c>
       <c r="E81" t="n">
         <v>80</v>
@@ -1983,17 +1983,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2020-12-16</t>
+          <t>2020-12-03</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>196027417.0399999</v>
+        <v>28497726227</v>
       </c>
       <c r="C82" t="n">
-        <v>514413022.0799994</v>
+        <v>66950741850</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3810700908141368</v>
+        <v>0.4256521352795137</v>
       </c>
       <c r="E82" t="n">
         <v>81</v>
@@ -2002,17 +2002,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2020-12-17</t>
+          <t>2020-12-04</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>231044333.9200001</v>
+        <v>23614518756</v>
       </c>
       <c r="C83" t="n">
-        <v>604154231.4400005</v>
+        <v>57124426015</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3824260791309966</v>
+        <v>0.4133874141649876</v>
       </c>
       <c r="E83" t="n">
         <v>82</v>
@@ -2021,17 +2021,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2020-12-18</t>
+          <t>2020-12-07</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>238667018.15</v>
+        <v>22345056458</v>
       </c>
       <c r="C84" t="n">
-        <v>591174023.6699989</v>
+        <v>56856559648</v>
       </c>
       <c r="D84" t="n">
-        <v>0.4037170250958575</v>
+        <v>0.3930075367967857</v>
       </c>
       <c r="E84" t="n">
         <v>83</v>
@@ -2040,17 +2040,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2020-12-21</t>
+          <t>2020-12-08</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>250979861.1999999</v>
+        <v>20555717183</v>
       </c>
       <c r="C85" t="n">
-        <v>625638788.389997</v>
+        <v>51665831943</v>
       </c>
       <c r="D85" t="n">
-        <v>0.4011577700383077</v>
+        <v>0.3978590184259099</v>
       </c>
       <c r="E85" t="n">
         <v>84</v>
@@ -2059,17 +2059,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2020-12-22</t>
+          <t>2020-12-09</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>271282176.5699999</v>
+        <v>22167887887</v>
       </c>
       <c r="C86" t="n">
-        <v>706958506.5899991</v>
+        <v>59426788696</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3837313987188928</v>
+        <v>0.3730285343265085</v>
       </c>
       <c r="E86" t="n">
         <v>85</v>
@@ -2078,17 +2078,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2020-12-23</t>
+          <t>2020-12-10</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>261368609.6699999</v>
+        <v>21008686040</v>
       </c>
       <c r="C87" t="n">
-        <v>665915002.6099999</v>
+        <v>53530291688</v>
       </c>
       <c r="D87" t="n">
-        <v>0.392495451590048</v>
+        <v>0.3924635076238444</v>
       </c>
       <c r="E87" t="n">
         <v>86</v>
@@ -2097,17 +2097,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2020-12-24</t>
+          <t>2020-12-11</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>233238806.54</v>
+        <v>24084146686</v>
       </c>
       <c r="C88" t="n">
-        <v>630791512.7199994</v>
+        <v>64194443337</v>
       </c>
       <c r="D88" t="n">
-        <v>0.3697557779974948</v>
+        <v>0.3751749440300626</v>
       </c>
       <c r="E88" t="n">
         <v>87</v>
@@ -2116,17 +2116,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2020-12-14</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>252387216.6400001</v>
+        <v>20561369384</v>
       </c>
       <c r="C89" t="n">
-        <v>630933209.1399993</v>
+        <v>52737085483</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4000220831362156</v>
+        <v>0.3898844465082932</v>
       </c>
       <c r="E89" t="n">
         <v>88</v>
@@ -2135,17 +2135,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2020-12-28</t>
+          <t>2020-12-15</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>270795268.9299998</v>
+        <v>20518702233</v>
       </c>
       <c r="C90" t="n">
-        <v>687610883.4299997</v>
+        <v>50712282528</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3938205101978544</v>
+        <v>0.4046101104139991</v>
       </c>
       <c r="E90" t="n">
         <v>89</v>
@@ -2154,17 +2154,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2020-12-16</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>281825773.02</v>
+        <v>20098821894</v>
       </c>
       <c r="C91" t="n">
-        <v>681772464.2199972</v>
+        <v>51594471274</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4133721847250483</v>
+        <v>0.3895537912824469</v>
       </c>
       <c r="E91" t="n">
         <v>90</v>
@@ -2173,17 +2173,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2020-12-30</t>
+          <t>2020-12-17</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>269340518.5500001</v>
+        <v>23623180829</v>
       </c>
       <c r="C92" t="n">
-        <v>640686140.1199988</v>
+        <v>60346809075</v>
       </c>
       <c r="D92" t="n">
-        <v>0.4203938585272866</v>
+        <v>0.3914569998165226</v>
       </c>
       <c r="E92" t="n">
         <v>91</v>
@@ -2192,17 +2192,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2020-12-18</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>289329012.47</v>
+        <v>24395319589</v>
       </c>
       <c r="C93" t="n">
-        <v>705758775.369997</v>
+        <v>59011526731</v>
       </c>
       <c r="D93" t="n">
-        <v>0.409954537679419</v>
+        <v>0.4133992279204094</v>
       </c>
       <c r="E93" t="n">
         <v>92</v>
@@ -2211,17 +2211,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2020-12-21</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>322245246.42</v>
+        <v>25669905456</v>
       </c>
       <c r="C94" t="n">
-        <v>814180326.4699969</v>
+        <v>62473191028</v>
       </c>
       <c r="D94" t="n">
-        <v>0.3957910010146566</v>
+        <v>0.410894737944392</v>
       </c>
       <c r="E94" t="n">
         <v>93</v>
@@ -2230,17 +2230,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2021-01-05</t>
+          <t>2020-12-22</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>343268972.3399996</v>
+        <v>27752409533</v>
       </c>
       <c r="C95" t="n">
-        <v>864887387.3699974</v>
+        <v>70592976908</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3968944134840871</v>
+        <v>0.3931327271998773</v>
       </c>
       <c r="E95" t="n">
         <v>94</v>
@@ -2249,17 +2249,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2020-12-23</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>307878955.1499998</v>
+        <v>26781996550</v>
       </c>
       <c r="C96" t="n">
-        <v>801175188.2999973</v>
+        <v>66516491988</v>
       </c>
       <c r="D96" t="n">
-        <v>0.3842841860882936</v>
+        <v>0.4026369363380084</v>
       </c>
       <c r="E96" t="n">
         <v>95</v>
@@ -2268,17 +2268,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2021-01-07</t>
+          <t>2020-12-24</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>342902681.1800002</v>
+        <v>23869444669</v>
       </c>
       <c r="C97" t="n">
-        <v>872037011.1300024</v>
+        <v>63015856260</v>
       </c>
       <c r="D97" t="n">
-        <v>0.3932203298752885</v>
+        <v>0.3787847390427572</v>
       </c>
       <c r="E97" t="n">
         <v>96</v>
@@ -2287,17 +2287,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2021-01-08</t>
+          <t>2020-12-25</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>312529686.1500003</v>
+        <v>25870374333</v>
       </c>
       <c r="C98" t="n">
-        <v>763628761.9399995</v>
+        <v>63035613181</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4092691393079779</v>
+        <v>0.4104088629822002</v>
       </c>
       <c r="E98" t="n">
         <v>97</v>
@@ -2306,17 +2306,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2021-01-11</t>
+          <t>2020-12-28</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>333317827.2900003</v>
+        <v>27591719605</v>
       </c>
       <c r="C99" t="n">
-        <v>800229757.0299991</v>
+        <v>68634054637</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4165276589152193</v>
+        <v>0.4020120878903394</v>
       </c>
       <c r="E99" t="n">
         <v>98</v>
@@ -2325,17 +2325,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2021-01-12</t>
+          <t>2020-12-29</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>308593283.39</v>
+        <v>28714767727</v>
       </c>
       <c r="C100" t="n">
-        <v>708129906.9100007</v>
+        <v>68080937199</v>
       </c>
       <c r="D100" t="n">
-        <v>0.435786259524865</v>
+        <v>0.4217739782733451</v>
       </c>
       <c r="E100" t="n">
         <v>99</v>
@@ -2344,17 +2344,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2021-01-13</t>
+          <t>2020-12-30</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>356297675.3699999</v>
+        <v>27431057672</v>
       </c>
       <c r="C101" t="n">
-        <v>818873696.1699982</v>
+        <v>63970764234</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4351069976193649</v>
+        <v>0.4288061585704895</v>
       </c>
       <c r="E101" t="n">
         <v>100</v>
@@ -2363,17 +2363,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>325094803.9400001</v>
+        <v>29516497306</v>
       </c>
       <c r="C102" t="n">
-        <v>741470317.5499998</v>
+        <v>70483427194</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4384461471285772</v>
+        <v>0.4187721636287379</v>
       </c>
       <c r="E102" t="n">
         <v>101</v>
@@ -2382,17 +2382,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>309282089.1900002</v>
+        <v>32842910849</v>
       </c>
       <c r="C103" t="n">
-        <v>687705998.6799985</v>
+        <v>81262611004</v>
       </c>
       <c r="D103" t="n">
-        <v>0.449730102374626</v>
+        <v>0.4041577109475767</v>
       </c>
       <c r="E103" t="n">
         <v>102</v>
@@ -2401,17 +2401,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2021-01-18</t>
+          <t>2021-01-05</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>277140546.9799998</v>
+        <v>34955476638</v>
       </c>
       <c r="C104" t="n">
-        <v>663480669.8099997</v>
+        <v>86306603527</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4177070404468066</v>
+        <v>0.4050150881799513</v>
       </c>
       <c r="E104" t="n">
         <v>103</v>
@@ -2420,17 +2420,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2021-01-06</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>297039045.1800001</v>
+        <v>31318863380</v>
       </c>
       <c r="C105" t="n">
-        <v>717128664.4399937</v>
+        <v>79924024318</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4142060691604875</v>
+        <v>0.3918579381762507</v>
       </c>
       <c r="E105" t="n">
         <v>104</v>
@@ -2439,17 +2439,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2021-01-20</t>
+          <t>2021-01-07</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>251179049.5799999</v>
+        <v>34820241307</v>
       </c>
       <c r="C106" t="n">
-        <v>611512216.8999991</v>
+        <v>87045282583</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4107506647264176</v>
+        <v>0.4000244501911746</v>
       </c>
       <c r="E106" t="n">
         <v>105</v>
@@ -2458,17 +2458,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2021-01-21</t>
+          <t>2021-01-08</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>310384151.2299998</v>
+        <v>31741361539</v>
       </c>
       <c r="C107" t="n">
-        <v>737005721.6399992</v>
+        <v>76243328872</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4211421188689378</v>
+        <v>0.4163165749529185</v>
       </c>
       <c r="E107" t="n">
         <v>106</v>
@@ -2477,17 +2477,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2021-01-22</t>
+          <t>2021-01-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>290909808.8900002</v>
+        <v>33861909952</v>
       </c>
       <c r="C108" t="n">
-        <v>719563634.0600013</v>
+        <v>79843929989</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4042864246051413</v>
+        <v>0.4241012429706943</v>
       </c>
       <c r="E108" t="n">
         <v>107</v>
@@ -2496,17 +2496,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2021-01-25</t>
+          <t>2021-01-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>292764028.1799999</v>
+        <v>31336739617</v>
       </c>
       <c r="C109" t="n">
-        <v>729444565.4999967</v>
+        <v>70684174141</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4013519903041916</v>
+        <v>0.4433345936035105</v>
       </c>
       <c r="E109" t="n">
         <v>108</v>
@@ -2515,17 +2515,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2021-01-26</t>
+          <t>2021-01-13</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>251576030.0199999</v>
+        <v>36176556832</v>
       </c>
       <c r="C110" t="n">
-        <v>627377338.5899969</v>
+        <v>81782457644</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4009963614328277</v>
+        <v>0.4423510600461162</v>
       </c>
       <c r="E110" t="n">
         <v>109</v>
@@ -2534,17 +2534,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2021-01-27</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>252160749.3000001</v>
+        <v>32971296424</v>
       </c>
       <c r="C111" t="n">
-        <v>601452934.0099982</v>
+        <v>74034016193</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4192526713915877</v>
+        <v>0.4453533405245341</v>
       </c>
       <c r="E111" t="n">
         <v>110</v>
@@ -2553,17 +2553,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>259026040</v>
+        <v>31268748151</v>
       </c>
       <c r="C112" t="n">
-        <v>623976462.3499979</v>
+        <v>68522530970</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4151214919621574</v>
+        <v>0.4563279801309417</v>
       </c>
       <c r="E112" t="n">
         <v>111</v>
@@ -2572,17 +2572,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2021-01-29</t>
+          <t>2021-01-18</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>266479986.57</v>
+        <v>28025154838</v>
       </c>
       <c r="C113" t="n">
-        <v>661425295.2200006</v>
+        <v>66132336803</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4028875044480488</v>
+        <v>0.4237738479056539</v>
       </c>
       <c r="E113" t="n">
         <v>112</v>
@@ -2591,17 +2591,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2021-02-01</t>
+          <t>2021-01-19</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>251405425.9500001</v>
+        <v>30160755219</v>
       </c>
       <c r="C114" t="n">
-        <v>613622541.7699959</v>
+        <v>71588657610</v>
       </c>
       <c r="D114" t="n">
-        <v>0.409706959631601</v>
+        <v>0.4213063385447102</v>
       </c>
       <c r="E114" t="n">
         <v>113</v>
@@ -2610,17 +2610,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2021-01-20</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>243849476.49</v>
+        <v>25498108632</v>
       </c>
       <c r="C115" t="n">
-        <v>593254237.0699958</v>
+        <v>61023142374</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4110370584023813</v>
+        <v>0.4178432581483041</v>
       </c>
       <c r="E115" t="n">
         <v>114</v>
@@ -2629,17 +2629,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2021-02-03</t>
+          <t>2021-01-21</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>276735819.78</v>
+        <v>31550851527</v>
       </c>
       <c r="C116" t="n">
-        <v>644445670.9499981</v>
+        <v>73606094304</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4294168341173815</v>
+        <v>0.4286445548474839</v>
       </c>
       <c r="E116" t="n">
         <v>115</v>
@@ -2648,17 +2648,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2021-02-04</t>
+          <t>2021-01-22</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>263949648.66</v>
+        <v>29587073243</v>
       </c>
       <c r="C117" t="n">
-        <v>651518599.0799971</v>
+        <v>71863919964</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4051298750837208</v>
+        <v>0.4117097043665521</v>
       </c>
       <c r="E117" t="n">
         <v>116</v>
@@ -2667,17 +2667,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2021-02-05</t>
+          <t>2021-01-25</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>268807736.2100002</v>
+        <v>29768085597</v>
       </c>
       <c r="C118" t="n">
-        <v>609187857.5100001</v>
+        <v>72841620023</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4412558997953887</v>
+        <v>0.4086686373477226</v>
       </c>
       <c r="E118" t="n">
         <v>117</v>
@@ -2686,17 +2686,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2021-02-08</t>
+          <t>2021-01-26</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>225686196.3200003</v>
+        <v>25588114580</v>
       </c>
       <c r="C119" t="n">
-        <v>532076561.64</v>
+        <v>62625061804</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4241611312935417</v>
+        <v>0.4085922447483418</v>
       </c>
       <c r="E119" t="n">
         <v>118</v>
@@ -2705,17 +2705,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2021-02-09</t>
+          <t>2021-01-27</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>227943883.98</v>
+        <v>25604690493</v>
       </c>
       <c r="C120" t="n">
-        <v>545086600.1299963</v>
+        <v>60015878129</v>
       </c>
       <c r="D120" t="n">
-        <v>0.418179210286289</v>
+        <v>0.4266319396004584</v>
       </c>
       <c r="E120" t="n">
         <v>119</v>
@@ -2724,17 +2724,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2021-02-10</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>235382581.5</v>
+        <v>26286085867</v>
       </c>
       <c r="C121" t="n">
-        <v>539167201.2800009</v>
+        <v>62311898539</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4365669516639624</v>
+        <v>0.4218469743872106</v>
       </c>
       <c r="E121" t="n">
         <v>120</v>
@@ -2743,17 +2743,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2021-02-18</t>
+          <t>2021-01-29</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>299875300.7900003</v>
+        <v>27002904913</v>
       </c>
       <c r="C122" t="n">
-        <v>707320061.6899965</v>
+        <v>66018503681</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4239598408583373</v>
+        <v>0.4090202504963981</v>
       </c>
       <c r="E122" t="n">
         <v>121</v>
@@ -2762,17 +2762,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2021-02-19</t>
+          <t>2021-02-01</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>314716519.8000001</v>
+        <v>25457673045</v>
       </c>
       <c r="C123" t="n">
-        <v>749841852.8500011</v>
+        <v>61214730247</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4197105277650543</v>
+        <v>0.4158749526834291</v>
       </c>
       <c r="E123" t="n">
         <v>122</v>
@@ -2781,17 +2781,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>413684633.1699996</v>
+        <v>24585679056</v>
       </c>
       <c r="C124" t="n">
-        <v>985410748.4499987</v>
+        <v>59083806830</v>
       </c>
       <c r="D124" t="n">
-        <v>0.4198093371933527</v>
+        <v>0.4161153516519274</v>
       </c>
       <c r="E124" t="n">
         <v>123</v>
@@ -2800,17 +2800,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2021-02-23</t>
+          <t>2021-02-03</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>363454729.3299997</v>
+        <v>27946762653</v>
       </c>
       <c r="C125" t="n">
-        <v>798542716.519996</v>
+        <v>64252239936</v>
       </c>
       <c r="D125" t="n">
-        <v>0.455147510347242</v>
+        <v>0.4349539048107436</v>
       </c>
       <c r="E125" t="n">
         <v>124</v>
@@ -2819,17 +2819,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2021-02-24</t>
+          <t>2021-02-04</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>329992567.1900002</v>
+        <v>26745949814</v>
       </c>
       <c r="C126" t="n">
-        <v>751171488.1100001</v>
+        <v>65026335158</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4393039038532793</v>
+        <v>0.411309506356357</v>
       </c>
       <c r="E126" t="n">
         <v>125</v>
@@ -2838,17 +2838,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2021-02-25</t>
+          <t>2021-02-05</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>327151344.1199999</v>
+        <v>27228530445</v>
       </c>
       <c r="C127" t="n">
-        <v>724811917.3699962</v>
+        <v>60817228192</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4513603271136591</v>
+        <v>0.44771080916479</v>
       </c>
       <c r="E127" t="n">
         <v>126</v>
@@ -2857,17 +2857,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2021-02-26</t>
+          <t>2021-02-08</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>291292777.4800001</v>
+        <v>22845413099</v>
       </c>
       <c r="C128" t="n">
-        <v>676787781.5999976</v>
+        <v>53099229697</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4304049000284155</v>
+        <v>0.4302400096830542</v>
       </c>
       <c r="E128" t="n">
         <v>127</v>
@@ -2876,17 +2876,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2021-02-09</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>277355240.0500001</v>
+        <v>23052987297</v>
       </c>
       <c r="C129" t="n">
-        <v>659602993.0499978</v>
+        <v>54414450658</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4204881466160609</v>
+        <v>0.4236556101960896</v>
       </c>
       <c r="E129" t="n">
         <v>128</v>
@@ -2895,17 +2895,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2021-02-10</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>302759629.74</v>
+        <v>23672043794</v>
       </c>
       <c r="C130" t="n">
-        <v>695887291.4399964</v>
+        <v>53724833418</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4350699221902744</v>
+        <v>0.4406164205260971</v>
       </c>
       <c r="E130" t="n">
         <v>129</v>
@@ -2914,17 +2914,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2021-03-03</t>
+          <t>2021-02-18</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>313286129.5199998</v>
+        <v>30305438799</v>
       </c>
       <c r="C131" t="n">
-        <v>701914384.2199986</v>
+        <v>70581483088</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4463309722141378</v>
+        <v>0.4293681213982937</v>
       </c>
       <c r="E131" t="n">
         <v>130</v>
@@ -2933,17 +2933,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2021-03-04</t>
+          <t>2021-02-19</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>357371777.1999999</v>
+        <v>31871390359</v>
       </c>
       <c r="C132" t="n">
-        <v>786835007.2699971</v>
+        <v>74891926971</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4541889645199405</v>
+        <v>0.4255650995779744</v>
       </c>
       <c r="E132" t="n">
         <v>131</v>
@@ -2952,17 +2952,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2021-03-05</t>
+          <t>2021-02-22</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>320132549.79</v>
+        <v>41800730539</v>
       </c>
       <c r="C133" t="n">
-        <v>736028031.5199972</v>
+        <v>98345390597</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4349461380280356</v>
+        <v>0.4250400581588124</v>
       </c>
       <c r="E133" t="n">
         <v>132</v>
@@ -2971,17 +2971,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2021-03-08</t>
+          <t>2021-02-23</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>339266526.5200001</v>
+        <v>36659765914</v>
       </c>
       <c r="C134" t="n">
-        <v>789137526.3899981</v>
+        <v>79667225639</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4299206604354687</v>
+        <v>0.4601611970287279</v>
       </c>
       <c r="E134" t="n">
         <v>133</v>
@@ -2990,17 +2990,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2021-03-09</t>
+          <t>2021-02-24</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>355442878.53</v>
+        <v>33328852498</v>
       </c>
       <c r="C135" t="n">
-        <v>829863925.3099992</v>
+        <v>74974298826</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4283146521849625</v>
+        <v>0.4445370349557979</v>
       </c>
       <c r="E135" t="n">
         <v>134</v>
@@ -3009,17 +3009,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2021-02-25</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>267680801.1399999</v>
+        <v>33009105938</v>
       </c>
       <c r="C136" t="n">
-        <v>622422768.6399999</v>
+        <v>72321851390</v>
       </c>
       <c r="D136" t="n">
-        <v>0.430062675446281</v>
+        <v>0.4564195371603028</v>
       </c>
       <c r="E136" t="n">
         <v>135</v>
@@ -3028,17 +3028,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2021-02-26</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>304147940.0999998</v>
+        <v>29437488128</v>
       </c>
       <c r="C137" t="n">
-        <v>667030231.059996</v>
+        <v>67566280430</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4559732466947863</v>
+        <v>0.4356831238993216</v>
       </c>
       <c r="E137" t="n">
         <v>136</v>
@@ -3047,17 +3047,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2021-03-01</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>335153653.6000001</v>
+        <v>28022529242</v>
       </c>
       <c r="C138" t="n">
-        <v>723077310.3499993</v>
+        <v>65847760652</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4635101237484162</v>
+        <v>0.425565409734991</v>
       </c>
       <c r="E138" t="n">
         <v>137</v>
@@ -3066,17 +3066,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>2021-03-02</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>342945253.9900002</v>
+        <v>30548474585</v>
       </c>
       <c r="C139" t="n">
-        <v>718190118.2899951</v>
+        <v>69441386639</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4775131894136195</v>
+        <v>0.4399174046424243</v>
       </c>
       <c r="E139" t="n">
         <v>138</v>
@@ -3085,17 +3085,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2021-03-16</t>
+          <t>2021-03-03</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>297066513.8600002</v>
+        <v>31581683271</v>
       </c>
       <c r="C140" t="n">
-        <v>671432350.1499993</v>
+        <v>69999474895</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4424369987440059</v>
+        <v>0.4511702883253464</v>
       </c>
       <c r="E140" t="n">
         <v>139</v>
@@ -3104,17 +3104,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2021-03-17</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>272298165.8599999</v>
+        <v>36100282673</v>
       </c>
       <c r="C141" t="n">
-        <v>625972117.1699982</v>
+        <v>78562142790</v>
       </c>
       <c r="D141" t="n">
-        <v>0.435000471092949</v>
+        <v>0.4595124495203449</v>
       </c>
       <c r="E141" t="n">
         <v>140</v>
@@ -3123,17 +3123,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2021-03-18</t>
+          <t>2021-03-05</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>264572026.35</v>
+        <v>32337135967</v>
       </c>
       <c r="C142" t="n">
-        <v>629020728.3799986</v>
+        <v>73514786011</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4206093923667473</v>
+        <v>0.4398725443091326</v>
       </c>
       <c r="E142" t="n">
         <v>141</v>
@@ -3142,17 +3142,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2021-03-19</t>
+          <t>2021-03-08</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>281421403.6600001</v>
+        <v>34237890063</v>
       </c>
       <c r="C143" t="n">
-        <v>660280934.2199996</v>
+        <v>78814375242</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4262146445171066</v>
+        <v>0.4344117422471771</v>
       </c>
       <c r="E143" t="n">
         <v>142</v>
@@ -3161,17 +3161,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2021-03-22</t>
+          <t>2021-03-09</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>288933485.8899999</v>
+        <v>35838361211</v>
       </c>
       <c r="C144" t="n">
-        <v>675033424.5399995</v>
+        <v>82850202998</v>
       </c>
       <c r="D144" t="n">
-        <v>0.42802841368469</v>
+        <v>0.4325681762284292</v>
       </c>
       <c r="E144" t="n">
         <v>143</v>
@@ -3180,17 +3180,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2021-03-23</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>290001263.76</v>
+        <v>26975456721</v>
       </c>
       <c r="C145" t="n">
-        <v>703914772.3700013</v>
+        <v>62127335207</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4119834888300448</v>
+        <v>0.4341962620981791</v>
       </c>
       <c r="E145" t="n">
         <v>144</v>
@@ -3199,17 +3199,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2021-03-24</t>
+          <t>2021-03-11</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>282645807.8300001</v>
+        <v>30680047969</v>
       </c>
       <c r="C146" t="n">
-        <v>673885285.0300007</v>
+        <v>66598157167</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4194271845799645</v>
+        <v>0.4606741278451207</v>
       </c>
       <c r="E146" t="n">
         <v>145</v>
@@ -3218,17 +3218,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2021-03-25</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>256463402.0599999</v>
+        <v>33862968625</v>
       </c>
       <c r="C147" t="n">
-        <v>606997650.9099977</v>
+        <v>72238010975</v>
       </c>
       <c r="D147" t="n">
-        <v>0.4225113584468005</v>
+        <v>0.4687693939513262</v>
       </c>
       <c r="E147" t="n">
         <v>146</v>
@@ -3237,17 +3237,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2021-03-26</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>256453153.4500001</v>
+        <v>34591765793</v>
       </c>
       <c r="C148" t="n">
-        <v>613668589.8099983</v>
+        <v>71723136959</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4179017106438545</v>
+        <v>0.4822957731585852</v>
       </c>
       <c r="E148" t="n">
         <v>147</v>
@@ -3256,17 +3256,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2021-03-29</t>
+          <t>2021-03-16</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>258246215.75</v>
+        <v>29977825317</v>
       </c>
       <c r="C149" t="n">
-        <v>630444459.0600004</v>
+        <v>67049266583</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4096256411469584</v>
+        <v>0.447101465008429</v>
       </c>
       <c r="E149" t="n">
         <v>148</v>
@@ -3275,17 +3275,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2021-03-30</t>
+          <t>2021-03-17</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>255744323.2800002</v>
+        <v>27491185060</v>
       </c>
       <c r="C150" t="n">
-        <v>629423095.8099989</v>
+        <v>62515062852</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4063154418426371</v>
+        <v>0.4397529780156095</v>
       </c>
       <c r="E150" t="n">
         <v>149</v>
@@ -3294,17 +3294,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2021-03-18</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>251566239.64</v>
+        <v>26739276351</v>
       </c>
       <c r="C151" t="n">
-        <v>590223189.1500001</v>
+        <v>62832911819</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4262222228209786</v>
+        <v>0.4255616296762858</v>
       </c>
       <c r="E151" t="n">
         <v>150</v>
@@ -3313,17 +3313,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2021-04-01</t>
+          <t>2021-03-19</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>242476937.31</v>
+        <v>28358235249</v>
       </c>
       <c r="C152" t="n">
-        <v>577967649.4399985</v>
+        <v>65875538395</v>
       </c>
       <c r="D152" t="n">
-        <v>0.4195337533942246</v>
+        <v>0.4304820262562349</v>
       </c>
       <c r="E152" t="n">
         <v>151</v>
@@ -3332,17 +3332,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2021-03-22</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>235765474.05</v>
+        <v>29121013208</v>
       </c>
       <c r="C153" t="n">
-        <v>576946133.1099973</v>
+        <v>67358226346</v>
       </c>
       <c r="D153" t="n">
-        <v>0.4086438239547925</v>
+        <v>0.4323304633707791</v>
       </c>
       <c r="E153" t="n">
         <v>152</v>
@@ -3351,17 +3351,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2021-04-06</t>
+          <t>2021-03-23</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>214617948.5499999</v>
+        <v>29320271653</v>
       </c>
       <c r="C154" t="n">
-        <v>540461809.0799966</v>
+        <v>70323191299</v>
       </c>
       <c r="D154" t="n">
-        <v>0.3971010438560575</v>
+        <v>0.4169360222623591</v>
       </c>
       <c r="E154" t="n">
         <v>153</v>
@@ -3370,17 +3370,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2021-04-07</t>
+          <t>2021-03-24</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>280170747.6500001</v>
+        <v>28494202046</v>
       </c>
       <c r="C155" t="n">
-        <v>647867671.4699997</v>
+        <v>67303523996</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4324505759243981</v>
+        <v>0.423368649280437</v>
       </c>
       <c r="E155" t="n">
         <v>154</v>
@@ -3389,17 +3389,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2021-04-08</t>
+          <t>2021-03-25</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>314205655.7599998</v>
+        <v>25857769578</v>
       </c>
       <c r="C156" t="n">
-        <v>702028444.3499976</v>
+        <v>60650502617</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4475682691901754</v>
+        <v>0.426340565407816</v>
       </c>
       <c r="E156" t="n">
         <v>155</v>
@@ -3408,17 +3408,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2021-04-09</t>
+          <t>2021-03-26</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>272091311.6699998</v>
+        <v>25857588064</v>
       </c>
       <c r="C157" t="n">
-        <v>609307603.229998</v>
+        <v>61284664475</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4465582084116753</v>
+        <v>0.4219259138564452</v>
       </c>
       <c r="E157" t="n">
         <v>156</v>
@@ -3427,17 +3427,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2021-04-12</t>
+          <t>2021-03-29</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>292786895.29</v>
+        <v>26030305012</v>
       </c>
       <c r="C158" t="n">
-        <v>667013089.1800008</v>
+        <v>62965892538</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4389522485232494</v>
+        <v>0.4134032563151658</v>
       </c>
       <c r="E158" t="n">
         <v>157</v>
@@ -3446,17 +3446,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-03-30</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>263446779.4299999</v>
+        <v>25780001010</v>
       </c>
       <c r="C159" t="n">
-        <v>601410785.4599966</v>
+        <v>62868502600</v>
       </c>
       <c r="D159" t="n">
-        <v>0.438047979516196</v>
+        <v>0.4100622719460158</v>
       </c>
       <c r="E159" t="n">
         <v>158</v>
@@ -3465,17 +3465,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2021-04-14</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>247398572.99</v>
+        <v>25340940136</v>
       </c>
       <c r="C160" t="n">
-        <v>561997175.6399968</v>
+        <v>58944651908</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4402131962821076</v>
+        <v>0.4299107606157687</v>
       </c>
       <c r="E160" t="n">
         <v>159</v>
@@ -3484,17 +3484,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2021-04-15</t>
+          <t>2021-04-01</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>234554814.0300002</v>
+        <v>24459982838</v>
       </c>
       <c r="C161" t="n">
-        <v>567993121.5200003</v>
+        <v>57742915146</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4129536171183034</v>
+        <v>0.4236014544148696</v>
       </c>
       <c r="E161" t="n">
         <v>160</v>
@@ -3503,17 +3503,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2021-04-16</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>229718913.8400002</v>
+        <v>23776468616</v>
       </c>
       <c r="C162" t="n">
-        <v>608224592.8000004</v>
+        <v>57637646459</v>
       </c>
       <c r="D162" t="n">
-        <v>0.3776876445960111</v>
+        <v>0.4125162992717471</v>
       </c>
       <c r="E162" t="n">
         <v>161</v>
@@ -3522,17 +3522,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-04-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>262814210.9499999</v>
+        <v>21609152872</v>
       </c>
       <c r="C163" t="n">
-        <v>688213954.6300017</v>
+        <v>54009467026</v>
       </c>
       <c r="D163" t="n">
-        <v>0.3818786427998171</v>
+        <v>0.4000993540928189</v>
       </c>
       <c r="E163" t="n">
         <v>162</v>
@@ -3541,17 +3541,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2021-04-20</t>
+          <t>2021-04-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>262462882.35</v>
+        <v>28192988226</v>
       </c>
       <c r="C164" t="n">
-        <v>662249581.8800013</v>
+        <v>64777711487</v>
       </c>
       <c r="D164" t="n">
-        <v>0.3963201933701754</v>
+        <v>0.4352266787266473</v>
       </c>
       <c r="E164" t="n">
         <v>163</v>
@@ -3560,17 +3560,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2021-04-21</t>
+          <t>2021-04-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>238051005.1300001</v>
+        <v>31610774016</v>
       </c>
       <c r="C165" t="n">
-        <v>587952006.8600034</v>
+        <v>70183037971</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4048816950235908</v>
+        <v>0.4504047549076137</v>
       </c>
       <c r="E165" t="n">
         <v>164</v>
@@ -3579,17 +3579,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2021-04-22</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>232091173.0700001</v>
+        <v>27363203695</v>
       </c>
       <c r="C166" t="n">
-        <v>574123673.9599985</v>
+        <v>60908586933</v>
       </c>
       <c r="D166" t="n">
-        <v>0.4042529224916979</v>
+        <v>0.4492503450309851</v>
       </c>
       <c r="E166" t="n">
         <v>165</v>
@@ -3598,17 +3598,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2021-04-23</t>
+          <t>2021-04-12</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>230401273.8500001</v>
+        <v>29441281600</v>
       </c>
       <c r="C167" t="n">
-        <v>588332537.8600005</v>
+        <v>66662877908</v>
       </c>
       <c r="D167" t="n">
-        <v>0.3916174255601453</v>
+        <v>0.4416443232563598</v>
       </c>
       <c r="E167" t="n">
         <v>166</v>
@@ -3617,17 +3617,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2021-04-26</t>
+          <t>2021-04-13</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>259942290.0999998</v>
+        <v>26500289609</v>
       </c>
       <c r="C168" t="n">
-        <v>650653395.9399998</v>
+        <v>60099497250</v>
       </c>
       <c r="D168" t="n">
-        <v>0.3995096186725666</v>
+        <v>0.4409402877159675</v>
       </c>
       <c r="E168" t="n">
         <v>167</v>
@@ -3636,17 +3636,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-04-14</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>227084746.9299998</v>
+        <v>24875678254</v>
       </c>
       <c r="C169" t="n">
-        <v>585049818.7700002</v>
+        <v>56149660115</v>
       </c>
       <c r="D169" t="n">
-        <v>0.3881459999550454</v>
+        <v>0.4430245562137362</v>
       </c>
       <c r="E169" t="n">
         <v>168</v>
@@ -3655,17 +3655,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2021-04-28</t>
+          <t>2021-04-15</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>216725797.5399999</v>
+        <v>23587218127</v>
       </c>
       <c r="C170" t="n">
-        <v>563065378.3800023</v>
+        <v>56730832399</v>
       </c>
       <c r="D170" t="n">
-        <v>0.3849034337070104</v>
+        <v>0.4157742294543835</v>
       </c>
       <c r="E170" t="n">
         <v>169</v>
@@ -3674,17 +3674,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-04-16</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>237685400.92</v>
+        <v>23064238930</v>
       </c>
       <c r="C171" t="n">
-        <v>597197703.4300014</v>
+        <v>60757105467</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3980011971828681</v>
+        <v>0.3796138534368998</v>
       </c>
       <c r="E171" t="n">
         <v>170</v>
@@ -3693,17 +3693,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>265516096.31</v>
+        <v>26349229565</v>
       </c>
       <c r="C172" t="n">
-        <v>646650082.4899979</v>
+        <v>68717257011</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4106024316700012</v>
+        <v>0.3834441406877186</v>
       </c>
       <c r="E172" t="n">
         <v>171</v>
@@ -3712,17 +3712,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-04-20</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>281862200.87</v>
+        <v>26332452757</v>
       </c>
       <c r="C173" t="n">
-        <v>650452944.6599995</v>
+        <v>66152179163</v>
       </c>
       <c r="D173" t="n">
-        <v>0.4333321928726653</v>
+        <v>0.3980587350284626</v>
       </c>
       <c r="E173" t="n">
         <v>172</v>
@@ -3731,17 +3731,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-04-21</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>337487846.0700001</v>
+        <v>23796108657</v>
       </c>
       <c r="C174" t="n">
-        <v>727689573.4999965</v>
+        <v>58645267418</v>
       </c>
       <c r="D174" t="n">
-        <v>0.4637799665683978</v>
+        <v>0.4057634947316526</v>
       </c>
       <c r="E174" t="n">
         <v>173</v>
@@ -3750,17 +3750,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-04-22</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>349118192.4099997</v>
+        <v>23283868400</v>
       </c>
       <c r="C175" t="n">
-        <v>744567106.2099988</v>
+        <v>57343158813</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4688874777010816</v>
+        <v>0.406044398006226</v>
       </c>
       <c r="E175" t="n">
         <v>174</v>
@@ -3769,17 +3769,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-04-23</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>336132608.1700002</v>
+        <v>23110619160</v>
       </c>
       <c r="C176" t="n">
-        <v>735083630.5899969</v>
+        <v>58758936747</v>
       </c>
       <c r="D176" t="n">
-        <v>0.4572712466746288</v>
+        <v>0.3933124123655954</v>
       </c>
       <c r="E176" t="n">
         <v>175</v>
@@ -3788,17 +3788,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2021-04-26</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>279484488.3299999</v>
+        <v>26080656908</v>
       </c>
       <c r="C177" t="n">
-        <v>661730394.8199992</v>
+        <v>64990659217</v>
       </c>
       <c r="D177" t="n">
-        <v>0.4223540138367439</v>
+        <v>0.4012985438556365</v>
       </c>
       <c r="E177" t="n">
         <v>176</v>
@@ -3807,17 +3807,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-04-27</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>290219590.9200001</v>
+        <v>22805398723</v>
       </c>
       <c r="C178" t="n">
-        <v>693869213.7899975</v>
+        <v>58465572266</v>
       </c>
       <c r="D178" t="n">
-        <v>0.4182626713394382</v>
+        <v>0.3900654323409783</v>
       </c>
       <c r="E178" t="n">
         <v>177</v>
@@ -3826,17 +3826,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-04-28</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>290173253.36</v>
+        <v>21764975470</v>
       </c>
       <c r="C179" t="n">
-        <v>729862374.2599962</v>
+        <v>56258757783</v>
       </c>
       <c r="D179" t="n">
-        <v>0.3975725610656464</v>
+        <v>0.3868726635229197</v>
       </c>
       <c r="E179" t="n">
         <v>178</v>
@@ -3845,17 +3845,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>267380865.5800001</v>
+        <v>23871290845</v>
       </c>
       <c r="C180" t="n">
-        <v>690035506.6900017</v>
+        <v>59672070298</v>
       </c>
       <c r="D180" t="n">
-        <v>0.3874885610779459</v>
+        <v>0.400041270996426</v>
       </c>
       <c r="E180" t="n">
         <v>179</v>
@@ -3864,17 +3864,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>238885251.1299999</v>
+        <v>26727927563</v>
       </c>
       <c r="C181" t="n">
-        <v>588939771.6799982</v>
+        <v>64623812735</v>
       </c>
       <c r="D181" t="n">
-        <v>0.4056191526148089</v>
+        <v>0.413592550978105</v>
       </c>
       <c r="E181" t="n">
         <v>180</v>
@@ -3883,17 +3883,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>251961502.5399999</v>
+        <v>28245158344</v>
       </c>
       <c r="C182" t="n">
-        <v>611140766.0699972</v>
+        <v>64995398044</v>
       </c>
       <c r="D182" t="n">
-        <v>0.412280634067768</v>
+        <v>0.4345716649797089</v>
       </c>
       <c r="E182" t="n">
         <v>181</v>
@@ -3902,17 +3902,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>288265319.7999998</v>
+        <v>33809492530</v>
       </c>
       <c r="C183" t="n">
-        <v>688894516.4899982</v>
+        <v>72689004129</v>
       </c>
       <c r="D183" t="n">
-        <v>0.4184462394456946</v>
+        <v>0.4651252680529072</v>
       </c>
       <c r="E183" t="n">
         <v>182</v>
@@ -3921,17 +3921,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2021-05-21</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>256128606.1000001</v>
+        <v>34980447442</v>
       </c>
       <c r="C184" t="n">
-        <v>617074955.9499991</v>
+        <v>74391256531</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4150688723150092</v>
+        <v>0.4702225647636843</v>
       </c>
       <c r="E184" t="n">
         <v>183</v>
@@ -3940,17 +3940,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>259346374.7399999</v>
+        <v>33682768573</v>
       </c>
       <c r="C185" t="n">
-        <v>635831516.9400005</v>
+        <v>73459473614</v>
       </c>
       <c r="D185" t="n">
-        <v>0.4078853718798479</v>
+        <v>0.4585217796412401</v>
       </c>
       <c r="E185" t="n">
         <v>184</v>
@@ -3959,17 +3959,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>292986851.9399999</v>
+        <v>28011409229</v>
       </c>
       <c r="C186" t="n">
-        <v>714634724.9999976</v>
+        <v>66061705250</v>
       </c>
       <c r="D186" t="n">
-        <v>0.409981269717898</v>
+        <v>0.4240188642269418</v>
       </c>
       <c r="E186" t="n">
         <v>185</v>
@@ -3978,17 +3978,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>292949085.0399998</v>
+        <v>29021959092</v>
       </c>
       <c r="C187" t="n">
-        <v>728992934.059997</v>
+        <v>69247970457</v>
       </c>
       <c r="D187" t="n">
-        <v>0.4018544917966101</v>
+        <v>0.4191019448002651</v>
       </c>
       <c r="E187" t="n">
         <v>186</v>
@@ -3997,17 +3997,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>267751953.27</v>
+        <v>29087549466</v>
       </c>
       <c r="C188" t="n">
-        <v>689974024.2799973</v>
+        <v>72865719627</v>
       </c>
       <c r="D188" t="n">
-        <v>0.3880609180170296</v>
+        <v>0.3991938817718307</v>
       </c>
       <c r="E188" t="n">
         <v>187</v>
@@ -4016,17 +4016,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2021-05-28</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>310272566.0200002</v>
+        <v>26738086558</v>
       </c>
       <c r="C189" t="n">
-        <v>754413667.1099998</v>
+        <v>68865623007</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4112764383081621</v>
+        <v>0.3882646433806625</v>
       </c>
       <c r="E189" t="n">
         <v>188</v>
@@ -4035,17 +4035,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2021-05-31</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>285984863.2800001</v>
+        <v>23944078372</v>
       </c>
       <c r="C190" t="n">
-        <v>717187000.7699995</v>
+        <v>58781317109</v>
       </c>
       <c r="D190" t="n">
-        <v>0.3987591283346683</v>
+        <v>0.4073416444139855</v>
       </c>
       <c r="E190" t="n">
         <v>189</v>
@@ -4054,17 +4054,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2021-06-01</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>293333903.6100001</v>
+        <v>25053218592</v>
       </c>
       <c r="C191" t="n">
-        <v>760634133.1200006</v>
+        <v>60763325645</v>
       </c>
       <c r="D191" t="n">
-        <v>0.3856438869062988</v>
+        <v>0.4123082192434532</v>
       </c>
       <c r="E191" t="n">
         <v>190</v>
@@ -4073,17 +4073,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>295848342.6799999</v>
+        <v>28722723747</v>
       </c>
       <c r="C192" t="n">
-        <v>760328040.8799983</v>
+        <v>68566840023</v>
       </c>
       <c r="D192" t="n">
-        <v>0.3891061841380822</v>
+        <v>0.4189010859675796</v>
       </c>
       <c r="E192" t="n">
         <v>191</v>
@@ -4092,17 +4092,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>295737911.5199999</v>
+        <v>25545536529</v>
       </c>
       <c r="C193" t="n">
-        <v>734808997.9799984</v>
+        <v>61418379955</v>
       </c>
       <c r="D193" t="n">
-        <v>0.4024690937821776</v>
+        <v>0.4159265768279251</v>
       </c>
       <c r="E193" t="n">
         <v>192</v>
@@ -4111,17 +4111,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>276058624.2999999</v>
+        <v>25923087661</v>
       </c>
       <c r="C194" t="n">
-        <v>695539514.0499972</v>
+        <v>63386616118</v>
       </c>
       <c r="D194" t="n">
-        <v>0.3968985495770929</v>
+        <v>0.4089678428761964</v>
       </c>
       <c r="E194" t="n">
         <v>193</v>
@@ -4130,17 +4130,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2021-06-07</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>256332228.1899999</v>
+        <v>29902389375</v>
       </c>
       <c r="C195" t="n">
-        <v>671751143.6499972</v>
+        <v>71817033145</v>
       </c>
       <c r="D195" t="n">
-        <v>0.3815880785810122</v>
+        <v>0.4163690431854305</v>
       </c>
       <c r="E195" t="n">
         <v>194</v>
@@ -4149,17 +4149,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-05-26</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>259158271.48</v>
+        <v>29496722494</v>
       </c>
       <c r="C196" t="n">
-        <v>688712463.5799958</v>
+        <v>72933630614</v>
       </c>
       <c r="D196" t="n">
-        <v>0.376293860187849</v>
+        <v>0.4044323893611015</v>
       </c>
       <c r="E196" t="n">
         <v>195</v>
@@ -4168,17 +4168,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>256135746.8400001</v>
+        <v>26896810605</v>
       </c>
       <c r="C197" t="n">
-        <v>672056344.3599983</v>
+        <v>68968444971</v>
       </c>
       <c r="D197" t="n">
-        <v>0.3811224296735404</v>
+        <v>0.3899871980049663</v>
       </c>
       <c r="E197" t="n">
         <v>196</v>
@@ -4187,17 +4187,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>275966704.64</v>
+        <v>26896810605</v>
       </c>
       <c r="C198" t="n">
-        <v>734623611.3899992</v>
+        <v>68968444971</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3756572758638083</v>
+        <v>0.3899871980049663</v>
       </c>
       <c r="E198" t="n">
         <v>197</v>
@@ -4206,17 +4206,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2021-05-28</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>315311867.8599999</v>
+        <v>29791926043</v>
       </c>
       <c r="C199" t="n">
-        <v>812743605.6300007</v>
+        <v>73972884560</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3879598260457367</v>
+        <v>0.4027411695543051</v>
       </c>
       <c r="E199" t="n">
         <v>198</v>
@@ -4225,17 +4225,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>305402473.99</v>
+        <v>27775314244</v>
       </c>
       <c r="C200" t="n">
-        <v>756646382.4599979</v>
+        <v>70615016083</v>
       </c>
       <c r="D200" t="n">
-        <v>0.4036264245354347</v>
+        <v>0.3933343895490053</v>
       </c>
       <c r="E200" t="n">
         <v>199</v>
@@ -4244,17 +4244,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2021-06-16</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>285552245.1899999</v>
+        <v>28722955321</v>
       </c>
       <c r="C201" t="n">
-        <v>690128095.4999971</v>
+        <v>75176823860</v>
       </c>
       <c r="D201" t="n">
-        <v>0.4137670195605029</v>
+        <v>0.3820719451315218</v>
       </c>
       <c r="E201" t="n">
         <v>200</v>
@@ -4263,17 +4263,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>253289964.5599999</v>
+        <v>29120888356</v>
       </c>
       <c r="C202" t="n">
-        <v>637785146.8400012</v>
+        <v>75272955834</v>
       </c>
       <c r="D202" t="n">
-        <v>0.3971399550694488</v>
+        <v>0.3868705305026218</v>
       </c>
       <c r="E202" t="n">
         <v>201</v>
@@ -4282,17 +4282,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>275681362.2900001</v>
+        <v>29199450254</v>
       </c>
       <c r="C203" t="n">
-        <v>696065782.4699994</v>
+        <v>72798616374</v>
       </c>
       <c r="D203" t="n">
-        <v>0.396056478041114</v>
+        <v>0.4010989728704318</v>
       </c>
       <c r="E203" t="n">
         <v>202</v>
@@ -4301,17 +4301,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>261961053.6700001</v>
+        <v>27330244158</v>
       </c>
       <c r="C204" t="n">
-        <v>688711461.5500003</v>
+        <v>68930352581</v>
       </c>
       <c r="D204" t="n">
-        <v>0.3803640106125659</v>
+        <v>0.3964907059757783</v>
       </c>
       <c r="E204" t="n">
         <v>203</v>
@@ -4320,17 +4320,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-06-07</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>286199699.67</v>
+        <v>25294989410</v>
       </c>
       <c r="C205" t="n">
-        <v>730650122.1499993</v>
+        <v>66558910303</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3917055386616968</v>
+        <v>0.3800391156472988</v>
       </c>
       <c r="E205" t="n">
         <v>204</v>
@@ -4339,17 +4339,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>277423568.8199998</v>
+        <v>25589368881</v>
       </c>
       <c r="C206" t="n">
-        <v>723808524.6300009</v>
+        <v>68255065080</v>
       </c>
       <c r="D206" t="n">
-        <v>0.3832830912869038</v>
+        <v>0.3749079844991337</v>
       </c>
       <c r="E206" t="n">
         <v>205</v>
@@ -4358,17 +4358,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>298028257.3600004</v>
+        <v>25270907666</v>
       </c>
       <c r="C207" t="n">
-        <v>734465400.5399996</v>
+        <v>66612688195</v>
       </c>
       <c r="D207" t="n">
-        <v>0.4057757617184984</v>
+        <v>0.3793707828157707</v>
       </c>
       <c r="E207" t="n">
         <v>206</v>
@@ -4377,17 +4377,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>305161580.0899999</v>
+        <v>27144684274</v>
       </c>
       <c r="C208" t="n">
-        <v>745550034.0099986</v>
+        <v>72726642476</v>
       </c>
       <c r="D208" t="n">
-        <v>0.4093106648371602</v>
+        <v>0.3732426432714507</v>
       </c>
       <c r="E208" t="n">
         <v>207</v>
@@ -4396,17 +4396,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-06-11</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>272161299.05</v>
+        <v>31253551848</v>
       </c>
       <c r="C209" t="n">
-        <v>702982176.2199997</v>
+        <v>80603106508</v>
       </c>
       <c r="D209" t="n">
-        <v>0.3871524887208898</v>
+        <v>0.3877462445556987</v>
       </c>
       <c r="E209" t="n">
         <v>208</v>
@@ -4415,17 +4415,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>262288105.4099998</v>
+        <v>26600340763</v>
       </c>
       <c r="C210" t="n">
-        <v>683551247.0399985</v>
+        <v>71269245087</v>
       </c>
       <c r="D210" t="n">
-        <v>0.3837138861874563</v>
+        <v>0.3732373021564681</v>
       </c>
       <c r="E210" t="n">
         <v>209</v>
@@ -4434,17 +4434,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021-06-16</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>233761146.1000001</v>
+        <v>25225237352</v>
       </c>
       <c r="C211" t="n">
-        <v>623245858.4000026</v>
+        <v>65304111913</v>
       </c>
       <c r="D211" t="n">
-        <v>0.375070516633856</v>
+        <v>0.3862733388918263</v>
       </c>
       <c r="E211" t="n">
         <v>210</v>
@@ -4453,17 +4453,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2021-07-01</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>245933592.8299999</v>
+        <v>23865594042</v>
       </c>
       <c r="C212" t="n">
-        <v>680328319.2099991</v>
+        <v>62073104309</v>
       </c>
       <c r="D212" t="n">
-        <v>0.3614925116090703</v>
+        <v>0.3844756003050377</v>
       </c>
       <c r="E212" t="n">
         <v>211</v>
@@ -4472,17 +4472,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>248066721.5000003</v>
+        <v>26773348572</v>
       </c>
       <c r="C213" t="n">
-        <v>646587996.1299989</v>
+        <v>68507417006</v>
       </c>
       <c r="D213" t="n">
-        <v>0.3836550059462062</v>
+        <v>0.3908094881121433</v>
       </c>
       <c r="E213" t="n">
         <v>212</v>
@@ -4491,17 +4491,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2021-07-05</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>257269386.8899998</v>
+        <v>25810884254</v>
       </c>
       <c r="C214" t="n">
-        <v>654002898.8700011</v>
+        <v>68094480065</v>
       </c>
       <c r="D214" t="n">
-        <v>0.3933765237654372</v>
+        <v>0.3790451770740016</v>
       </c>
       <c r="E214" t="n">
         <v>213</v>
@@ -4510,17 +4510,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>288232610.3299998</v>
+        <v>27325435943</v>
       </c>
       <c r="C215" t="n">
-        <v>713204971.5999974</v>
+        <v>71331165214</v>
       </c>
       <c r="D215" t="n">
-        <v>0.4041371300081959</v>
+        <v>0.3830785023772036</v>
       </c>
       <c r="E215" t="n">
         <v>214</v>
@@ -4529,17 +4529,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2021-07-07</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>297683347.0499998</v>
+        <v>26948115800</v>
       </c>
       <c r="C216" t="n">
-        <v>702661527.0799991</v>
+        <v>71129212592</v>
       </c>
       <c r="D216" t="n">
-        <v>0.4236511258657656</v>
+        <v>0.3788614384721994</v>
       </c>
       <c r="E216" t="n">
         <v>215</v>
@@ -4548,17 +4548,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>324985230.08</v>
+        <v>25431794302</v>
       </c>
       <c r="C217" t="n">
-        <v>789558186.1499988</v>
+        <v>68625630748</v>
       </c>
       <c r="D217" t="n">
-        <v>0.4116039017525429</v>
+        <v>0.3705874033477087</v>
       </c>
       <c r="E217" t="n">
         <v>216</v>
@@ -4567,17 +4567,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2021-07-09</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>319913051.5900002</v>
+        <v>27857858703</v>
       </c>
       <c r="C218" t="n">
-        <v>771663446.9899986</v>
+        <v>71470857871</v>
       </c>
       <c r="D218" t="n">
-        <v>0.4145758786915126</v>
+        <v>0.3897792685416135</v>
       </c>
       <c r="E218" t="n">
         <v>217</v>
@@ -4586,17 +4586,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>371386508.0699998</v>
+        <v>25041439447</v>
       </c>
       <c r="C219" t="n">
-        <v>886260483.1599972</v>
+        <v>67772533030</v>
       </c>
       <c r="D219" t="n">
-        <v>0.4190489310160895</v>
+        <v>0.369492452582748</v>
       </c>
       <c r="E219" t="n">
         <v>218</v>
@@ -4605,17 +4605,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>2021-06-29</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>345324301.3399999</v>
+        <v>23759674387</v>
       </c>
       <c r="C220" t="n">
-        <v>836141134.9599968</v>
+        <v>65504552666</v>
       </c>
       <c r="D220" t="n">
-        <v>0.4129976231303595</v>
+        <v>0.3627179092138493</v>
       </c>
       <c r="E220" t="n">
         <v>219</v>
@@ -4624,17 +4624,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>359545243.5700001</v>
+        <v>21731079518</v>
       </c>
       <c r="C221" t="n">
-        <v>852872069.26</v>
+        <v>60341364451</v>
       </c>
       <c r="D221" t="n">
-        <v>0.4215699593515378</v>
+        <v>0.360135699875442</v>
       </c>
       <c r="E221" t="n">
         <v>220</v>
@@ -4643,17 +4643,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>340547712.7400001</v>
+        <v>23237110584</v>
       </c>
       <c r="C222" t="n">
-        <v>822869517.1099995</v>
+        <v>66252494627</v>
       </c>
       <c r="D222" t="n">
-        <v>0.4138538439679208</v>
+        <v>0.3507356321422218</v>
       </c>
       <c r="E222" t="n">
         <v>221</v>
@@ -4662,17 +4662,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>343389806.06</v>
+        <v>23485251132</v>
       </c>
       <c r="C223" t="n">
-        <v>808504817.9199994</v>
+        <v>63093845574</v>
       </c>
       <c r="D223" t="n">
-        <v>0.424722028179649</v>
+        <v>0.3722272896562499</v>
       </c>
       <c r="E223" t="n">
         <v>222</v>
@@ -4681,17 +4681,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>2021-07-05</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>303535511.3900003</v>
+        <v>24607854588</v>
       </c>
       <c r="C224" t="n">
-        <v>764323207.7399988</v>
+        <v>63949188580</v>
       </c>
       <c r="D224" t="n">
-        <v>0.3971297853005328</v>
+        <v>0.3848032341679479</v>
       </c>
       <c r="E224" t="n">
         <v>223</v>
@@ -4700,17 +4700,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>267576502.0000001</v>
+        <v>26803155256</v>
       </c>
       <c r="C225" t="n">
-        <v>675025945.7699956</v>
+        <v>68805538123</v>
       </c>
       <c r="D225" t="n">
-        <v>0.396394395914335</v>
+        <v>0.3895493878426679</v>
       </c>
       <c r="E225" t="n">
         <v>224</v>
@@ -4719,17 +4719,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2021-07-21</t>
+          <t>2021-07-07</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>318376568.7499999</v>
+        <v>28008698287</v>
       </c>
       <c r="C226" t="n">
-        <v>790840420.0599953</v>
+        <v>67984401713</v>
       </c>
       <c r="D226" t="n">
-        <v>0.4025800410224948</v>
+        <v>0.4119871261828604</v>
       </c>
       <c r="E226" t="n">
         <v>225</v>
@@ -4738,17 +4738,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>366890590.12</v>
+        <v>30540652959</v>
       </c>
       <c r="C227" t="n">
-        <v>871610941.1400017</v>
+        <v>76367311906</v>
       </c>
       <c r="D227" t="n">
-        <v>0.4209338969978219</v>
+        <v>0.3999178731941263</v>
       </c>
       <c r="E227" t="n">
         <v>226</v>
@@ -4757,17 +4757,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2021-07-23</t>
+          <t>2021-07-09</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>422307793.4200003</v>
+        <v>30301028805</v>
       </c>
       <c r="C228" t="n">
-        <v>974862129.9099954</v>
+        <v>74948316753</v>
       </c>
       <c r="D228" t="n">
-        <v>0.4331974547611055</v>
+        <v>0.4042923192639563</v>
       </c>
       <c r="E228" t="n">
         <v>227</v>
@@ -4776,17 +4776,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>2021-07-12</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>396326181.1899999</v>
+        <v>35708190055</v>
       </c>
       <c r="C229" t="n">
-        <v>954233843.3000011</v>
+        <v>86869304227</v>
       </c>
       <c r="D229" t="n">
-        <v>0.415334442362048</v>
+        <v>0.4110564758489395</v>
       </c>
       <c r="E229" t="n">
         <v>228</v>
@@ -4795,17 +4795,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2021-07-27</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>428699040.3600002</v>
+        <v>32935829308</v>
       </c>
       <c r="C230" t="n">
-        <v>997150883.2999971</v>
+        <v>81554737540</v>
       </c>
       <c r="D230" t="n">
-        <v>0.4299239438481491</v>
+        <v>0.4038493691656604</v>
       </c>
       <c r="E230" t="n">
         <v>229</v>
@@ -4814,17 +4814,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>343573077.85</v>
+        <v>34467712581</v>
       </c>
       <c r="C231" t="n">
-        <v>874200335.6199977</v>
+        <v>83519152120</v>
       </c>
       <c r="D231" t="n">
-        <v>0.3930141225653181</v>
+        <v>0.4126923191398893</v>
       </c>
       <c r="E231" t="n">
         <v>230</v>
@@ -4833,17 +4833,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>316375817.3100003</v>
+        <v>32827118605</v>
       </c>
       <c r="C232" t="n">
-        <v>783208597.9500018</v>
+        <v>80564630412</v>
       </c>
       <c r="D232" t="n">
-        <v>0.4039483454830471</v>
+        <v>0.4074631564388141</v>
       </c>
       <c r="E232" t="n">
         <v>231</v>
@@ -4852,17 +4852,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2021-07-30</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>349308648.21</v>
+        <v>33057162202</v>
       </c>
       <c r="C233" t="n">
-        <v>858620099.5399981</v>
+        <v>79197594583</v>
       </c>
       <c r="D233" t="n">
-        <v>0.4068256128608457</v>
+        <v>0.4174010887080126</v>
       </c>
       <c r="E233" t="n">
         <v>232</v>
@@ -4871,17 +4871,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2021-08-02</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>374122463.6300002</v>
+        <v>29293397197</v>
       </c>
       <c r="C234" t="n">
-        <v>939940738.8000025</v>
+        <v>75019916111</v>
       </c>
       <c r="D234" t="n">
-        <v>0.3980277140744347</v>
+        <v>0.3904749393968567</v>
       </c>
       <c r="E234" t="n">
         <v>233</v>
@@ -4890,17 +4890,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2021-08-03</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>359402777.7599997</v>
+        <v>25899690638</v>
       </c>
       <c r="C235" t="n">
-        <v>908303464.199999</v>
+        <v>66268225462</v>
       </c>
       <c r="D235" t="n">
-        <v>0.3956857943688993</v>
+        <v>0.3908312084326385</v>
       </c>
       <c r="E235" t="n">
         <v>234</v>
@@ -4909,17 +4909,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2021-08-04</t>
+          <t>2021-07-21</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>320051569.1700003</v>
+        <v>30918968896</v>
       </c>
       <c r="C236" t="n">
-        <v>794954175.2899977</v>
+        <v>77810217059</v>
       </c>
       <c r="D236" t="n">
-        <v>0.4026037966946284</v>
+        <v>0.3973638689705175</v>
       </c>
       <c r="E236" t="n">
         <v>235</v>
@@ -4928,17 +4928,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2021-08-05</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>326280985.33</v>
+        <v>35691611317</v>
       </c>
       <c r="C237" t="n">
-        <v>819454578.719998</v>
+        <v>85733791119</v>
       </c>
       <c r="D237" t="n">
-        <v>0.3981684815766806</v>
+        <v>0.4163073958488482</v>
       </c>
       <c r="E237" t="n">
         <v>236</v>
@@ -4947,17 +4947,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2021-08-06</t>
+          <t>2021-07-23</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>320736510.6899999</v>
+        <v>41153483419</v>
       </c>
       <c r="C238" t="n">
-        <v>779119240.6000001</v>
+        <v>95887635112</v>
       </c>
       <c r="D238" t="n">
-        <v>0.4116654986507592</v>
+        <v>0.4291844654519985</v>
       </c>
       <c r="E238" t="n">
         <v>237</v>
@@ -4966,17 +4966,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2021-08-09</t>
+          <t>2021-07-26</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>317320952.1</v>
+        <v>38615650827</v>
       </c>
       <c r="C239" t="n">
-        <v>797087459.9599993</v>
+        <v>93845060687</v>
       </c>
       <c r="D239" t="n">
-        <v>0.3981005448460126</v>
+        <v>0.411483039643335</v>
       </c>
       <c r="E239" t="n">
         <v>238</v>
@@ -4985,17 +4985,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2021-07-27</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>315242253.9400001</v>
+        <v>41236731272</v>
       </c>
       <c r="C240" t="n">
-        <v>818599356.7499982</v>
+        <v>97512980524</v>
       </c>
       <c r="D240" t="n">
-        <v>0.3850995622468779</v>
+        <v>0.4228845334273294</v>
       </c>
       <c r="E240" t="n">
         <v>239</v>
@@ -5004,17 +5004,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2021-08-11</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>351541141.8600001</v>
+        <v>33288360190</v>
       </c>
       <c r="C241" t="n">
-        <v>874892093.2099991</v>
+        <v>85835883058</v>
       </c>
       <c r="D241" t="n">
-        <v>0.401810857119748</v>
+        <v>0.3878140353901501</v>
       </c>
       <c r="E241" t="n">
         <v>240</v>
@@ -5023,17 +5023,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2021-08-12</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>359666741.8299996</v>
+        <v>30726848927</v>
       </c>
       <c r="C242" t="n">
-        <v>883906284.6600019</v>
+        <v>76828959128</v>
       </c>
       <c r="D242" t="n">
-        <v>0.4069059673767869</v>
+        <v>0.3999383731830584</v>
       </c>
       <c r="E242" t="n">
         <v>241</v>
@@ -5042,17 +5042,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2021-08-13</t>
+          <t>2021-07-30</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>350387769.9700001</v>
+        <v>33797008978</v>
       </c>
       <c r="C243" t="n">
-        <v>867879802.5100001</v>
+        <v>84082878559</v>
       </c>
       <c r="D243" t="n">
-        <v>0.4037284528994011</v>
+        <v>0.4019487624259322</v>
       </c>
       <c r="E243" t="n">
         <v>242</v>
@@ -5061,17 +5061,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2021-08-16</t>
+          <t>2021-08-02</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>346299410.0199999</v>
+        <v>36348579829</v>
       </c>
       <c r="C244" t="n">
-        <v>862664033.5200007</v>
+        <v>92369348983</v>
       </c>
       <c r="D244" t="n">
-        <v>0.4014302168214492</v>
+        <v>0.3935134352380217</v>
       </c>
       <c r="E244" t="n">
         <v>243</v>
@@ -5080,20 +5080,210 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2021-08-17</t>
+          <t>2021-08-03</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>363794151.9</v>
+        <v>34994123795</v>
       </c>
       <c r="C245" t="n">
-        <v>931616929.7099983</v>
+        <v>89324712231</v>
       </c>
       <c r="D245" t="n">
-        <v>0.3904975750207169</v>
+        <v>0.3917630734091002</v>
       </c>
       <c r="E245" t="n">
         <v>244</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2021-08-04</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>31068141540</v>
+      </c>
+      <c r="C246" t="n">
+        <v>77959647042</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.3985156772613701</v>
+      </c>
+      <c r="E246" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2021-08-05</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>31811862162</v>
+      </c>
+      <c r="C247" t="n">
+        <v>80441720302</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.3954647170966714</v>
+      </c>
+      <c r="E247" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2021-08-06</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>31332678967</v>
+      </c>
+      <c r="C248" t="n">
+        <v>76590419403</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.4090939729959583</v>
+      </c>
+      <c r="E248" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2021-08-09</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>30768395105</v>
+      </c>
+      <c r="C249" t="n">
+        <v>78313875741</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.3928856133587025</v>
+      </c>
+      <c r="E249" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2021-08-10</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>30644302498</v>
+      </c>
+      <c r="C250" t="n">
+        <v>80465092179</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.380839711583623</v>
+      </c>
+      <c r="E250" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2021-08-11</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>33766000824</v>
+      </c>
+      <c r="C251" t="n">
+        <v>85513725699</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.3948605975004883</v>
+      </c>
+      <c r="E251" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2021-08-12</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>34956624279</v>
+      </c>
+      <c r="C252" t="n">
+        <v>86570814177</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.4037922550610275</v>
+      </c>
+      <c r="E252" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2021-08-13</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>34084389745</v>
+      </c>
+      <c r="C253" t="n">
+        <v>85116065413</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.4004460213194277</v>
+      </c>
+      <c r="E253" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2021-08-16</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>33169331469</v>
+      </c>
+      <c r="C254" t="n">
+        <v>84057659114</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0.3946021316631642</v>
+      </c>
+      <c r="E254" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2021-08-17</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>35199877626</v>
+      </c>
+      <c r="C255" t="n">
+        <v>91024098963</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0.3867094321945252</v>
+      </c>
+      <c r="E255" t="n">
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/king_index/output/index.xlsx
+++ b/king_index/output/index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E254"/>
+  <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-08-07</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33926327226</v>
+        <v>265460561.85</v>
       </c>
       <c r="C2" t="n">
-        <v>90977583613</v>
+        <v>722376814.0399988</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3729086427522151</v>
+        <v>0.3674821183218391</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -482,17 +482,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-08-10</t>
+          <t>2020-08-21</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29708663069</v>
+        <v>244291794.89</v>
       </c>
       <c r="C3" t="n">
-        <v>82942928747</v>
+        <v>668972403.2899994</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3581819875160189</v>
+        <v>0.3651746973246959</v>
       </c>
       <c r="E3" t="n">
         <v>2</v>
@@ -501,17 +501,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2020-08-11</t>
+          <t>2020-08-24</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30946369948</v>
+        <v>242576092.41</v>
       </c>
       <c r="C4" t="n">
-        <v>86295092754</v>
+        <v>674917031.6599983</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3586110051033644</v>
+        <v>0.3594161667744105</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
@@ -520,17 +520,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2020-08-12</t>
+          <t>2020-08-25</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29856245191</v>
+        <v>255865584.0400001</v>
       </c>
       <c r="C5" t="n">
-        <v>82452473263</v>
+        <v>731529574.8199975</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3621024817019988</v>
+        <v>0.3497679285255954</v>
       </c>
       <c r="E5" t="n">
         <v>4</v>
@@ -539,17 +539,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2020-08-13</t>
+          <t>2020-08-26</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27823565615</v>
+        <v>252043201.8400001</v>
       </c>
       <c r="C6" t="n">
-        <v>72532322436</v>
+        <v>757768264.6300011</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3836022986793308</v>
+        <v>0.332612506493745</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2020-08-14</t>
+          <t>2020-08-27</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27261549866</v>
+        <v>222334870.6800001</v>
       </c>
       <c r="C7" t="n">
-        <v>69180221661</v>
+        <v>650429141.2799995</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3940656622869504</v>
+        <v>0.3418279664445237</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -577,17 +577,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
+          <t>2020-08-28</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>37118467741</v>
+        <v>247901178.2799999</v>
       </c>
       <c r="C8" t="n">
-        <v>91788369903</v>
+        <v>710711048.7100012</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4043918394043386</v>
+        <v>0.3488072666521237</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -596,17 +596,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2020-08-18</t>
+          <t>2020-08-31</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>31325687773</v>
+        <v>275860326.74</v>
       </c>
       <c r="C9" t="n">
-        <v>85178317604</v>
+        <v>773515400.1500019</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3677659838109897</v>
+        <v>0.3566319774454452</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
@@ -615,17 +615,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33073383828</v>
+        <v>230176135.7999999</v>
       </c>
       <c r="C10" t="n">
-        <v>88140275731</v>
+        <v>644601909.6999928</v>
       </c>
       <c r="D10" t="n">
-        <v>0.375235765417145</v>
+        <v>0.3570826153883522</v>
       </c>
       <c r="E10" t="n">
         <v>9</v>
@@ -634,17 +634,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27646953314</v>
+        <v>289736125.67</v>
       </c>
       <c r="C11" t="n">
-        <v>72119978332</v>
+        <v>776864964.270002</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3833466669489126</v>
+        <v>0.3729555830108219</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -653,17 +653,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2020-08-21</t>
+          <t>2020-09-03</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25486130617</v>
+        <v>266501948.04</v>
       </c>
       <c r="C12" t="n">
-        <v>66786682396</v>
+        <v>736363648.0799991</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3816049802546626</v>
+        <v>0.3619162199748445</v>
       </c>
       <c r="E12" t="n">
         <v>11</v>
@@ -672,17 +672,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2020-08-24</t>
+          <t>2020-09-04</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25209284709</v>
+        <v>233921052.29</v>
       </c>
       <c r="C13" t="n">
-        <v>67412296336</v>
+        <v>656555275.7399983</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3739567716748666</v>
+        <v>0.3562853897203848</v>
       </c>
       <c r="E13" t="n">
         <v>12</v>
@@ -691,17 +691,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2020-09-07</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26619247474</v>
+        <v>288517322.3</v>
       </c>
       <c r="C14" t="n">
-        <v>73103731924</v>
+        <v>799759972.4299973</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3641298025889275</v>
+        <v>0.3607548917750492</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -710,17 +710,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2020-08-26</t>
+          <t>2020-09-08</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>26322908958</v>
+        <v>315529753.77</v>
       </c>
       <c r="C15" t="n">
-        <v>75716936591</v>
+        <v>802777655.3099976</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3476488899727732</v>
+        <v>0.3930475041039305</v>
       </c>
       <c r="E15" t="n">
         <v>14</v>
@@ -729,17 +729,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2020-08-27</t>
+          <t>2020-09-09</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>23276018839</v>
+        <v>402755827.0799996</v>
       </c>
       <c r="C16" t="n">
-        <v>65005692955</v>
+        <v>985995522.9100012</v>
       </c>
       <c r="D16" t="n">
-        <v>0.3580612371152286</v>
+        <v>0.4084763244069639</v>
       </c>
       <c r="E16" t="n">
         <v>15</v>
@@ -748,17 +748,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2020-08-28</t>
+          <t>2020-09-10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>25701039669</v>
+        <v>311139864.9900001</v>
       </c>
       <c r="C17" t="n">
-        <v>70850828969</v>
+        <v>840251373.080001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3627486091975749</v>
+        <v>0.3702937894043479</v>
       </c>
       <c r="E17" t="n">
         <v>16</v>
@@ -767,17 +767,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-09-11</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>28573296373</v>
+        <v>227002836.5399998</v>
       </c>
       <c r="C18" t="n">
-        <v>77184652221</v>
+        <v>604180585.0000013</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3701940159189566</v>
+        <v>0.3757201773373756</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
@@ -786,17 +786,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2020-09-14</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23964180511</v>
+        <v>234652448.84</v>
       </c>
       <c r="C19" t="n">
-        <v>64392996012</v>
+        <v>631608093.0099995</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3721550788929613</v>
+        <v>0.371515899553689</v>
       </c>
       <c r="E19" t="n">
         <v>18</v>
@@ -805,17 +805,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020-09-02</t>
+          <t>2020-09-15</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30082062270</v>
+        <v>222608255.6299999</v>
       </c>
       <c r="C20" t="n">
-        <v>77531927895</v>
+        <v>586744778.3299975</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3879957984630482</v>
+        <v>0.3793953757263782</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
@@ -824,17 +824,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020-09-03</t>
+          <t>2020-09-16</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>27715216294</v>
+        <v>209255482.95</v>
       </c>
       <c r="C21" t="n">
-        <v>73519808249</v>
+        <v>552502544.0800008</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3769761776327399</v>
+        <v>0.3787412115874356</v>
       </c>
       <c r="E21" t="n">
         <v>20</v>
@@ -843,17 +843,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2020-09-04</t>
+          <t>2020-09-17</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24329945914</v>
+        <v>197782581.3899998</v>
       </c>
       <c r="C22" t="n">
-        <v>65573685675</v>
+        <v>555669179.8999984</v>
       </c>
       <c r="D22" t="n">
-        <v>0.37103215510236</v>
+        <v>0.3559358491424591</v>
       </c>
       <c r="E22" t="n">
         <v>21</v>
@@ -862,17 +862,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2020-09-07</t>
+          <t>2020-09-18</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29997390344</v>
+        <v>241584936.16</v>
       </c>
       <c r="C23" t="n">
-        <v>79881522723</v>
+        <v>647155020.6699966</v>
       </c>
       <c r="D23" t="n">
-        <v>0.375523516846568</v>
+        <v>0.3733030393705178</v>
       </c>
       <c r="E23" t="n">
         <v>22</v>
@@ -881,17 +881,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2020-09-08</t>
+          <t>2020-09-21</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>32724062545</v>
+        <v>213900672.78</v>
       </c>
       <c r="C24" t="n">
-        <v>80161481426</v>
+        <v>581791988.179996</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4082267688030289</v>
+        <v>0.3676583334348409</v>
       </c>
       <c r="E24" t="n">
         <v>23</v>
@@ -900,17 +900,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2020-09-09</t>
+          <t>2020-09-22</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>41720230941</v>
+        <v>213775178.74</v>
       </c>
       <c r="C25" t="n">
-        <v>98517765305</v>
+        <v>563451276.0499977</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4234792660170358</v>
+        <v>0.3794031317821184</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
@@ -919,17 +919,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2020-09-10</t>
+          <t>2020-09-23</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>32362586075</v>
+        <v>184586365.16</v>
       </c>
       <c r="C26" t="n">
-        <v>83938666669</v>
+        <v>486528870.2800002</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3855503948212232</v>
+        <v>0.3793944746871229</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
@@ -938,17 +938,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2020-09-11</t>
+          <t>2020-09-24</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>23586290440</v>
+        <v>201935595.6099999</v>
       </c>
       <c r="C27" t="n">
-        <v>60330240577</v>
+        <v>549609399.0599995</v>
       </c>
       <c r="D27" t="n">
-        <v>0.3909530314220547</v>
+        <v>0.3674165615714936</v>
       </c>
       <c r="E27" t="n">
         <v>26</v>
@@ -957,17 +957,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2020-09-14</t>
+          <t>2020-09-25</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24462170352</v>
+        <v>157070698.7499999</v>
       </c>
       <c r="C28" t="n">
-        <v>63101019998</v>
+        <v>436804091.1499984</v>
       </c>
       <c r="D28" t="n">
-        <v>0.3876667976646865</v>
+        <v>0.3595907225513185</v>
       </c>
       <c r="E28" t="n">
         <v>27</v>
@@ -976,17 +976,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2020-09-15</t>
+          <t>2020-09-28</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23106120892</v>
+        <v>141433782.61</v>
       </c>
       <c r="C29" t="n">
-        <v>58614407766</v>
+        <v>406118612.1899998</v>
       </c>
       <c r="D29" t="n">
-        <v>0.3942054824514151</v>
+        <v>0.3482573276987148</v>
       </c>
       <c r="E29" t="n">
         <v>28</v>
@@ -995,17 +995,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2020-09-16</t>
+          <t>2020-09-29</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>21724638649</v>
+        <v>140424960.33</v>
       </c>
       <c r="C30" t="n">
-        <v>55182289033</v>
+        <v>402761320.5199991</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3936886096915674</v>
+        <v>0.3486555266744567</v>
       </c>
       <c r="E30" t="n">
         <v>29</v>
@@ -1014,17 +1014,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2020-09-17</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20554994106</v>
+        <v>146489230.6799999</v>
       </c>
       <c r="C31" t="n">
-        <v>55472969929</v>
+        <v>404177941.5499999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3705407179804577</v>
+        <v>0.3624374702840583</v>
       </c>
       <c r="E31" t="n">
         <v>30</v>
@@ -1033,17 +1033,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2020-09-18</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>25018086444</v>
+        <v>177879476.8499999</v>
       </c>
       <c r="C32" t="n">
-        <v>64587549837</v>
+        <v>504944785.8399994</v>
       </c>
       <c r="D32" t="n">
-        <v>0.3873515330297914</v>
+        <v>0.3522751038097938</v>
       </c>
       <c r="E32" t="n">
         <v>31</v>
@@ -1052,17 +1052,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2020-09-21</t>
+          <t>2020-10-12</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22182279260</v>
+        <v>240889334.9</v>
       </c>
       <c r="C33" t="n">
-        <v>58098440053</v>
+        <v>692238454.8499972</v>
       </c>
       <c r="D33" t="n">
-        <v>0.3818050749686968</v>
+        <v>0.3479860634905047</v>
       </c>
       <c r="E33" t="n">
         <v>32</v>
@@ -1071,17 +1071,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2020-09-22</t>
+          <t>2020-10-13</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>22099090990</v>
+        <v>212385920.3400001</v>
       </c>
       <c r="C34" t="n">
-        <v>56264182474</v>
+        <v>585221126.5499965</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3927736975510506</v>
+        <v>0.3629156752970632</v>
       </c>
       <c r="E34" t="n">
         <v>33</v>
@@ -1090,17 +1090,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2020-09-23</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19077501915</v>
+        <v>211131692.4800002</v>
       </c>
       <c r="C35" t="n">
-        <v>48597940983</v>
+        <v>580840082.1500002</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3925578230088695</v>
+        <v>0.3634936688571641</v>
       </c>
       <c r="E35" t="n">
         <v>34</v>
@@ -1109,17 +1109,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2020-09-24</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20859996043</v>
+        <v>198393053.8200001</v>
       </c>
       <c r="C36" t="n">
-        <v>54861814882</v>
+        <v>545710465.6299995</v>
       </c>
       <c r="D36" t="n">
-        <v>0.3802279616134993</v>
+        <v>0.3635500257283205</v>
       </c>
       <c r="E36" t="n">
         <v>35</v>
@@ -1128,17 +1128,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2020-09-25</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16281719043</v>
+        <v>192799387.87</v>
       </c>
       <c r="C37" t="n">
-        <v>43622575116</v>
+        <v>517592304.4699985</v>
       </c>
       <c r="D37" t="n">
-        <v>0.373240667239476</v>
+        <v>0.3724927635224826</v>
       </c>
       <c r="E37" t="n">
         <v>36</v>
@@ -1147,17 +1147,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2020-09-28</t>
+          <t>2020-10-19</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>14676583271</v>
+        <v>200238943.9999999</v>
       </c>
       <c r="C38" t="n">
-        <v>40556797589</v>
+        <v>540929672.9999996</v>
       </c>
       <c r="D38" t="n">
-        <v>0.3618772719614492</v>
+        <v>0.3701755588475548</v>
       </c>
       <c r="E38" t="n">
         <v>37</v>
@@ -1166,17 +1166,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2020-09-29</t>
+          <t>2020-10-20</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14442107257</v>
+        <v>177477006.4999999</v>
       </c>
       <c r="C39" t="n">
-        <v>40163621965</v>
+        <v>480073411.9499983</v>
       </c>
       <c r="D39" t="n">
-        <v>0.3595817944304267</v>
+        <v>0.3696872230001459</v>
       </c>
       <c r="E39" t="n">
         <v>38</v>
@@ -1185,17 +1185,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>2020-10-21</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>15066784297</v>
+        <v>178718938.1099998</v>
       </c>
       <c r="C40" t="n">
-        <v>40300843448</v>
+        <v>494225531.9299976</v>
       </c>
       <c r="D40" t="n">
-        <v>0.3738577907541961</v>
+        <v>0.3616141347697789</v>
       </c>
       <c r="E40" t="n">
         <v>39</v>
@@ -1204,17 +1204,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>2020-10-22</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18363804782</v>
+        <v>172666975.51</v>
       </c>
       <c r="C41" t="n">
-        <v>50410563994</v>
+        <v>466438891.6099996</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3642848507742486</v>
+        <v>0.3701813433995785</v>
       </c>
       <c r="E41" t="n">
         <v>40</v>
@@ -1223,17 +1223,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-10-12</t>
+          <t>2020-10-23</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>24824121596</v>
+        <v>170450078.5000002</v>
       </c>
       <c r="C42" t="n">
-        <v>69075123930</v>
+        <v>475626508.1800012</v>
       </c>
       <c r="D42" t="n">
-        <v>0.3593786038104905</v>
+        <v>0.3583695937222515</v>
       </c>
       <c r="E42" t="n">
         <v>41</v>
@@ -1242,17 +1242,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2020-10-13</t>
+          <t>2020-10-26</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>21950874234</v>
+        <v>157274353.1999999</v>
       </c>
       <c r="C43" t="n">
-        <v>58435290007</v>
+        <v>442639060.2399994</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3756441395494142</v>
+        <v>0.3553106070547087</v>
       </c>
       <c r="E43" t="n">
         <v>42</v>
@@ -1261,17 +1261,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2020-10-27</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>21810988673</v>
+        <v>150253384.8999999</v>
       </c>
       <c r="C44" t="n">
-        <v>58022364557</v>
+        <v>435941560.6799993</v>
       </c>
       <c r="D44" t="n">
-        <v>0.3759065808421738</v>
+        <v>0.3446640523689198</v>
       </c>
       <c r="E44" t="n">
         <v>43</v>
@@ -1280,17 +1280,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2020-10-28</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20410751440</v>
+        <v>170267952.7</v>
       </c>
       <c r="C45" t="n">
-        <v>54415224691</v>
+        <v>495996917.3400017</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3750926612157467</v>
+        <v>0.3432842962273548</v>
       </c>
       <c r="E45" t="n">
         <v>44</v>
@@ -1299,17 +1299,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2020-10-29</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19779199722</v>
+        <v>179839011.5</v>
       </c>
       <c r="C46" t="n">
-        <v>51552706029</v>
+        <v>517681004.7499997</v>
       </c>
       <c r="D46" t="n">
-        <v>0.3836694762613156</v>
+        <v>0.3473934910685944</v>
       </c>
       <c r="E46" t="n">
         <v>45</v>
@@ -1318,17 +1318,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2020-10-19</t>
+          <t>2020-10-30</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>20562725471</v>
+        <v>200234654.2500001</v>
       </c>
       <c r="C47" t="n">
-        <v>53895497648</v>
+        <v>604436661.4899986</v>
       </c>
       <c r="D47" t="n">
-        <v>0.3815295593947087</v>
+        <v>0.3312748332577992</v>
       </c>
       <c r="E47" t="n">
         <v>46</v>
@@ -1337,17 +1337,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2020-10-20</t>
+          <t>2020-11-02</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>18296672779</v>
+        <v>193891490.5500001</v>
       </c>
       <c r="C48" t="n">
-        <v>47922773316</v>
+        <v>564415272.8799963</v>
       </c>
       <c r="D48" t="n">
-        <v>0.3817949486844761</v>
+        <v>0.3435263003437976</v>
       </c>
       <c r="E48" t="n">
         <v>47</v>
@@ -1356,17 +1356,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2020-10-21</t>
+          <t>2020-11-03</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>18370049664</v>
+        <v>196626407.1200001</v>
       </c>
       <c r="C49" t="n">
-        <v>49307563396</v>
+        <v>554320485.659999</v>
       </c>
       <c r="D49" t="n">
-        <v>0.3725604836009853</v>
+        <v>0.3547161113590954</v>
       </c>
       <c r="E49" t="n">
         <v>48</v>
@@ -1375,17 +1375,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2020-10-22</t>
+          <t>2020-11-04</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>17665602844</v>
+        <v>177311189.33</v>
       </c>
       <c r="C50" t="n">
-        <v>46460364776</v>
+        <v>500286124.6599983</v>
       </c>
       <c r="D50" t="n">
-        <v>0.3802295339085566</v>
+        <v>0.3544195623064767</v>
       </c>
       <c r="E50" t="n">
         <v>49</v>
@@ -1394,17 +1394,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2020-10-23</t>
+          <t>2020-11-05</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>17466910909</v>
+        <v>207342355.1300001</v>
       </c>
       <c r="C51" t="n">
-        <v>47398504650</v>
+        <v>591134930.599998</v>
       </c>
       <c r="D51" t="n">
-        <v>0.3685118557637873</v>
+        <v>0.3507530081491699</v>
       </c>
       <c r="E51" t="n">
         <v>50</v>
@@ -1413,17 +1413,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2020-10-26</t>
+          <t>2020-11-06</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>16145407434</v>
+        <v>224630371.45</v>
       </c>
       <c r="C52" t="n">
-        <v>44150494774</v>
+        <v>599814679.0299979</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3656902944496094</v>
+        <v>0.3744996234724788</v>
       </c>
       <c r="E52" t="n">
         <v>51</v>
@@ -1432,17 +1432,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2020-10-27</t>
+          <t>2020-11-09</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>15491813981</v>
+        <v>264392483.6699999</v>
       </c>
       <c r="C53" t="n">
-        <v>43505082864</v>
+        <v>745627040.5199972</v>
       </c>
       <c r="D53" t="n">
-        <v>0.356092046288672</v>
+        <v>0.3545907931203966</v>
       </c>
       <c r="E53" t="n">
         <v>52</v>
@@ -1451,17 +1451,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2020-11-10</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>17543172634</v>
+        <v>246152767.87</v>
       </c>
       <c r="C54" t="n">
-        <v>49485508785</v>
+        <v>671809978.2499989</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3545113117906887</v>
+        <v>0.3664023694783525</v>
       </c>
       <c r="E54" t="n">
         <v>53</v>
@@ -1470,17 +1470,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2020-10-29</t>
+          <t>2020-11-11</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>18553392322</v>
+        <v>232032176.1799999</v>
       </c>
       <c r="C55" t="n">
-        <v>51689467398</v>
+        <v>620772522.129999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.3589395142948963</v>
+        <v>0.3737797146430539</v>
       </c>
       <c r="E55" t="n">
         <v>54</v>
@@ -1489,17 +1489,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>2020-11-12</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>20650226596</v>
+        <v>185101483.5900001</v>
       </c>
       <c r="C56" t="n">
-        <v>60348197366</v>
+        <v>517653293.0399986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.3421846467220954</v>
+        <v>0.357578105034285</v>
       </c>
       <c r="E56" t="n">
         <v>55</v>
@@ -1508,17 +1508,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2020-11-02</t>
+          <t>2020-11-13</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>19992661394</v>
+        <v>196205686.5099999</v>
       </c>
       <c r="C57" t="n">
-        <v>56353918211</v>
+        <v>523352481.9799996</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3547696775784711</v>
+        <v>0.3749016069775667</v>
       </c>
       <c r="E57" t="n">
         <v>56</v>
@@ -1527,17 +1527,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2020-11-03</t>
+          <t>2020-11-16</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>20249408150</v>
+        <v>225690052.6200002</v>
       </c>
       <c r="C58" t="n">
-        <v>55344378404</v>
+        <v>614185570.4200007</v>
       </c>
       <c r="D58" t="n">
-        <v>0.365880126111173</v>
+        <v>0.3674623167484474</v>
       </c>
       <c r="E58" t="n">
         <v>57</v>
@@ -1546,17 +1546,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2020-11-04</t>
+          <t>2020-11-17</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>18257580496</v>
+        <v>236404217.7899999</v>
       </c>
       <c r="C59" t="n">
-        <v>49909415865</v>
+        <v>643238071.5399981</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3658143494483073</v>
+        <v>0.3675221170040768</v>
       </c>
       <c r="E59" t="n">
         <v>58</v>
@@ -1565,17 +1565,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2020-11-05</t>
+          <t>2020-11-18</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>21285267389</v>
+        <v>248568122.69</v>
       </c>
       <c r="C60" t="n">
-        <v>58980118835</v>
+        <v>633120214.7699951</v>
       </c>
       <c r="D60" t="n">
-        <v>0.3608888522002924</v>
+        <v>0.3926080969951367</v>
       </c>
       <c r="E60" t="n">
         <v>59</v>
@@ -1584,17 +1584,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2020-11-06</t>
+          <t>2020-11-19</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>23071856412</v>
+        <v>226117858.0299999</v>
       </c>
       <c r="C61" t="n">
-        <v>59902082650</v>
+        <v>598602899.8199979</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3851595034984981</v>
+        <v>0.3777426706385726</v>
       </c>
       <c r="E61" t="n">
         <v>60</v>
@@ -1603,17 +1603,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2020-11-09</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>27202863336</v>
+        <v>223128925.4199999</v>
       </c>
       <c r="C62" t="n">
-        <v>74478178320</v>
+        <v>589375196.7099988</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3652460888492902</v>
+        <v>0.3785855371341495</v>
       </c>
       <c r="E62" t="n">
         <v>61</v>
@@ -1622,17 +1622,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2020-11-10</t>
+          <t>2020-11-23</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25309810082</v>
+        <v>312781681.0999997</v>
       </c>
       <c r="C63" t="n">
-        <v>67090114044</v>
+        <v>772979616.609997</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3772509622714452</v>
+        <v>0.4046441515130044</v>
       </c>
       <c r="E63" t="n">
         <v>62</v>
@@ -1641,17 +1641,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2020-11-11</t>
+          <t>2020-11-24</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>23822441228</v>
+        <v>259866221.9700001</v>
       </c>
       <c r="C64" t="n">
-        <v>61988411650</v>
+        <v>654573984.8599988</v>
       </c>
       <c r="D64" t="n">
-        <v>0.3843047529997488</v>
+        <v>0.3970005346692485</v>
       </c>
       <c r="E64" t="n">
         <v>63</v>
@@ -1660,17 +1660,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2020-11-12</t>
+          <t>2020-11-25</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>19076439758</v>
+        <v>263380480.4299999</v>
       </c>
       <c r="C65" t="n">
-        <v>51703999860</v>
+        <v>688927022.6599994</v>
       </c>
       <c r="D65" t="n">
-        <v>0.3689548160616911</v>
+        <v>0.3823053411565538</v>
       </c>
       <c r="E65" t="n">
         <v>64</v>
@@ -1679,17 +1679,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2020-11-13</t>
+          <t>2020-11-26</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>20119982649</v>
+        <v>211312822.4100001</v>
       </c>
       <c r="C66" t="n">
-        <v>52210418675</v>
+        <v>571909792.0999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.3853633653896379</v>
+        <v>0.3694862814537218</v>
       </c>
       <c r="E66" t="n">
         <v>65</v>
@@ -1698,17 +1698,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2020-11-16</t>
+          <t>2020-11-27</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>23217241543</v>
+        <v>230439216.4600001</v>
       </c>
       <c r="C67" t="n">
-        <v>61350411349</v>
+        <v>588405382.5100018</v>
       </c>
       <c r="D67" t="n">
-        <v>0.3784366075546849</v>
+        <v>0.391633427071995</v>
       </c>
       <c r="E67" t="n">
         <v>66</v>
@@ -1717,17 +1717,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2020-11-17</t>
+          <t>2020-11-30</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>24335506367</v>
+        <v>331959478.2200002</v>
       </c>
       <c r="C68" t="n">
-        <v>64241703103</v>
+        <v>752506497.0699981</v>
       </c>
       <c r="D68" t="n">
-        <v>0.3788116626980203</v>
+        <v>0.4411383549677463</v>
       </c>
       <c r="E68" t="n">
         <v>67</v>
@@ -1736,17 +1736,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2020-11-18</t>
+          <t>2020-12-01</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>25490702717</v>
+        <v>281108655.2699999</v>
       </c>
       <c r="C69" t="n">
-        <v>63205463709</v>
+        <v>680625340.1999992</v>
       </c>
       <c r="D69" t="n">
-        <v>0.4032990381078449</v>
+        <v>0.4130152650317092</v>
       </c>
       <c r="E69" t="n">
         <v>68</v>
@@ -1755,17 +1755,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2020-11-19</t>
+          <t>2020-12-02</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>23177522765</v>
+        <v>282014230.29</v>
       </c>
       <c r="C70" t="n">
-        <v>59756276020</v>
+        <v>697787823.5499972</v>
       </c>
       <c r="D70" t="n">
-        <v>0.3878675899623104</v>
+        <v>0.4041547025788612</v>
       </c>
       <c r="E70" t="n">
         <v>69</v>
@@ -1774,17 +1774,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2020-11-20</t>
+          <t>2020-12-03</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>22935620159</v>
+        <v>278236062.0900001</v>
       </c>
       <c r="C71" t="n">
-        <v>58875754449</v>
+        <v>670221870.7999957</v>
       </c>
       <c r="D71" t="n">
-        <v>0.3895596816320637</v>
+        <v>0.4151402307386504</v>
       </c>
       <c r="E71" t="n">
         <v>70</v>
@@ -1793,17 +1793,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2020-11-23</t>
+          <t>2020-12-04</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>32096579820</v>
+        <v>230967859.0799999</v>
       </c>
       <c r="C72" t="n">
-        <v>77198006469</v>
+        <v>572135607.9899999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4157695423506675</v>
+        <v>0.4036942568413551</v>
       </c>
       <c r="E72" t="n">
         <v>71</v>
@@ -1812,17 +1812,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2020-11-24</t>
+          <t>2020-12-07</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>26709718473</v>
+        <v>218228153.8200001</v>
       </c>
       <c r="C73" t="n">
-        <v>65410116144</v>
+        <v>569439403.0899993</v>
       </c>
       <c r="D73" t="n">
-        <v>0.408342318399171</v>
+        <v>0.3832333214663569</v>
       </c>
       <c r="E73" t="n">
         <v>72</v>
@@ -1831,17 +1831,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2020-11-25</t>
+          <t>2020-12-08</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>27089790866</v>
+        <v>200575269.67</v>
       </c>
       <c r="C74" t="n">
-        <v>68837443765</v>
+        <v>517377966.9399993</v>
       </c>
       <c r="D74" t="n">
-        <v>0.3935327836762824</v>
+        <v>0.3876764811928314</v>
       </c>
       <c r="E74" t="n">
         <v>73</v>
@@ -1850,17 +1850,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2020-11-26</t>
+          <t>2020-12-09</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>21689088930</v>
+        <v>215852409.7799999</v>
       </c>
       <c r="C75" t="n">
-        <v>57127013421</v>
+        <v>594945108.1099982</v>
       </c>
       <c r="D75" t="n">
-        <v>0.3796643239540867</v>
+        <v>0.3628106304894457</v>
       </c>
       <c r="E75" t="n">
         <v>74</v>
@@ -1869,17 +1869,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2020-11-27</t>
+          <t>2020-12-10</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>23626364341</v>
+        <v>204562828.06</v>
       </c>
       <c r="C76" t="n">
-        <v>58765160877</v>
+        <v>535910783.4299998</v>
       </c>
       <c r="D76" t="n">
-        <v>0.4020471311301572</v>
+        <v>0.3817106025572627</v>
       </c>
       <c r="E76" t="n">
         <v>75</v>
@@ -1888,17 +1888,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2020-11-30</t>
+          <t>2020-12-11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>33970232252</v>
+        <v>234577083.9700001</v>
       </c>
       <c r="C77" t="n">
-        <v>75092505579</v>
+        <v>642832227.2399976</v>
       </c>
       <c r="D77" t="n">
-        <v>0.4523784629381171</v>
+        <v>0.3649118292920031</v>
       </c>
       <c r="E77" t="n">
         <v>76</v>
@@ -1907,17 +1907,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2020-12-01</t>
+          <t>2020-12-14</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>28738868941</v>
+        <v>200331617.0000001</v>
       </c>
       <c r="C78" t="n">
-        <v>67936162045</v>
+        <v>528206846.5699973</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4230275611089682</v>
+        <v>0.3792673614529767</v>
       </c>
       <c r="E78" t="n">
         <v>77</v>
@@ -1926,17 +1926,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2020-12-02</t>
+          <t>2020-12-15</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>28928357564</v>
+        <v>200987610.3900001</v>
       </c>
       <c r="C79" t="n">
-        <v>69689843826</v>
+        <v>507911683.22</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4151014835996427</v>
+        <v>0.3957136979322902</v>
       </c>
       <c r="E79" t="n">
         <v>78</v>
@@ -1945,17 +1945,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2020-12-03</t>
+          <t>2020-12-16</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>28497726227</v>
+        <v>196501685.7099999</v>
       </c>
       <c r="C80" t="n">
-        <v>66950741850</v>
+        <v>516633783.1599995</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4256521352795137</v>
+        <v>0.3803500508776138</v>
       </c>
       <c r="E80" t="n">
         <v>79</v>
@@ -1964,17 +1964,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2020-12-04</t>
+          <t>2020-12-17</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>23614518756</v>
+        <v>231044333.9200001</v>
       </c>
       <c r="C81" t="n">
-        <v>57124426015</v>
+        <v>604154231.4400005</v>
       </c>
       <c r="D81" t="n">
-        <v>0.4133874141649876</v>
+        <v>0.3824260791309966</v>
       </c>
       <c r="E81" t="n">
         <v>80</v>
@@ -1983,17 +1983,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2020-12-07</t>
+          <t>2020-12-18</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>22345056458</v>
+        <v>238667018.15</v>
       </c>
       <c r="C82" t="n">
-        <v>56856559648</v>
+        <v>591174023.6699989</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3930075367967857</v>
+        <v>0.4037170250958575</v>
       </c>
       <c r="E82" t="n">
         <v>81</v>
@@ -2002,17 +2002,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2020-12-08</t>
+          <t>2020-12-21</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>20555717183</v>
+        <v>250979861.1999999</v>
       </c>
       <c r="C83" t="n">
-        <v>51665831943</v>
+        <v>625638788.389997</v>
       </c>
       <c r="D83" t="n">
-        <v>0.3978590184259099</v>
+        <v>0.4011577700383077</v>
       </c>
       <c r="E83" t="n">
         <v>82</v>
@@ -2021,17 +2021,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2020-12-09</t>
+          <t>2020-12-22</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>22167887887</v>
+        <v>271282176.5699999</v>
       </c>
       <c r="C84" t="n">
-        <v>59426788696</v>
+        <v>706958506.5899991</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3730285343265085</v>
+        <v>0.3837313987188928</v>
       </c>
       <c r="E84" t="n">
         <v>83</v>
@@ -2040,17 +2040,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2020-12-10</t>
+          <t>2020-12-23</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>21008686040</v>
+        <v>261368609.6699999</v>
       </c>
       <c r="C85" t="n">
-        <v>53530291688</v>
+        <v>665915002.6099999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.3924635076238444</v>
+        <v>0.392495451590048</v>
       </c>
       <c r="E85" t="n">
         <v>84</v>
@@ -2059,17 +2059,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2020-12-11</t>
+          <t>2020-12-24</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>24084146686</v>
+        <v>233238806.54</v>
       </c>
       <c r="C86" t="n">
-        <v>64194443337</v>
+        <v>630791512.7199994</v>
       </c>
       <c r="D86" t="n">
-        <v>0.3751749440300626</v>
+        <v>0.3697557779974948</v>
       </c>
       <c r="E86" t="n">
         <v>85</v>
@@ -2078,17 +2078,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2020-12-14</t>
+          <t>2020-12-25</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>20561369384</v>
+        <v>252387216.6400001</v>
       </c>
       <c r="C87" t="n">
-        <v>52737085483</v>
+        <v>630933209.1399993</v>
       </c>
       <c r="D87" t="n">
-        <v>0.3898844465082932</v>
+        <v>0.4000220831362156</v>
       </c>
       <c r="E87" t="n">
         <v>86</v>
@@ -2097,17 +2097,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2020-12-15</t>
+          <t>2020-12-28</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>20518702233</v>
+        <v>270795268.9299998</v>
       </c>
       <c r="C88" t="n">
-        <v>50712282528</v>
+        <v>687610883.4299997</v>
       </c>
       <c r="D88" t="n">
-        <v>0.4046101104139991</v>
+        <v>0.3938205101978544</v>
       </c>
       <c r="E88" t="n">
         <v>87</v>
@@ -2116,17 +2116,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2020-12-16</t>
+          <t>2020-12-29</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>20098821894</v>
+        <v>281825773.02</v>
       </c>
       <c r="C89" t="n">
-        <v>51594471274</v>
+        <v>681772464.2199972</v>
       </c>
       <c r="D89" t="n">
-        <v>0.3895537912824469</v>
+        <v>0.4133721847250483</v>
       </c>
       <c r="E89" t="n">
         <v>88</v>
@@ -2135,17 +2135,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2020-12-17</t>
+          <t>2020-12-30</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>23623180829</v>
+        <v>269340518.5500001</v>
       </c>
       <c r="C90" t="n">
-        <v>60346809075</v>
+        <v>640686140.1199988</v>
       </c>
       <c r="D90" t="n">
-        <v>0.3914569998165226</v>
+        <v>0.4203938585272866</v>
       </c>
       <c r="E90" t="n">
         <v>89</v>
@@ -2154,17 +2154,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2020-12-18</t>
+          <t>2020-12-31</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>24395319589</v>
+        <v>289329012.47</v>
       </c>
       <c r="C91" t="n">
-        <v>59011526731</v>
+        <v>705758775.369997</v>
       </c>
       <c r="D91" t="n">
-        <v>0.4133992279204094</v>
+        <v>0.409954537679419</v>
       </c>
       <c r="E91" t="n">
         <v>90</v>
@@ -2173,17 +2173,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2020-12-21</t>
+          <t>2021-01-04</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>25669905456</v>
+        <v>322245246.42</v>
       </c>
       <c r="C92" t="n">
-        <v>62473191028</v>
+        <v>814180326.4699969</v>
       </c>
       <c r="D92" t="n">
-        <v>0.410894737944392</v>
+        <v>0.3957910010146566</v>
       </c>
       <c r="E92" t="n">
         <v>91</v>
@@ -2192,17 +2192,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2020-12-22</t>
+          <t>2021-01-05</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>27752409533</v>
+        <v>343268972.3399996</v>
       </c>
       <c r="C93" t="n">
-        <v>70592976908</v>
+        <v>864887387.3699974</v>
       </c>
       <c r="D93" t="n">
-        <v>0.3931327271998773</v>
+        <v>0.3968944134840871</v>
       </c>
       <c r="E93" t="n">
         <v>92</v>
@@ -2211,17 +2211,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2020-12-23</t>
+          <t>2021-01-06</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>26781996550</v>
+        <v>307878955.1499998</v>
       </c>
       <c r="C94" t="n">
-        <v>66516491988</v>
+        <v>801175188.2999973</v>
       </c>
       <c r="D94" t="n">
-        <v>0.4026369363380084</v>
+        <v>0.3842841860882936</v>
       </c>
       <c r="E94" t="n">
         <v>93</v>
@@ -2230,17 +2230,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2020-12-24</t>
+          <t>2021-01-07</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>23869444669</v>
+        <v>342902681.1800002</v>
       </c>
       <c r="C95" t="n">
-        <v>63015856260</v>
+        <v>872037011.1300024</v>
       </c>
       <c r="D95" t="n">
-        <v>0.3787847390427572</v>
+        <v>0.3932203298752885</v>
       </c>
       <c r="E95" t="n">
         <v>94</v>
@@ -2249,17 +2249,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2020-12-25</t>
+          <t>2021-01-08</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>25870374333</v>
+        <v>312529686.1500003</v>
       </c>
       <c r="C96" t="n">
-        <v>63035613181</v>
+        <v>763628761.9399995</v>
       </c>
       <c r="D96" t="n">
-        <v>0.4104088629822002</v>
+        <v>0.4092691393079779</v>
       </c>
       <c r="E96" t="n">
         <v>95</v>
@@ -2268,17 +2268,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2020-12-28</t>
+          <t>2021-01-11</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>27591719605</v>
+        <v>333317827.2900003</v>
       </c>
       <c r="C97" t="n">
-        <v>68634054637</v>
+        <v>800229757.0299991</v>
       </c>
       <c r="D97" t="n">
-        <v>0.4020120878903394</v>
+        <v>0.4165276589152193</v>
       </c>
       <c r="E97" t="n">
         <v>96</v>
@@ -2287,17 +2287,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2020-12-29</t>
+          <t>2021-01-12</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>28714767727</v>
+        <v>308593283.39</v>
       </c>
       <c r="C98" t="n">
-        <v>68080937199</v>
+        <v>708129906.9100007</v>
       </c>
       <c r="D98" t="n">
-        <v>0.4217739782733451</v>
+        <v>0.435786259524865</v>
       </c>
       <c r="E98" t="n">
         <v>97</v>
@@ -2306,17 +2306,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2020-12-30</t>
+          <t>2021-01-13</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>27431057672</v>
+        <v>356297675.3699999</v>
       </c>
       <c r="C99" t="n">
-        <v>63970764234</v>
+        <v>818873696.1699982</v>
       </c>
       <c r="D99" t="n">
-        <v>0.4288061585704895</v>
+        <v>0.4351069976193649</v>
       </c>
       <c r="E99" t="n">
         <v>98</v>
@@ -2325,17 +2325,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2020-12-31</t>
+          <t>2021-01-14</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>29516497306</v>
+        <v>325094803.9400001</v>
       </c>
       <c r="C100" t="n">
-        <v>70483427194</v>
+        <v>741470317.5499998</v>
       </c>
       <c r="D100" t="n">
-        <v>0.4187721636287379</v>
+        <v>0.4384461471285772</v>
       </c>
       <c r="E100" t="n">
         <v>99</v>
@@ -2344,17 +2344,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2021-01-04</t>
+          <t>2021-01-15</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>32842910849</v>
+        <v>309282089.1900002</v>
       </c>
       <c r="C101" t="n">
-        <v>81262611004</v>
+        <v>687705998.6799985</v>
       </c>
       <c r="D101" t="n">
-        <v>0.4041577109475767</v>
+        <v>0.449730102374626</v>
       </c>
       <c r="E101" t="n">
         <v>100</v>
@@ -2363,17 +2363,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2021-01-05</t>
+          <t>2021-01-18</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>34955476638</v>
+        <v>277140546.9799998</v>
       </c>
       <c r="C102" t="n">
-        <v>86306603527</v>
+        <v>663480669.8099997</v>
       </c>
       <c r="D102" t="n">
-        <v>0.4050150881799513</v>
+        <v>0.4177070404468066</v>
       </c>
       <c r="E102" t="n">
         <v>101</v>
@@ -2382,17 +2382,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2021-01-06</t>
+          <t>2021-01-19</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>31318863380</v>
+        <v>297039045.1800001</v>
       </c>
       <c r="C103" t="n">
-        <v>79924024318</v>
+        <v>717128664.4399937</v>
       </c>
       <c r="D103" t="n">
-        <v>0.3918579381762507</v>
+        <v>0.4142060691604875</v>
       </c>
       <c r="E103" t="n">
         <v>102</v>
@@ -2401,17 +2401,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2021-01-07</t>
+          <t>2021-01-20</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>34820241307</v>
+        <v>251179049.5799999</v>
       </c>
       <c r="C104" t="n">
-        <v>87045282583</v>
+        <v>611512216.8999991</v>
       </c>
       <c r="D104" t="n">
-        <v>0.4000244501911746</v>
+        <v>0.4107506647264176</v>
       </c>
       <c r="E104" t="n">
         <v>103</v>
@@ -2420,17 +2420,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2021-01-08</t>
+          <t>2021-01-21</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>31741361539</v>
+        <v>310384151.2299998</v>
       </c>
       <c r="C105" t="n">
-        <v>76243328872</v>
+        <v>737005721.6399992</v>
       </c>
       <c r="D105" t="n">
-        <v>0.4163165749529185</v>
+        <v>0.4211421188689378</v>
       </c>
       <c r="E105" t="n">
         <v>104</v>
@@ -2439,17 +2439,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2021-01-11</t>
+          <t>2021-01-22</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>33861909952</v>
+        <v>290909808.8900002</v>
       </c>
       <c r="C106" t="n">
-        <v>79843929989</v>
+        <v>719563634.0600013</v>
       </c>
       <c r="D106" t="n">
-        <v>0.4241012429706943</v>
+        <v>0.4042864246051413</v>
       </c>
       <c r="E106" t="n">
         <v>105</v>
@@ -2458,17 +2458,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2021-01-12</t>
+          <t>2021-01-25</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>31336739617</v>
+        <v>292764028.1799999</v>
       </c>
       <c r="C107" t="n">
-        <v>70684174141</v>
+        <v>729444565.4999967</v>
       </c>
       <c r="D107" t="n">
-        <v>0.4433345936035105</v>
+        <v>0.4013519903041916</v>
       </c>
       <c r="E107" t="n">
         <v>106</v>
@@ -2477,17 +2477,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2021-01-13</t>
+          <t>2021-01-26</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>36176556832</v>
+        <v>251576030.0199999</v>
       </c>
       <c r="C108" t="n">
-        <v>81782457644</v>
+        <v>627377338.5899969</v>
       </c>
       <c r="D108" t="n">
-        <v>0.4423510600461162</v>
+        <v>0.4009963614328277</v>
       </c>
       <c r="E108" t="n">
         <v>107</v>
@@ -2496,17 +2496,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2021-01-14</t>
+          <t>2021-01-27</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>32971296424</v>
+        <v>252160749.3000001</v>
       </c>
       <c r="C109" t="n">
-        <v>74034016193</v>
+        <v>601452934.0099982</v>
       </c>
       <c r="D109" t="n">
-        <v>0.4453533405245341</v>
+        <v>0.4192526713915877</v>
       </c>
       <c r="E109" t="n">
         <v>108</v>
@@ -2515,17 +2515,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2021-01-15</t>
+          <t>2021-01-28</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>31268748151</v>
+        <v>259026040</v>
       </c>
       <c r="C110" t="n">
-        <v>68522530970</v>
+        <v>623976462.3499979</v>
       </c>
       <c r="D110" t="n">
-        <v>0.4563279801309417</v>
+        <v>0.4151214919621574</v>
       </c>
       <c r="E110" t="n">
         <v>109</v>
@@ -2534,17 +2534,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2021-01-18</t>
+          <t>2021-01-29</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>28025154838</v>
+        <v>266479986.57</v>
       </c>
       <c r="C111" t="n">
-        <v>66132336803</v>
+        <v>661425295.2200006</v>
       </c>
       <c r="D111" t="n">
-        <v>0.4237738479056539</v>
+        <v>0.4028875044480488</v>
       </c>
       <c r="E111" t="n">
         <v>110</v>
@@ -2553,17 +2553,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2021-01-19</t>
+          <t>2021-02-01</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>30160755219</v>
+        <v>251405425.9500001</v>
       </c>
       <c r="C112" t="n">
-        <v>71588657610</v>
+        <v>613622541.7699959</v>
       </c>
       <c r="D112" t="n">
-        <v>0.4213063385447102</v>
+        <v>0.409706959631601</v>
       </c>
       <c r="E112" t="n">
         <v>111</v>
@@ -2572,17 +2572,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2021-01-20</t>
+          <t>2021-02-02</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>25498108632</v>
+        <v>243849476.49</v>
       </c>
       <c r="C113" t="n">
-        <v>61023142374</v>
+        <v>593254237.0699958</v>
       </c>
       <c r="D113" t="n">
-        <v>0.4178432581483041</v>
+        <v>0.4110370584023813</v>
       </c>
       <c r="E113" t="n">
         <v>112</v>
@@ -2591,17 +2591,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2021-01-21</t>
+          <t>2021-02-03</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>31550851527</v>
+        <v>276735819.78</v>
       </c>
       <c r="C114" t="n">
-        <v>73606094304</v>
+        <v>644445670.9499981</v>
       </c>
       <c r="D114" t="n">
-        <v>0.4286445548474839</v>
+        <v>0.4294168341173815</v>
       </c>
       <c r="E114" t="n">
         <v>113</v>
@@ -2610,17 +2610,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2021-01-22</t>
+          <t>2021-02-04</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>29587073243</v>
+        <v>263949648.66</v>
       </c>
       <c r="C115" t="n">
-        <v>71863919964</v>
+        <v>651518599.0799971</v>
       </c>
       <c r="D115" t="n">
-        <v>0.4117097043665521</v>
+        <v>0.4051298750837208</v>
       </c>
       <c r="E115" t="n">
         <v>114</v>
@@ -2629,17 +2629,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2021-01-25</t>
+          <t>2021-02-05</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>29768085597</v>
+        <v>268807736.2100002</v>
       </c>
       <c r="C116" t="n">
-        <v>72841620023</v>
+        <v>609187857.5100001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.4086686373477226</v>
+        <v>0.4412558997953887</v>
       </c>
       <c r="E116" t="n">
         <v>115</v>
@@ -2648,17 +2648,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2021-01-26</t>
+          <t>2021-02-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>25588114580</v>
+        <v>225686196.3200003</v>
       </c>
       <c r="C117" t="n">
-        <v>62625061804</v>
+        <v>532076561.64</v>
       </c>
       <c r="D117" t="n">
-        <v>0.4085922447483418</v>
+        <v>0.4241611312935417</v>
       </c>
       <c r="E117" t="n">
         <v>116</v>
@@ -2667,17 +2667,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2021-01-27</t>
+          <t>2021-02-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>25604690493</v>
+        <v>227943883.98</v>
       </c>
       <c r="C118" t="n">
-        <v>60015878129</v>
+        <v>545086600.1299963</v>
       </c>
       <c r="D118" t="n">
-        <v>0.4266319396004584</v>
+        <v>0.418179210286289</v>
       </c>
       <c r="E118" t="n">
         <v>117</v>
@@ -2686,17 +2686,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2021-01-28</t>
+          <t>2021-02-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>26286085867</v>
+        <v>235382581.5</v>
       </c>
       <c r="C119" t="n">
-        <v>62311898539</v>
+        <v>539167201.2800009</v>
       </c>
       <c r="D119" t="n">
-        <v>0.4218469743872106</v>
+        <v>0.4365669516639624</v>
       </c>
       <c r="E119" t="n">
         <v>118</v>
@@ -2705,17 +2705,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2021-01-29</t>
+          <t>2021-02-18</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>27002904913</v>
+        <v>299875300.7900003</v>
       </c>
       <c r="C120" t="n">
-        <v>66018503681</v>
+        <v>707320061.6899965</v>
       </c>
       <c r="D120" t="n">
-        <v>0.4090202504963981</v>
+        <v>0.4239598408583373</v>
       </c>
       <c r="E120" t="n">
         <v>119</v>
@@ -2724,17 +2724,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2021-02-01</t>
+          <t>2021-02-19</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>25457673045</v>
+        <v>314716519.8000001</v>
       </c>
       <c r="C121" t="n">
-        <v>61214730247</v>
+        <v>749841852.8500011</v>
       </c>
       <c r="D121" t="n">
-        <v>0.4158749526834291</v>
+        <v>0.4197105277650543</v>
       </c>
       <c r="E121" t="n">
         <v>120</v>
@@ -2743,17 +2743,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2021-02-02</t>
+          <t>2021-02-22</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>24585679056</v>
+        <v>413684633.1699996</v>
       </c>
       <c r="C122" t="n">
-        <v>59083806830</v>
+        <v>985410748.4499987</v>
       </c>
       <c r="D122" t="n">
-        <v>0.4161153516519274</v>
+        <v>0.4198093371933527</v>
       </c>
       <c r="E122" t="n">
         <v>121</v>
@@ -2762,17 +2762,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2021-02-03</t>
+          <t>2021-02-23</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>27946762653</v>
+        <v>363454729.3299997</v>
       </c>
       <c r="C123" t="n">
-        <v>64252239936</v>
+        <v>798542716.519996</v>
       </c>
       <c r="D123" t="n">
-        <v>0.4349539048107436</v>
+        <v>0.455147510347242</v>
       </c>
       <c r="E123" t="n">
         <v>122</v>
@@ -2781,17 +2781,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2021-02-04</t>
+          <t>2021-02-24</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>26745949814</v>
+        <v>329992567.1900002</v>
       </c>
       <c r="C124" t="n">
-        <v>65026335158</v>
+        <v>751171488.1100001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.411309506356357</v>
+        <v>0.4393039038532793</v>
       </c>
       <c r="E124" t="n">
         <v>123</v>
@@ -2800,17 +2800,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2021-02-05</t>
+          <t>2021-02-25</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>27228530445</v>
+        <v>327151344.1199999</v>
       </c>
       <c r="C125" t="n">
-        <v>60817228192</v>
+        <v>724811917.3699962</v>
       </c>
       <c r="D125" t="n">
-        <v>0.44771080916479</v>
+        <v>0.4513603271136591</v>
       </c>
       <c r="E125" t="n">
         <v>124</v>
@@ -2819,17 +2819,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2021-02-08</t>
+          <t>2021-02-26</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>22845413099</v>
+        <v>291292777.4800001</v>
       </c>
       <c r="C126" t="n">
-        <v>53099229697</v>
+        <v>676787781.5999976</v>
       </c>
       <c r="D126" t="n">
-        <v>0.4302400096830542</v>
+        <v>0.4304049000284155</v>
       </c>
       <c r="E126" t="n">
         <v>125</v>
@@ -2838,17 +2838,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2021-02-09</t>
+          <t>2021-03-01</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>23052987297</v>
+        <v>277355240.0500001</v>
       </c>
       <c r="C127" t="n">
-        <v>54414450658</v>
+        <v>659602993.0499978</v>
       </c>
       <c r="D127" t="n">
-        <v>0.4236556101960896</v>
+        <v>0.4204881466160609</v>
       </c>
       <c r="E127" t="n">
         <v>126</v>
@@ -2857,17 +2857,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2021-02-10</t>
+          <t>2021-03-02</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>23672043794</v>
+        <v>302759629.74</v>
       </c>
       <c r="C128" t="n">
-        <v>53724833418</v>
+        <v>695887291.4399964</v>
       </c>
       <c r="D128" t="n">
-        <v>0.4406164205260971</v>
+        <v>0.4350699221902744</v>
       </c>
       <c r="E128" t="n">
         <v>127</v>
@@ -2876,17 +2876,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2021-02-18</t>
+          <t>2021-03-03</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>30305438799</v>
+        <v>313286129.5199998</v>
       </c>
       <c r="C129" t="n">
-        <v>70581483088</v>
+        <v>701914384.2199986</v>
       </c>
       <c r="D129" t="n">
-        <v>0.4293681213982937</v>
+        <v>0.4463309722141378</v>
       </c>
       <c r="E129" t="n">
         <v>128</v>
@@ -2895,17 +2895,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2021-02-19</t>
+          <t>2021-03-04</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>31871390359</v>
+        <v>357371777.1999999</v>
       </c>
       <c r="C130" t="n">
-        <v>74891926971</v>
+        <v>786835007.2699971</v>
       </c>
       <c r="D130" t="n">
-        <v>0.4255650995779744</v>
+        <v>0.4541889645199405</v>
       </c>
       <c r="E130" t="n">
         <v>129</v>
@@ -2914,17 +2914,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2021-02-22</t>
+          <t>2021-03-05</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>41800730539</v>
+        <v>320132549.79</v>
       </c>
       <c r="C131" t="n">
-        <v>98345390597</v>
+        <v>736028031.5199972</v>
       </c>
       <c r="D131" t="n">
-        <v>0.4250400581588124</v>
+        <v>0.4349461380280356</v>
       </c>
       <c r="E131" t="n">
         <v>130</v>
@@ -2933,17 +2933,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2021-02-23</t>
+          <t>2021-03-08</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>36659765914</v>
+        <v>339266526.5200001</v>
       </c>
       <c r="C132" t="n">
-        <v>79667225639</v>
+        <v>789137526.3899981</v>
       </c>
       <c r="D132" t="n">
-        <v>0.4601611970287279</v>
+        <v>0.4299206604354687</v>
       </c>
       <c r="E132" t="n">
         <v>131</v>
@@ -2952,17 +2952,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2021-02-24</t>
+          <t>2021-03-09</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>33328852498</v>
+        <v>355442878.53</v>
       </c>
       <c r="C133" t="n">
-        <v>74974298826</v>
+        <v>829863925.3099992</v>
       </c>
       <c r="D133" t="n">
-        <v>0.4445370349557979</v>
+        <v>0.4283146521849625</v>
       </c>
       <c r="E133" t="n">
         <v>132</v>
@@ -2971,17 +2971,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2021-02-25</t>
+          <t>2021-03-10</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>33009105938</v>
+        <v>267680801.1399999</v>
       </c>
       <c r="C134" t="n">
-        <v>72321851390</v>
+        <v>622422768.6399999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.4564195371603028</v>
+        <v>0.430062675446281</v>
       </c>
       <c r="E134" t="n">
         <v>133</v>
@@ -2990,17 +2990,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2021-02-26</t>
+          <t>2021-03-11</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>29437488128</v>
+        <v>304147940.0999998</v>
       </c>
       <c r="C135" t="n">
-        <v>67566280430</v>
+        <v>667030231.059996</v>
       </c>
       <c r="D135" t="n">
-        <v>0.4356831238993216</v>
+        <v>0.4559732466947863</v>
       </c>
       <c r="E135" t="n">
         <v>134</v>
@@ -3009,17 +3009,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2021-03-01</t>
+          <t>2021-03-12</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>28022529242</v>
+        <v>335153653.6000001</v>
       </c>
       <c r="C136" t="n">
-        <v>65847760652</v>
+        <v>723077310.3499993</v>
       </c>
       <c r="D136" t="n">
-        <v>0.425565409734991</v>
+        <v>0.4635101237484162</v>
       </c>
       <c r="E136" t="n">
         <v>135</v>
@@ -3028,17 +3028,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2021-03-02</t>
+          <t>2021-03-15</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>30548474585</v>
+        <v>342945253.9900002</v>
       </c>
       <c r="C137" t="n">
-        <v>69441386639</v>
+        <v>718190118.2899951</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4399174046424243</v>
+        <v>0.4775131894136195</v>
       </c>
       <c r="E137" t="n">
         <v>136</v>
@@ -3047,17 +3047,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2021-03-03</t>
+          <t>2021-03-16</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>31581683271</v>
+        <v>297066513.8600002</v>
       </c>
       <c r="C138" t="n">
-        <v>69999474895</v>
+        <v>671432350.1499993</v>
       </c>
       <c r="D138" t="n">
-        <v>0.4511702883253464</v>
+        <v>0.4424369987440059</v>
       </c>
       <c r="E138" t="n">
         <v>137</v>
@@ -3066,17 +3066,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2021-03-04</t>
+          <t>2021-03-17</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>36100282673</v>
+        <v>272298165.8599999</v>
       </c>
       <c r="C139" t="n">
-        <v>78562142790</v>
+        <v>625972117.1699982</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4595124495203449</v>
+        <v>0.435000471092949</v>
       </c>
       <c r="E139" t="n">
         <v>138</v>
@@ -3085,17 +3085,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2021-03-05</t>
+          <t>2021-03-18</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>32337135967</v>
+        <v>264572026.35</v>
       </c>
       <c r="C140" t="n">
-        <v>73514786011</v>
+        <v>629020728.3799986</v>
       </c>
       <c r="D140" t="n">
-        <v>0.4398725443091326</v>
+        <v>0.4206093923667473</v>
       </c>
       <c r="E140" t="n">
         <v>139</v>
@@ -3104,17 +3104,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2021-03-08</t>
+          <t>2021-03-19</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>34237890063</v>
+        <v>281421403.6600001</v>
       </c>
       <c r="C141" t="n">
-        <v>78814375242</v>
+        <v>660280934.2199996</v>
       </c>
       <c r="D141" t="n">
-        <v>0.4344117422471771</v>
+        <v>0.4262146445171066</v>
       </c>
       <c r="E141" t="n">
         <v>140</v>
@@ -3123,17 +3123,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2021-03-09</t>
+          <t>2021-03-22</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>35838361211</v>
+        <v>288933485.8899999</v>
       </c>
       <c r="C142" t="n">
-        <v>82850202998</v>
+        <v>675033424.5399995</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4325681762284292</v>
+        <v>0.42802841368469</v>
       </c>
       <c r="E142" t="n">
         <v>141</v>
@@ -3142,17 +3142,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2021-03-10</t>
+          <t>2021-03-23</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>26975456721</v>
+        <v>290001263.76</v>
       </c>
       <c r="C143" t="n">
-        <v>62127335207</v>
+        <v>703914772.3700013</v>
       </c>
       <c r="D143" t="n">
-        <v>0.4341962620981791</v>
+        <v>0.4119834888300448</v>
       </c>
       <c r="E143" t="n">
         <v>142</v>
@@ -3161,17 +3161,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2021-03-11</t>
+          <t>2021-03-24</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>30680047969</v>
+        <v>282645807.8300001</v>
       </c>
       <c r="C144" t="n">
-        <v>66598157167</v>
+        <v>673885285.0300007</v>
       </c>
       <c r="D144" t="n">
-        <v>0.4606741278451207</v>
+        <v>0.4194271845799645</v>
       </c>
       <c r="E144" t="n">
         <v>143</v>
@@ -3180,17 +3180,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2021-03-12</t>
+          <t>2021-03-25</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>33862968625</v>
+        <v>256463402.0599999</v>
       </c>
       <c r="C145" t="n">
-        <v>72238010975</v>
+        <v>606997650.9099977</v>
       </c>
       <c r="D145" t="n">
-        <v>0.4687693939513262</v>
+        <v>0.4225113584468005</v>
       </c>
       <c r="E145" t="n">
         <v>144</v>
@@ -3199,17 +3199,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2021-03-15</t>
+          <t>2021-03-26</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>34591765793</v>
+        <v>256453153.4500001</v>
       </c>
       <c r="C146" t="n">
-        <v>71723136959</v>
+        <v>613668589.8099983</v>
       </c>
       <c r="D146" t="n">
-        <v>0.4822957731585852</v>
+        <v>0.4179017106438545</v>
       </c>
       <c r="E146" t="n">
         <v>145</v>
@@ -3218,17 +3218,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2021-03-16</t>
+          <t>2021-03-29</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>29977825317</v>
+        <v>258246215.75</v>
       </c>
       <c r="C147" t="n">
-        <v>67049266583</v>
+        <v>630444459.0600004</v>
       </c>
       <c r="D147" t="n">
-        <v>0.447101465008429</v>
+        <v>0.4096256411469584</v>
       </c>
       <c r="E147" t="n">
         <v>146</v>
@@ -3237,17 +3237,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2021-03-17</t>
+          <t>2021-03-30</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>27491185060</v>
+        <v>255744323.2800002</v>
       </c>
       <c r="C148" t="n">
-        <v>62515062852</v>
+        <v>629423095.8099989</v>
       </c>
       <c r="D148" t="n">
-        <v>0.4397529780156095</v>
+        <v>0.4063154418426371</v>
       </c>
       <c r="E148" t="n">
         <v>147</v>
@@ -3256,17 +3256,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2021-03-18</t>
+          <t>2021-03-31</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>26739276351</v>
+        <v>251566239.64</v>
       </c>
       <c r="C149" t="n">
-        <v>62832911819</v>
+        <v>590223189.1500001</v>
       </c>
       <c r="D149" t="n">
-        <v>0.4255616296762858</v>
+        <v>0.4262222228209786</v>
       </c>
       <c r="E149" t="n">
         <v>148</v>
@@ -3275,17 +3275,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2021-03-19</t>
+          <t>2021-04-01</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>28358235249</v>
+        <v>242476937.31</v>
       </c>
       <c r="C150" t="n">
-        <v>65875538395</v>
+        <v>577967649.4399985</v>
       </c>
       <c r="D150" t="n">
-        <v>0.4304820262562349</v>
+        <v>0.4195337533942246</v>
       </c>
       <c r="E150" t="n">
         <v>149</v>
@@ -3294,17 +3294,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2021-03-22</t>
+          <t>2021-04-02</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>29121013208</v>
+        <v>235765474.05</v>
       </c>
       <c r="C151" t="n">
-        <v>67358226346</v>
+        <v>576946133.1099973</v>
       </c>
       <c r="D151" t="n">
-        <v>0.4323304633707791</v>
+        <v>0.4086438239547925</v>
       </c>
       <c r="E151" t="n">
         <v>150</v>
@@ -3313,17 +3313,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2021-03-23</t>
+          <t>2021-04-06</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>29320271653</v>
+        <v>214617948.5499999</v>
       </c>
       <c r="C152" t="n">
-        <v>70323191299</v>
+        <v>540461809.0799966</v>
       </c>
       <c r="D152" t="n">
-        <v>0.4169360222623591</v>
+        <v>0.3971010438560575</v>
       </c>
       <c r="E152" t="n">
         <v>151</v>
@@ -3332,17 +3332,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2021-03-24</t>
+          <t>2021-04-07</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>28494202046</v>
+        <v>280170747.6500001</v>
       </c>
       <c r="C153" t="n">
-        <v>67303523996</v>
+        <v>647867671.4699997</v>
       </c>
       <c r="D153" t="n">
-        <v>0.423368649280437</v>
+        <v>0.4324505759243981</v>
       </c>
       <c r="E153" t="n">
         <v>152</v>
@@ -3351,17 +3351,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2021-03-25</t>
+          <t>2021-04-08</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>25857769578</v>
+        <v>314205655.7599998</v>
       </c>
       <c r="C154" t="n">
-        <v>60650502617</v>
+        <v>702028444.3499976</v>
       </c>
       <c r="D154" t="n">
-        <v>0.426340565407816</v>
+        <v>0.4475682691901754</v>
       </c>
       <c r="E154" t="n">
         <v>153</v>
@@ -3370,17 +3370,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2021-03-26</t>
+          <t>2021-04-09</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>25857588064</v>
+        <v>272091311.6699998</v>
       </c>
       <c r="C155" t="n">
-        <v>61284664475</v>
+        <v>609307603.229998</v>
       </c>
       <c r="D155" t="n">
-        <v>0.4219259138564452</v>
+        <v>0.4465582084116753</v>
       </c>
       <c r="E155" t="n">
         <v>154</v>
@@ -3389,17 +3389,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2021-03-29</t>
+          <t>2021-04-12</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>26030305012</v>
+        <v>292786895.29</v>
       </c>
       <c r="C156" t="n">
-        <v>62965892538</v>
+        <v>667013089.1800008</v>
       </c>
       <c r="D156" t="n">
-        <v>0.4134032563151658</v>
+        <v>0.4389522485232494</v>
       </c>
       <c r="E156" t="n">
         <v>155</v>
@@ -3408,17 +3408,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2021-03-30</t>
+          <t>2021-04-13</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>25780001010</v>
+        <v>263446779.4299999</v>
       </c>
       <c r="C157" t="n">
-        <v>62868502600</v>
+        <v>601410785.4599966</v>
       </c>
       <c r="D157" t="n">
-        <v>0.4100622719460158</v>
+        <v>0.438047979516196</v>
       </c>
       <c r="E157" t="n">
         <v>156</v>
@@ -3427,17 +3427,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2021-03-31</t>
+          <t>2021-04-14</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>25340940136</v>
+        <v>247398572.99</v>
       </c>
       <c r="C158" t="n">
-        <v>58944651908</v>
+        <v>561997175.6399968</v>
       </c>
       <c r="D158" t="n">
-        <v>0.4299107606157687</v>
+        <v>0.4402131962821076</v>
       </c>
       <c r="E158" t="n">
         <v>157</v>
@@ -3446,17 +3446,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2021-04-01</t>
+          <t>2021-04-15</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>24459982838</v>
+        <v>234554814.0300002</v>
       </c>
       <c r="C159" t="n">
-        <v>57742915146</v>
+        <v>567993121.5200003</v>
       </c>
       <c r="D159" t="n">
-        <v>0.4236014544148696</v>
+        <v>0.4129536171183034</v>
       </c>
       <c r="E159" t="n">
         <v>158</v>
@@ -3465,17 +3465,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2021-04-02</t>
+          <t>2021-04-16</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>23776468616</v>
+        <v>229718913.8400002</v>
       </c>
       <c r="C160" t="n">
-        <v>57637646459</v>
+        <v>608224592.8000004</v>
       </c>
       <c r="D160" t="n">
-        <v>0.4125162992717471</v>
+        <v>0.3776876445960111</v>
       </c>
       <c r="E160" t="n">
         <v>159</v>
@@ -3484,17 +3484,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2021-04-06</t>
+          <t>2021-04-19</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>21609152872</v>
+        <v>262814210.9499999</v>
       </c>
       <c r="C161" t="n">
-        <v>54009467026</v>
+        <v>688213954.6300017</v>
       </c>
       <c r="D161" t="n">
-        <v>0.4000993540928189</v>
+        <v>0.3818786427998171</v>
       </c>
       <c r="E161" t="n">
         <v>160</v>
@@ -3503,17 +3503,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2021-04-07</t>
+          <t>2021-04-20</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>28192988226</v>
+        <v>262462882.35</v>
       </c>
       <c r="C162" t="n">
-        <v>64777711487</v>
+        <v>662249581.8800013</v>
       </c>
       <c r="D162" t="n">
-        <v>0.4352266787266473</v>
+        <v>0.3963201933701754</v>
       </c>
       <c r="E162" t="n">
         <v>161</v>
@@ -3522,17 +3522,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2021-04-08</t>
+          <t>2021-04-21</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>31610774016</v>
+        <v>238051005.1300001</v>
       </c>
       <c r="C163" t="n">
-        <v>70183037971</v>
+        <v>587952006.8600034</v>
       </c>
       <c r="D163" t="n">
-        <v>0.4504047549076137</v>
+        <v>0.4048816950235908</v>
       </c>
       <c r="E163" t="n">
         <v>162</v>
@@ -3541,17 +3541,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2021-04-09</t>
+          <t>2021-04-22</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>27363203695</v>
+        <v>232091173.0700001</v>
       </c>
       <c r="C164" t="n">
-        <v>60908586933</v>
+        <v>574123673.9599985</v>
       </c>
       <c r="D164" t="n">
-        <v>0.4492503450309851</v>
+        <v>0.4042529224916979</v>
       </c>
       <c r="E164" t="n">
         <v>163</v>
@@ -3560,17 +3560,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2021-04-12</t>
+          <t>2021-04-23</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>29441281600</v>
+        <v>230401273.8500001</v>
       </c>
       <c r="C165" t="n">
-        <v>66662877908</v>
+        <v>588332537.8600005</v>
       </c>
       <c r="D165" t="n">
-        <v>0.4416443232563598</v>
+        <v>0.3916174255601453</v>
       </c>
       <c r="E165" t="n">
         <v>164</v>
@@ -3579,17 +3579,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2021-04-13</t>
+          <t>2021-04-26</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>26500289609</v>
+        <v>259942290.0999998</v>
       </c>
       <c r="C166" t="n">
-        <v>60099497250</v>
+        <v>650653395.9399998</v>
       </c>
       <c r="D166" t="n">
-        <v>0.4409402877159675</v>
+        <v>0.3995096186725666</v>
       </c>
       <c r="E166" t="n">
         <v>165</v>
@@ -3598,17 +3598,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2021-04-14</t>
+          <t>2021-04-27</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>24875678254</v>
+        <v>227084746.9299998</v>
       </c>
       <c r="C167" t="n">
-        <v>56149660115</v>
+        <v>585049818.7700002</v>
       </c>
       <c r="D167" t="n">
-        <v>0.4430245562137362</v>
+        <v>0.3881459999550454</v>
       </c>
       <c r="E167" t="n">
         <v>166</v>
@@ -3617,17 +3617,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2021-04-15</t>
+          <t>2021-04-28</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>23587218127</v>
+        <v>216725797.5399999</v>
       </c>
       <c r="C168" t="n">
-        <v>56730832399</v>
+        <v>563065378.3800023</v>
       </c>
       <c r="D168" t="n">
-        <v>0.4157742294543835</v>
+        <v>0.3849034337070104</v>
       </c>
       <c r="E168" t="n">
         <v>167</v>
@@ -3636,17 +3636,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2021-04-16</t>
+          <t>2021-04-29</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>23064238930</v>
+        <v>237685400.92</v>
       </c>
       <c r="C169" t="n">
-        <v>60757105467</v>
+        <v>597197703.4300014</v>
       </c>
       <c r="D169" t="n">
-        <v>0.3796138534368998</v>
+        <v>0.3980011971828681</v>
       </c>
       <c r="E169" t="n">
         <v>168</v>
@@ -3655,17 +3655,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2021-04-19</t>
+          <t>2021-04-30</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>26349229565</v>
+        <v>265516096.31</v>
       </c>
       <c r="C170" t="n">
-        <v>68717257011</v>
+        <v>646650082.4899979</v>
       </c>
       <c r="D170" t="n">
-        <v>0.3834441406877186</v>
+        <v>0.4106024316700012</v>
       </c>
       <c r="E170" t="n">
         <v>169</v>
@@ -3674,17 +3674,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2021-04-20</t>
+          <t>2021-05-06</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>26332452757</v>
+        <v>281862200.87</v>
       </c>
       <c r="C171" t="n">
-        <v>66152179163</v>
+        <v>650452944.6599995</v>
       </c>
       <c r="D171" t="n">
-        <v>0.3980587350284626</v>
+        <v>0.4333321928726653</v>
       </c>
       <c r="E171" t="n">
         <v>170</v>
@@ -3693,17 +3693,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2021-04-21</t>
+          <t>2021-05-07</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>23796108657</v>
+        <v>337487846.0700001</v>
       </c>
       <c r="C172" t="n">
-        <v>58645267418</v>
+        <v>727689573.4999965</v>
       </c>
       <c r="D172" t="n">
-        <v>0.4057634947316526</v>
+        <v>0.4637799665683978</v>
       </c>
       <c r="E172" t="n">
         <v>171</v>
@@ -3712,17 +3712,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2021-04-22</t>
+          <t>2021-05-10</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>23283868400</v>
+        <v>349118192.4099997</v>
       </c>
       <c r="C173" t="n">
-        <v>57343158813</v>
+        <v>744567106.2099988</v>
       </c>
       <c r="D173" t="n">
-        <v>0.406044398006226</v>
+        <v>0.4688874777010816</v>
       </c>
       <c r="E173" t="n">
         <v>172</v>
@@ -3731,17 +3731,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2021-04-23</t>
+          <t>2021-05-11</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>23110619160</v>
+        <v>336132608.1700002</v>
       </c>
       <c r="C174" t="n">
-        <v>58758936747</v>
+        <v>735083630.5899969</v>
       </c>
       <c r="D174" t="n">
-        <v>0.3933124123655954</v>
+        <v>0.4572712466746288</v>
       </c>
       <c r="E174" t="n">
         <v>173</v>
@@ -3750,17 +3750,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2021-04-26</t>
+          <t>2021-05-12</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>26080656908</v>
+        <v>279484488.3299999</v>
       </c>
       <c r="C175" t="n">
-        <v>64990659217</v>
+        <v>661730394.8199992</v>
       </c>
       <c r="D175" t="n">
-        <v>0.4012985438556365</v>
+        <v>0.4223540138367439</v>
       </c>
       <c r="E175" t="n">
         <v>174</v>
@@ -3769,17 +3769,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2021-04-27</t>
+          <t>2021-05-13</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>22805398723</v>
+        <v>290219590.9200001</v>
       </c>
       <c r="C176" t="n">
-        <v>58465572266</v>
+        <v>693869213.7899975</v>
       </c>
       <c r="D176" t="n">
-        <v>0.3900654323409783</v>
+        <v>0.4182626713394382</v>
       </c>
       <c r="E176" t="n">
         <v>175</v>
@@ -3788,17 +3788,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2021-04-28</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>21764975470</v>
+        <v>290173253.36</v>
       </c>
       <c r="C177" t="n">
-        <v>56258757783</v>
+        <v>729862374.2599962</v>
       </c>
       <c r="D177" t="n">
-        <v>0.3868726635229197</v>
+        <v>0.3975725610656464</v>
       </c>
       <c r="E177" t="n">
         <v>176</v>
@@ -3807,17 +3807,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2021-04-29</t>
+          <t>2021-05-17</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>23871290845</v>
+        <v>267380865.5800001</v>
       </c>
       <c r="C178" t="n">
-        <v>59672070298</v>
+        <v>690035506.6900017</v>
       </c>
       <c r="D178" t="n">
-        <v>0.400041270996426</v>
+        <v>0.3874885610779459</v>
       </c>
       <c r="E178" t="n">
         <v>177</v>
@@ -3826,17 +3826,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2021-04-30</t>
+          <t>2021-05-18</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>26727927563</v>
+        <v>238885251.1299999</v>
       </c>
       <c r="C179" t="n">
-        <v>64623812735</v>
+        <v>588939771.6799982</v>
       </c>
       <c r="D179" t="n">
-        <v>0.413592550978105</v>
+        <v>0.4056191526148089</v>
       </c>
       <c r="E179" t="n">
         <v>178</v>
@@ -3845,17 +3845,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2021-05-06</t>
+          <t>2021-05-19</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>28245158344</v>
+        <v>251961502.5399999</v>
       </c>
       <c r="C180" t="n">
-        <v>64995398044</v>
+        <v>611140766.0699972</v>
       </c>
       <c r="D180" t="n">
-        <v>0.4345716649797089</v>
+        <v>0.412280634067768</v>
       </c>
       <c r="E180" t="n">
         <v>179</v>
@@ -3864,17 +3864,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2021-05-07</t>
+          <t>2021-05-20</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>33809492530</v>
+        <v>288265319.7999998</v>
       </c>
       <c r="C181" t="n">
-        <v>72689004129</v>
+        <v>688894516.4899982</v>
       </c>
       <c r="D181" t="n">
-        <v>0.4651252680529072</v>
+        <v>0.4184462394456946</v>
       </c>
       <c r="E181" t="n">
         <v>180</v>
@@ -3883,17 +3883,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2021-05-10</t>
+          <t>2021-05-21</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>34980447442</v>
+        <v>256128606.1000001</v>
       </c>
       <c r="C182" t="n">
-        <v>74391256531</v>
+        <v>617074955.9499991</v>
       </c>
       <c r="D182" t="n">
-        <v>0.4702225647636843</v>
+        <v>0.4150688723150092</v>
       </c>
       <c r="E182" t="n">
         <v>181</v>
@@ -3902,17 +3902,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2021-05-11</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>33682768573</v>
+        <v>259346374.7399999</v>
       </c>
       <c r="C183" t="n">
-        <v>73459473614</v>
+        <v>635831516.9400005</v>
       </c>
       <c r="D183" t="n">
-        <v>0.4585217796412401</v>
+        <v>0.4078853718798479</v>
       </c>
       <c r="E183" t="n">
         <v>182</v>
@@ -3921,17 +3921,17 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2021-05-12</t>
+          <t>2021-05-25</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>28011409229</v>
+        <v>292986851.9399999</v>
       </c>
       <c r="C184" t="n">
-        <v>66061705250</v>
+        <v>714634724.9999976</v>
       </c>
       <c r="D184" t="n">
-        <v>0.4240188642269418</v>
+        <v>0.409981269717898</v>
       </c>
       <c r="E184" t="n">
         <v>183</v>
@@ -3940,17 +3940,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2021-05-13</t>
+          <t>2021-05-26</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>29021959092</v>
+        <v>292949085.0399998</v>
       </c>
       <c r="C185" t="n">
-        <v>69247970457</v>
+        <v>728992934.059997</v>
       </c>
       <c r="D185" t="n">
-        <v>0.4191019448002651</v>
+        <v>0.4018544917966101</v>
       </c>
       <c r="E185" t="n">
         <v>184</v>
@@ -3959,17 +3959,17 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>2021-05-27</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>29087549466</v>
+        <v>267751953.27</v>
       </c>
       <c r="C186" t="n">
-        <v>72865719627</v>
+        <v>689974024.2799973</v>
       </c>
       <c r="D186" t="n">
-        <v>0.3991938817718307</v>
+        <v>0.3880609180170296</v>
       </c>
       <c r="E186" t="n">
         <v>185</v>
@@ -3978,17 +3978,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2021-05-17</t>
+          <t>2021-05-28</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>26738086558</v>
+        <v>310272566.0200002</v>
       </c>
       <c r="C187" t="n">
-        <v>68865623007</v>
+        <v>754413667.1099998</v>
       </c>
       <c r="D187" t="n">
-        <v>0.3882646433806625</v>
+        <v>0.4112764383081621</v>
       </c>
       <c r="E187" t="n">
         <v>186</v>
@@ -3997,17 +3997,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2021-05-18</t>
+          <t>2021-05-31</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>23944078372</v>
+        <v>285984863.2800001</v>
       </c>
       <c r="C188" t="n">
-        <v>58781317109</v>
+        <v>717187000.7699995</v>
       </c>
       <c r="D188" t="n">
-        <v>0.4073416444139855</v>
+        <v>0.3987591283346683</v>
       </c>
       <c r="E188" t="n">
         <v>187</v>
@@ -4016,17 +4016,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2021-05-19</t>
+          <t>2021-06-01</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>25053218592</v>
+        <v>293333903.6100001</v>
       </c>
       <c r="C189" t="n">
-        <v>60763325645</v>
+        <v>760634133.1200006</v>
       </c>
       <c r="D189" t="n">
-        <v>0.4123082192434532</v>
+        <v>0.3856438869062988</v>
       </c>
       <c r="E189" t="n">
         <v>188</v>
@@ -4035,17 +4035,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2021-05-20</t>
+          <t>2021-06-02</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>28722723747</v>
+        <v>295848342.6799999</v>
       </c>
       <c r="C190" t="n">
-        <v>68566840023</v>
+        <v>760328040.8799983</v>
       </c>
       <c r="D190" t="n">
-        <v>0.4189010859675796</v>
+        <v>0.3891061841380822</v>
       </c>
       <c r="E190" t="n">
         <v>189</v>
@@ -4054,17 +4054,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2021-05-21</t>
+          <t>2021-06-03</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>25545536529</v>
+        <v>295737911.5199999</v>
       </c>
       <c r="C191" t="n">
-        <v>61418379955</v>
+        <v>734808997.9799984</v>
       </c>
       <c r="D191" t="n">
-        <v>0.4159265768279251</v>
+        <v>0.4024690937821776</v>
       </c>
       <c r="E191" t="n">
         <v>190</v>
@@ -4073,17 +4073,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2021-06-04</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>25923087661</v>
+        <v>276058624.2999999</v>
       </c>
       <c r="C192" t="n">
-        <v>63386616118</v>
+        <v>695539514.0499972</v>
       </c>
       <c r="D192" t="n">
-        <v>0.4089678428761964</v>
+        <v>0.3968985495770929</v>
       </c>
       <c r="E192" t="n">
         <v>191</v>
@@ -4092,17 +4092,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2021-05-25</t>
+          <t>2021-06-07</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>29902389375</v>
+        <v>256332228.1899999</v>
       </c>
       <c r="C193" t="n">
-        <v>71817033145</v>
+        <v>671751143.6499972</v>
       </c>
       <c r="D193" t="n">
-        <v>0.4163690431854305</v>
+        <v>0.3815880785810122</v>
       </c>
       <c r="E193" t="n">
         <v>192</v>
@@ -4111,17 +4111,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2021-05-26</t>
+          <t>2021-06-08</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>29496722494</v>
+        <v>259158271.48</v>
       </c>
       <c r="C194" t="n">
-        <v>72933630614</v>
+        <v>688712463.5799958</v>
       </c>
       <c r="D194" t="n">
-        <v>0.4044323893611015</v>
+        <v>0.376293860187849</v>
       </c>
       <c r="E194" t="n">
         <v>193</v>
@@ -4130,17 +4130,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2021-06-09</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>26896810605</v>
+        <v>256135746.8400001</v>
       </c>
       <c r="C195" t="n">
-        <v>68968444971</v>
+        <v>672056344.3599983</v>
       </c>
       <c r="D195" t="n">
-        <v>0.3899871980049663</v>
+        <v>0.3811224296735404</v>
       </c>
       <c r="E195" t="n">
         <v>194</v>
@@ -4149,17 +4149,17 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2021-05-27</t>
+          <t>2021-06-10</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>26896810605</v>
+        <v>275966704.64</v>
       </c>
       <c r="C196" t="n">
-        <v>68968444971</v>
+        <v>734623611.3899992</v>
       </c>
       <c r="D196" t="n">
-        <v>0.3899871980049663</v>
+        <v>0.3756572758638083</v>
       </c>
       <c r="E196" t="n">
         <v>195</v>
@@ -4168,17 +4168,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2021-05-28</t>
+          <t>2021-06-11</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>29791926043</v>
+        <v>315311867.8599999</v>
       </c>
       <c r="C197" t="n">
-        <v>73972884560</v>
+        <v>812743605.6300007</v>
       </c>
       <c r="D197" t="n">
-        <v>0.4027411695543051</v>
+        <v>0.3879598260457367</v>
       </c>
       <c r="E197" t="n">
         <v>196</v>
@@ -4187,17 +4187,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2021-05-31</t>
+          <t>2021-06-15</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>27775314244</v>
+        <v>305402473.99</v>
       </c>
       <c r="C198" t="n">
-        <v>70615016083</v>
+        <v>756646382.4599979</v>
       </c>
       <c r="D198" t="n">
-        <v>0.3933343895490053</v>
+        <v>0.4036264245354347</v>
       </c>
       <c r="E198" t="n">
         <v>197</v>
@@ -4206,17 +4206,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2021-06-01</t>
+          <t>2021-06-16</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>28722955321</v>
+        <v>285552245.1899999</v>
       </c>
       <c r="C199" t="n">
-        <v>75176823860</v>
+        <v>690128095.4999971</v>
       </c>
       <c r="D199" t="n">
-        <v>0.3820719451315218</v>
+        <v>0.4137670195605029</v>
       </c>
       <c r="E199" t="n">
         <v>198</v>
@@ -4225,17 +4225,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2021-06-02</t>
+          <t>2021-06-17</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>29120888356</v>
+        <v>253289964.5599999</v>
       </c>
       <c r="C200" t="n">
-        <v>75272955834</v>
+        <v>637785146.8400012</v>
       </c>
       <c r="D200" t="n">
-        <v>0.3868705305026218</v>
+        <v>0.3971399550694488</v>
       </c>
       <c r="E200" t="n">
         <v>199</v>
@@ -4244,17 +4244,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2021-06-03</t>
+          <t>2021-06-18</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>29199450254</v>
+        <v>275681362.2900001</v>
       </c>
       <c r="C201" t="n">
-        <v>72798616374</v>
+        <v>696065782.4699994</v>
       </c>
       <c r="D201" t="n">
-        <v>0.4010989728704318</v>
+        <v>0.396056478041114</v>
       </c>
       <c r="E201" t="n">
         <v>200</v>
@@ -4263,17 +4263,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2021-06-04</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>27330244158</v>
+        <v>261961053.6700001</v>
       </c>
       <c r="C202" t="n">
-        <v>68930352581</v>
+        <v>688711461.5500003</v>
       </c>
       <c r="D202" t="n">
-        <v>0.3964907059757783</v>
+        <v>0.3803640106125659</v>
       </c>
       <c r="E202" t="n">
         <v>201</v>
@@ -4282,17 +4282,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2021-06-07</t>
+          <t>2021-06-22</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>25294989410</v>
+        <v>286199699.67</v>
       </c>
       <c r="C203" t="n">
-        <v>66558910303</v>
+        <v>730650122.1499993</v>
       </c>
       <c r="D203" t="n">
-        <v>0.3800391156472988</v>
+        <v>0.3917055386616968</v>
       </c>
       <c r="E203" t="n">
         <v>202</v>
@@ -4301,17 +4301,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2021-06-08</t>
+          <t>2021-06-23</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>25589368881</v>
+        <v>277423568.8199998</v>
       </c>
       <c r="C204" t="n">
-        <v>68255065080</v>
+        <v>723808524.6300009</v>
       </c>
       <c r="D204" t="n">
-        <v>0.3749079844991337</v>
+        <v>0.3832830912869038</v>
       </c>
       <c r="E204" t="n">
         <v>203</v>
@@ -4320,17 +4320,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2021-06-09</t>
+          <t>2021-06-24</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>25270907666</v>
+        <v>298028257.3600004</v>
       </c>
       <c r="C205" t="n">
-        <v>66612688195</v>
+        <v>734465400.5399996</v>
       </c>
       <c r="D205" t="n">
-        <v>0.3793707828157707</v>
+        <v>0.4057757617184984</v>
       </c>
       <c r="E205" t="n">
         <v>204</v>
@@ -4339,17 +4339,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2021-06-10</t>
+          <t>2021-06-25</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>27144684274</v>
+        <v>305161580.0899999</v>
       </c>
       <c r="C206" t="n">
-        <v>72726642476</v>
+        <v>745550034.0099986</v>
       </c>
       <c r="D206" t="n">
-        <v>0.3732426432714507</v>
+        <v>0.4093106648371602</v>
       </c>
       <c r="E206" t="n">
         <v>205</v>
@@ -4358,17 +4358,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2021-06-11</t>
+          <t>2021-06-28</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>31253551848</v>
+        <v>272161299.05</v>
       </c>
       <c r="C207" t="n">
-        <v>80603106508</v>
+        <v>702982176.2199997</v>
       </c>
       <c r="D207" t="n">
-        <v>0.3877462445556987</v>
+        <v>0.3871524887208898</v>
       </c>
       <c r="E207" t="n">
         <v>206</v>
@@ -4377,17 +4377,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2021-06-15</t>
+          <t>2021-06-29</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>26600340763</v>
+        <v>262288105.4099998</v>
       </c>
       <c r="C208" t="n">
-        <v>71269245087</v>
+        <v>683551247.0399985</v>
       </c>
       <c r="D208" t="n">
-        <v>0.3732373021564681</v>
+        <v>0.3837138861874563</v>
       </c>
       <c r="E208" t="n">
         <v>207</v>
@@ -4396,17 +4396,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2021-06-16</t>
+          <t>2021-06-30</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>25225237352</v>
+        <v>233761146.1000001</v>
       </c>
       <c r="C209" t="n">
-        <v>65304111913</v>
+        <v>623245858.4000026</v>
       </c>
       <c r="D209" t="n">
-        <v>0.3862733388918263</v>
+        <v>0.375070516633856</v>
       </c>
       <c r="E209" t="n">
         <v>208</v>
@@ -4415,17 +4415,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2021-06-17</t>
+          <t>2021-07-01</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>23865594042</v>
+        <v>245933592.8299999</v>
       </c>
       <c r="C210" t="n">
-        <v>62073104309</v>
+        <v>680328319.2099991</v>
       </c>
       <c r="D210" t="n">
-        <v>0.3844756003050377</v>
+        <v>0.3614925116090703</v>
       </c>
       <c r="E210" t="n">
         <v>209</v>
@@ -4434,17 +4434,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2021-06-18</t>
+          <t>2021-07-02</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>26773348572</v>
+        <v>248066721.5000003</v>
       </c>
       <c r="C211" t="n">
-        <v>68507417006</v>
+        <v>646587996.1299989</v>
       </c>
       <c r="D211" t="n">
-        <v>0.3908094881121433</v>
+        <v>0.3836550059462062</v>
       </c>
       <c r="E211" t="n">
         <v>210</v>
@@ -4453,17 +4453,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2021-06-21</t>
+          <t>2021-07-05</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>25810884254</v>
+        <v>257269386.8899998</v>
       </c>
       <c r="C212" t="n">
-        <v>68094480065</v>
+        <v>654002898.8700011</v>
       </c>
       <c r="D212" t="n">
-        <v>0.3790451770740016</v>
+        <v>0.3933765237654372</v>
       </c>
       <c r="E212" t="n">
         <v>211</v>
@@ -4472,17 +4472,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2021-06-22</t>
+          <t>2021-07-06</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>27325435943</v>
+        <v>288232610.3299998</v>
       </c>
       <c r="C213" t="n">
-        <v>71331165214</v>
+        <v>713204971.5999974</v>
       </c>
       <c r="D213" t="n">
-        <v>0.3830785023772036</v>
+        <v>0.4041371300081959</v>
       </c>
       <c r="E213" t="n">
         <v>212</v>
@@ -4491,17 +4491,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2021-06-23</t>
+          <t>2021-07-07</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>26948115800</v>
+        <v>297683347.0499998</v>
       </c>
       <c r="C214" t="n">
-        <v>71129212592</v>
+        <v>702661527.0799991</v>
       </c>
       <c r="D214" t="n">
-        <v>0.3788614384721994</v>
+        <v>0.4236511258657656</v>
       </c>
       <c r="E214" t="n">
         <v>213</v>
@@ -4510,17 +4510,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2021-06-24</t>
+          <t>2021-07-08</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>25431794302</v>
+        <v>324985230.08</v>
       </c>
       <c r="C215" t="n">
-        <v>68625630748</v>
+        <v>789558186.1499988</v>
       </c>
       <c r="D215" t="n">
-        <v>0.3705874033477087</v>
+        <v>0.4116039017525429</v>
       </c>
       <c r="E215" t="n">
         <v>214</v>
@@ -4529,17 +4529,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2021-06-25</t>
+          <t>2021-07-09</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>27857858703</v>
+        <v>319913051.5900002</v>
       </c>
       <c r="C216" t="n">
-        <v>71470857871</v>
+        <v>771663446.9899986</v>
       </c>
       <c r="D216" t="n">
-        <v>0.3897792685416135</v>
+        <v>0.4145758786915126</v>
       </c>
       <c r="E216" t="n">
         <v>215</v>
@@ -4548,17 +4548,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2021-06-28</t>
+          <t>2021-07-12</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>25041439447</v>
+        <v>371386508.0699998</v>
       </c>
       <c r="C217" t="n">
-        <v>67772533030</v>
+        <v>886260483.1599972</v>
       </c>
       <c r="D217" t="n">
-        <v>0.369492452582748</v>
+        <v>0.4190489310160895</v>
       </c>
       <c r="E217" t="n">
         <v>216</v>
@@ -4567,17 +4567,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2021-06-29</t>
+          <t>2021-07-13</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>23759674387</v>
+        <v>345324301.3399999</v>
       </c>
       <c r="C218" t="n">
-        <v>65504552666</v>
+        <v>836141134.9599968</v>
       </c>
       <c r="D218" t="n">
-        <v>0.3627179092138493</v>
+        <v>0.4129976231303595</v>
       </c>
       <c r="E218" t="n">
         <v>217</v>
@@ -4586,17 +4586,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2021-06-30</t>
+          <t>2021-07-14</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>21731079518</v>
+        <v>359545243.5700001</v>
       </c>
       <c r="C219" t="n">
-        <v>60341364451</v>
+        <v>852872069.26</v>
       </c>
       <c r="D219" t="n">
-        <v>0.360135699875442</v>
+        <v>0.4215699593515378</v>
       </c>
       <c r="E219" t="n">
         <v>218</v>
@@ -4605,17 +4605,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2021-07-01</t>
+          <t>2021-07-15</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>23237110584</v>
+        <v>340547712.7400001</v>
       </c>
       <c r="C220" t="n">
-        <v>66252494627</v>
+        <v>822869517.1099995</v>
       </c>
       <c r="D220" t="n">
-        <v>0.3507356321422218</v>
+        <v>0.4138538439679208</v>
       </c>
       <c r="E220" t="n">
         <v>219</v>
@@ -4624,17 +4624,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2021-07-02</t>
+          <t>2021-07-16</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>23485251132</v>
+        <v>343389806.06</v>
       </c>
       <c r="C221" t="n">
-        <v>63093845574</v>
+        <v>808504817.9199994</v>
       </c>
       <c r="D221" t="n">
-        <v>0.3722272896562499</v>
+        <v>0.424722028179649</v>
       </c>
       <c r="E221" t="n">
         <v>220</v>
@@ -4643,17 +4643,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2021-07-05</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>24607854588</v>
+        <v>303535511.3900003</v>
       </c>
       <c r="C222" t="n">
-        <v>63949188580</v>
+        <v>764323207.7399988</v>
       </c>
       <c r="D222" t="n">
-        <v>0.3848032341679479</v>
+        <v>0.3971297853005328</v>
       </c>
       <c r="E222" t="n">
         <v>221</v>
@@ -4662,17 +4662,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2021-07-06</t>
+          <t>2021-07-20</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>26803155256</v>
+        <v>267576502.0000001</v>
       </c>
       <c r="C223" t="n">
-        <v>68805538123</v>
+        <v>675025945.7699956</v>
       </c>
       <c r="D223" t="n">
-        <v>0.3895493878426679</v>
+        <v>0.396394395914335</v>
       </c>
       <c r="E223" t="n">
         <v>222</v>
@@ -4681,17 +4681,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2021-07-07</t>
+          <t>2021-07-21</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>28008698287</v>
+        <v>318376568.7499999</v>
       </c>
       <c r="C224" t="n">
-        <v>67984401713</v>
+        <v>790840420.0599953</v>
       </c>
       <c r="D224" t="n">
-        <v>0.4119871261828604</v>
+        <v>0.4025800410224948</v>
       </c>
       <c r="E224" t="n">
         <v>223</v>
@@ -4700,17 +4700,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2021-07-08</t>
+          <t>2021-07-22</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>30540652959</v>
+        <v>366890590.12</v>
       </c>
       <c r="C225" t="n">
-        <v>76367311906</v>
+        <v>871610941.1400017</v>
       </c>
       <c r="D225" t="n">
-        <v>0.3999178731941263</v>
+        <v>0.4209338969978219</v>
       </c>
       <c r="E225" t="n">
         <v>224</v>
@@ -4719,17 +4719,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2021-07-09</t>
+          <t>2021-07-23</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>30301028805</v>
+        <v>422307793.4200003</v>
       </c>
       <c r="C226" t="n">
-        <v>74948316753</v>
+        <v>974862129.9099954</v>
       </c>
       <c r="D226" t="n">
-        <v>0.4042923192639563</v>
+        <v>0.4331974547611055</v>
       </c>
       <c r="E226" t="n">
         <v>225</v>
@@ -4738,17 +4738,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2021-07-12</t>
+          <t>2021-07-26</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>35708190055</v>
+        <v>396326181.1899999</v>
       </c>
       <c r="C227" t="n">
-        <v>86869304227</v>
+        <v>954233843.3000011</v>
       </c>
       <c r="D227" t="n">
-        <v>0.4110564758489395</v>
+        <v>0.415334442362048</v>
       </c>
       <c r="E227" t="n">
         <v>226</v>
@@ -4757,17 +4757,17 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2021-07-13</t>
+          <t>2021-07-27</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>32935829308</v>
+        <v>428699040.3600002</v>
       </c>
       <c r="C228" t="n">
-        <v>81554737540</v>
+        <v>997150883.2999971</v>
       </c>
       <c r="D228" t="n">
-        <v>0.4038493691656604</v>
+        <v>0.4299239438481491</v>
       </c>
       <c r="E228" t="n">
         <v>227</v>
@@ -4776,17 +4776,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2021-07-14</t>
+          <t>2021-07-28</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>34467712581</v>
+        <v>343573077.85</v>
       </c>
       <c r="C229" t="n">
-        <v>83519152120</v>
+        <v>874200335.6199977</v>
       </c>
       <c r="D229" t="n">
-        <v>0.4126923191398893</v>
+        <v>0.3930141225653181</v>
       </c>
       <c r="E229" t="n">
         <v>228</v>
@@ -4795,17 +4795,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2021-07-15</t>
+          <t>2021-07-29</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>32827118605</v>
+        <v>316375817.3100003</v>
       </c>
       <c r="C230" t="n">
-        <v>80564630412</v>
+        <v>783208597.9500018</v>
       </c>
       <c r="D230" t="n">
-        <v>0.4074631564388141</v>
+        <v>0.4039483454830471</v>
       </c>
       <c r="E230" t="n">
         <v>229</v>
@@ -4814,17 +4814,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2021-07-16</t>
+          <t>2021-07-30</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>33057162202</v>
+        <v>349308648.21</v>
       </c>
       <c r="C231" t="n">
-        <v>79197594583</v>
+        <v>858620099.5399981</v>
       </c>
       <c r="D231" t="n">
-        <v>0.4174010887080126</v>
+        <v>0.4068256128608457</v>
       </c>
       <c r="E231" t="n">
         <v>230</v>
@@ -4833,17 +4833,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2021-07-19</t>
+          <t>2021-08-02</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>29293397197</v>
+        <v>374122463.6300002</v>
       </c>
       <c r="C232" t="n">
-        <v>75019916111</v>
+        <v>939940738.8000025</v>
       </c>
       <c r="D232" t="n">
-        <v>0.3904749393968567</v>
+        <v>0.3980277140744347</v>
       </c>
       <c r="E232" t="n">
         <v>231</v>
@@ -4852,17 +4852,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2021-07-20</t>
+          <t>2021-08-03</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>25899690638</v>
+        <v>359402777.7599997</v>
       </c>
       <c r="C233" t="n">
-        <v>66268225462</v>
+        <v>908303464.199999</v>
       </c>
       <c r="D233" t="n">
-        <v>0.3908312084326385</v>
+        <v>0.3956857943688993</v>
       </c>
       <c r="E233" t="n">
         <v>232</v>
@@ -4871,17 +4871,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2021-07-21</t>
+          <t>2021-08-04</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>30918968896</v>
+        <v>320051569.1700003</v>
       </c>
       <c r="C234" t="n">
-        <v>77810217059</v>
+        <v>794954175.2899977</v>
       </c>
       <c r="D234" t="n">
-        <v>0.3973638689705175</v>
+        <v>0.4026037966946284</v>
       </c>
       <c r="E234" t="n">
         <v>233</v>
@@ -4890,17 +4890,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2021-07-22</t>
+          <t>2021-08-05</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>35691611317</v>
+        <v>326280985.33</v>
       </c>
       <c r="C235" t="n">
-        <v>85733791119</v>
+        <v>819454578.719998</v>
       </c>
       <c r="D235" t="n">
-        <v>0.4163073958488482</v>
+        <v>0.3981684815766806</v>
       </c>
       <c r="E235" t="n">
         <v>234</v>
@@ -4909,17 +4909,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2021-07-23</t>
+          <t>2021-08-06</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>41153483419</v>
+        <v>320736510.6899999</v>
       </c>
       <c r="C236" t="n">
-        <v>95887635112</v>
+        <v>779119240.6000001</v>
       </c>
       <c r="D236" t="n">
-        <v>0.4291844654519985</v>
+        <v>0.4116654986507592</v>
       </c>
       <c r="E236" t="n">
         <v>235</v>
@@ -4928,17 +4928,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2021-07-26</t>
+          <t>2021-08-09</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>38615650827</v>
+        <v>317320952.1</v>
       </c>
       <c r="C237" t="n">
-        <v>93845060687</v>
+        <v>797087459.9599993</v>
       </c>
       <c r="D237" t="n">
-        <v>0.411483039643335</v>
+        <v>0.3981005448460126</v>
       </c>
       <c r="E237" t="n">
         <v>236</v>
@@ -4947,17 +4947,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2021-07-27</t>
+          <t>2021-08-10</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>41236731272</v>
+        <v>315242253.9400001</v>
       </c>
       <c r="C238" t="n">
-        <v>97512980524</v>
+        <v>818599356.7499982</v>
       </c>
       <c r="D238" t="n">
-        <v>0.4228845334273294</v>
+        <v>0.3850995622468779</v>
       </c>
       <c r="E238" t="n">
         <v>237</v>
@@ -4966,17 +4966,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2021-07-28</t>
+          <t>2021-08-11</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>33288360190</v>
+        <v>351541141.8600001</v>
       </c>
       <c r="C239" t="n">
-        <v>85835883058</v>
+        <v>874892093.2099991</v>
       </c>
       <c r="D239" t="n">
-        <v>0.3878140353901501</v>
+        <v>0.401810857119748</v>
       </c>
       <c r="E239" t="n">
         <v>238</v>
@@ -4985,17 +4985,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2021-07-29</t>
+          <t>2021-08-12</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>30726848927</v>
+        <v>359666741.8299996</v>
       </c>
       <c r="C240" t="n">
-        <v>76828959128</v>
+        <v>883906284.6600019</v>
       </c>
       <c r="D240" t="n">
-        <v>0.3999383731830584</v>
+        <v>0.4069059673767869</v>
       </c>
       <c r="E240" t="n">
         <v>239</v>
@@ -5004,17 +5004,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2021-07-30</t>
+          <t>2021-08-13</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>33797008978</v>
+        <v>350387769.9700001</v>
       </c>
       <c r="C241" t="n">
-        <v>84082878559</v>
+        <v>867879802.5100001</v>
       </c>
       <c r="D241" t="n">
-        <v>0.4019487624259322</v>
+        <v>0.4037284528994011</v>
       </c>
       <c r="E241" t="n">
         <v>240</v>
@@ -5023,17 +5023,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2021-08-02</t>
+          <t>2021-08-16</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>36348579829</v>
+        <v>346299410.0199999</v>
       </c>
       <c r="C242" t="n">
-        <v>92369348983</v>
+        <v>862664033.5200007</v>
       </c>
       <c r="D242" t="n">
-        <v>0.3935134352380217</v>
+        <v>0.4014302168214492</v>
       </c>
       <c r="E242" t="n">
         <v>241</v>
@@ -5042,17 +5042,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2021-08-03</t>
+          <t>2021-08-17</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>34994123795</v>
+        <v>363794151.9</v>
       </c>
       <c r="C243" t="n">
-        <v>89324712231</v>
+        <v>931616929.7099983</v>
       </c>
       <c r="D243" t="n">
-        <v>0.3917630734091002</v>
+        <v>0.3904975750207169</v>
       </c>
       <c r="E243" t="n">
         <v>242</v>
@@ -5061,17 +5061,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2021-08-04</t>
+          <t>2021-08-18</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>31068141540</v>
+        <v>343095257.6900001</v>
       </c>
       <c r="C244" t="n">
-        <v>77959647042</v>
+        <v>835711287.7699996</v>
       </c>
       <c r="D244" t="n">
-        <v>0.3985156772613701</v>
+        <v>0.4105428067215781</v>
       </c>
       <c r="E244" t="n">
         <v>243</v>
@@ -5080,191 +5080,20 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2021-08-05</t>
+          <t>2021-08-19</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>31811862162</v>
+        <v>361790680.68</v>
       </c>
       <c r="C245" t="n">
-        <v>80441720302</v>
+        <v>835419077.0900013</v>
       </c>
       <c r="D245" t="n">
-        <v>0.3954647170966714</v>
+        <v>0.4330649019175122</v>
       </c>
       <c r="E245" t="n">
         <v>244</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>2021-08-06</t>
-        </is>
-      </c>
-      <c r="B246" t="n">
-        <v>31332678967</v>
-      </c>
-      <c r="C246" t="n">
-        <v>76590419403</v>
-      </c>
-      <c r="D246" t="n">
-        <v>0.4090939729959583</v>
-      </c>
-      <c r="E246" t="n">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>2021-08-09</t>
-        </is>
-      </c>
-      <c r="B247" t="n">
-        <v>30768395105</v>
-      </c>
-      <c r="C247" t="n">
-        <v>78313875741</v>
-      </c>
-      <c r="D247" t="n">
-        <v>0.3928856133587025</v>
-      </c>
-      <c r="E247" t="n">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>2021-08-10</t>
-        </is>
-      </c>
-      <c r="B248" t="n">
-        <v>30644302498</v>
-      </c>
-      <c r="C248" t="n">
-        <v>80465092179</v>
-      </c>
-      <c r="D248" t="n">
-        <v>0.380839711583623</v>
-      </c>
-      <c r="E248" t="n">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>2021-08-11</t>
-        </is>
-      </c>
-      <c r="B249" t="n">
-        <v>33766000824</v>
-      </c>
-      <c r="C249" t="n">
-        <v>85513725699</v>
-      </c>
-      <c r="D249" t="n">
-        <v>0.3948605975004883</v>
-      </c>
-      <c r="E249" t="n">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>2021-08-12</t>
-        </is>
-      </c>
-      <c r="B250" t="n">
-        <v>34956624279</v>
-      </c>
-      <c r="C250" t="n">
-        <v>86570814177</v>
-      </c>
-      <c r="D250" t="n">
-        <v>0.4037922550610275</v>
-      </c>
-      <c r="E250" t="n">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>2021-08-13</t>
-        </is>
-      </c>
-      <c r="B251" t="n">
-        <v>34084389745</v>
-      </c>
-      <c r="C251" t="n">
-        <v>85116065413</v>
-      </c>
-      <c r="D251" t="n">
-        <v>0.4004460213194277</v>
-      </c>
-      <c r="E251" t="n">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>2021-08-16</t>
-        </is>
-      </c>
-      <c r="B252" t="n">
-        <v>33169331469</v>
-      </c>
-      <c r="C252" t="n">
-        <v>84057659114</v>
-      </c>
-      <c r="D252" t="n">
-        <v>0.3946021316631642</v>
-      </c>
-      <c r="E252" t="n">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>2021-08-17</t>
-        </is>
-      </c>
-      <c r="B253" t="n">
-        <v>35199877626</v>
-      </c>
-      <c r="C253" t="n">
-        <v>91024098963</v>
-      </c>
-      <c r="D253" t="n">
-        <v>0.3867094321945252</v>
-      </c>
-      <c r="E253" t="n">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>2021-08-18</t>
-        </is>
-      </c>
-      <c r="B254" t="n">
-        <v>33338081242</v>
-      </c>
-      <c r="C254" t="n">
-        <v>81559573936</v>
-      </c>
-      <c r="D254" t="n">
-        <v>0.4087574227418166</v>
-      </c>
-      <c r="E254" t="n">
-        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/king_index/output/index.xlsx
+++ b/king_index/output/index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E245"/>
+  <dimension ref="A1:E246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5096,6 +5096,25 @@
         <v>244</v>
       </c>
     </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2021-08-20</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>357778538.4300001</v>
+      </c>
+      <c r="C246" t="n">
+        <v>831232987.4500003</v>
+      </c>
+      <c r="D246" t="n">
+        <v>0.4304190808494844</v>
+      </c>
+      <c r="E246" t="n">
+        <v>245</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/king_index/output/index.xlsx
+++ b/king_index/output/index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E246"/>
+  <dimension ref="A1:E247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,6 +5115,25 @@
         <v>245</v>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2021-08-23</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>341502991.7799998</v>
+      </c>
+      <c r="C247" t="n">
+        <v>865497606.5999981</v>
+      </c>
+      <c r="D247" t="n">
+        <v>0.394574160778506</v>
+      </c>
+      <c r="E247" t="n">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/king_index/output/index.xlsx
+++ b/king_index/output/index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E247"/>
+  <dimension ref="A1:E248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5134,6 +5134,25 @@
         <v>246</v>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2021-08-24</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>390917947.75</v>
+      </c>
+      <c r="C248" t="n">
+        <v>937622395.4899966</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0.4169247125818794</v>
+      </c>
+      <c r="E248" t="n">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/king_index/output/index.xlsx
+++ b/king_index/output/index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5153,6 +5153,25 @@
         <v>247</v>
       </c>
     </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>2021-08-25</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>395098478.2099997</v>
+      </c>
+      <c r="C249" t="n">
+        <v>924218566.3500009</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.4274946344892797</v>
+      </c>
+      <c r="E249" t="n">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/king_index/output/index.xlsx
+++ b/king_index/output/index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E249"/>
+  <dimension ref="A1:E250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5172,6 +5172,25 @@
         <v>248</v>
       </c>
     </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2021-08-26</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>439391541.4899997</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1020241793.960001</v>
+      </c>
+      <c r="D250" t="n">
+        <v>0.4306739285640619</v>
+      </c>
+      <c r="E250" t="n">
+        <v>249</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/king_index/output/index.xlsx
+++ b/king_index/output/index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E250"/>
+  <dimension ref="A1:E251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5191,6 +5191,25 @@
         <v>249</v>
       </c>
     </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2021-08-27</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>413026456.3300002</v>
+      </c>
+      <c r="C251" t="n">
+        <v>965868670.4899966</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.4276217553681155</v>
+      </c>
+      <c r="E251" t="n">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/king_index/output/index.xlsx
+++ b/king_index/output/index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5210,6 +5210,25 @@
         <v>250</v>
       </c>
     </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2021-08-30</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>446751068.8799999</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1063228436.749998</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0.4201835216574881</v>
+      </c>
+      <c r="E252" t="n">
+        <v>251</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/king_index/output/index.xlsx
+++ b/king_index/output/index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E252"/>
+  <dimension ref="A1:E253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5229,6 +5229,25 @@
         <v>251</v>
       </c>
     </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2021-08-31</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>446742688.7100003</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1052890610.049999</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0.4243011424413649</v>
+      </c>
+      <c r="E253" t="n">
+        <v>252</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
